--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7749757</v>
+        <v>7751748</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12984,49 +12984,49 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45339.35416666666</v>
+        <v>45339.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K141">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M141">
-        <v>4.333</v>
+        <v>1.285</v>
       </c>
       <c r="N141">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>5.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -13049,7 +13049,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7751748</v>
+        <v>7749869</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13058,40 +13058,40 @@
         <v>28</v>
       </c>
       <c r="E142" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K142">
-        <v>10</v>
+        <v>1.65</v>
       </c>
       <c r="L142">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="N142">
-        <v>19</v>
+        <v>1.65</v>
       </c>
       <c r="O142">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="Q142">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.75</v>
@@ -13115,80 +13115,6 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:29">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>7749869</v>
-      </c>
-      <c r="C143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" t="s">
-        <v>28</v>
-      </c>
-      <c r="E143" s="2">
-        <v>45340.45833333334</v>
-      </c>
-      <c r="F143" t="s">
-        <v>34</v>
-      </c>
-      <c r="G143" t="s">
-        <v>37</v>
-      </c>
-      <c r="K143">
-        <v>1.65</v>
-      </c>
-      <c r="L143">
-        <v>4</v>
-      </c>
-      <c r="M143">
-        <v>5</v>
-      </c>
-      <c r="N143">
-        <v>1.65</v>
-      </c>
-      <c r="O143">
-        <v>4</v>
-      </c>
-      <c r="P143">
-        <v>5</v>
-      </c>
-      <c r="Q143">
-        <v>-0.75</v>
-      </c>
-      <c r="R143">
-        <v>1.8</v>
-      </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.95</v>
-      </c>
-      <c r="V143">
-        <v>1.85</v>
-      </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-      <c r="X143">
-        <v>0</v>
-      </c>
-      <c r="Y143">
-        <v>0</v>
-      </c>
-      <c r="Z143">
-        <v>0</v>
-      </c>
-      <c r="AA143">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7751748</v>
+        <v>7749869</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12984,49 +12984,49 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K141">
-        <v>10</v>
+        <v>1.65</v>
       </c>
       <c r="L141">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="N141">
-        <v>7.5</v>
+        <v>1.65</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P141">
-        <v>1.45</v>
+        <v>5</v>
       </c>
       <c r="Q141">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -13041,80 +13041,6 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>7749869</v>
-      </c>
-      <c r="C142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" t="s">
-        <v>28</v>
-      </c>
-      <c r="E142" s="2">
-        <v>45340.45833333334</v>
-      </c>
-      <c r="F142" t="s">
-        <v>34</v>
-      </c>
-      <c r="G142" t="s">
-        <v>37</v>
-      </c>
-      <c r="K142">
-        <v>1.65</v>
-      </c>
-      <c r="L142">
-        <v>4</v>
-      </c>
-      <c r="M142">
-        <v>5</v>
-      </c>
-      <c r="N142">
-        <v>1.65</v>
-      </c>
-      <c r="O142">
-        <v>4</v>
-      </c>
-      <c r="P142">
-        <v>5</v>
-      </c>
-      <c r="Q142">
-        <v>-0.75</v>
-      </c>
-      <c r="R142">
-        <v>1.8</v>
-      </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
-      <c r="U142">
-        <v>1.95</v>
-      </c>
-      <c r="V142">
-        <v>1.85</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-      <c r="Z142">
-        <v>0</v>
-      </c>
-      <c r="AA142">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7749869</v>
+        <v>7749757</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12984,31 +12984,40 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45340.45833333334</v>
+        <v>45339.35416666666</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="H141">
+        <v>4</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
         <v>-0.75</v>
@@ -13017,31 +13026,215 @@
         <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
+        <v>1.875</v>
+      </c>
+      <c r="V141">
         <v>1.975</v>
       </c>
-      <c r="V141">
-        <v>1.825</v>
-      </c>
       <c r="W141">
+        <v>0.615</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
+        <v>0.825</v>
+      </c>
+      <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
+        <v>0.875</v>
+      </c>
+      <c r="AC141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7751748</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F142" t="s">
+        <v>35</v>
+      </c>
+      <c r="G142" t="s">
+        <v>36</v>
+      </c>
+      <c r="H142">
         <v>0</v>
       </c>
-      <c r="X141">
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>41</v>
+      </c>
+      <c r="K142">
+        <v>10</v>
+      </c>
+      <c r="L142">
+        <v>5.25</v>
+      </c>
+      <c r="M142">
+        <v>1.285</v>
+      </c>
+      <c r="N142">
+        <v>6.5</v>
+      </c>
+      <c r="O142">
+        <v>4</v>
+      </c>
+      <c r="P142">
+        <v>1.533</v>
+      </c>
+      <c r="Q142">
+        <v>1</v>
+      </c>
+      <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
+        <v>1.85</v>
+      </c>
+      <c r="V142">
+        <v>1.95</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z142">
         <v>0</v>
       </c>
-      <c r="Y141">
+      <c r="AA142">
+        <v>-0</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7749869</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="F143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" t="s">
+        <v>37</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="Z141">
-        <v>0</v>
-      </c>
-      <c r="AA141">
-        <v>0</v>
+      <c r="J143" t="s">
+        <v>42</v>
+      </c>
+      <c r="K143">
+        <v>1.65</v>
+      </c>
+      <c r="L143">
+        <v>4</v>
+      </c>
+      <c r="M143">
+        <v>5</v>
+      </c>
+      <c r="N143">
+        <v>1.5</v>
+      </c>
+      <c r="O143">
+        <v>4.333</v>
+      </c>
+      <c r="P143">
+        <v>6</v>
+      </c>
+      <c r="Q143">
+        <v>-1</v>
+      </c>
+      <c r="R143">
+        <v>1.85</v>
+      </c>
+      <c r="S143">
+        <v>2</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.925</v>
+      </c>
+      <c r="V143">
+        <v>1.925</v>
+      </c>
+      <c r="W143">
+        <v>0.5</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA143">
+        <v>-1</v>
+      </c>
+      <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13237,6 +13237,154 @@
         <v>0.925</v>
       </c>
     </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7751749</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45343.45833333334</v>
+      </c>
+      <c r="F144" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" t="s">
+        <v>32</v>
+      </c>
+      <c r="K144">
+        <v>1.4</v>
+      </c>
+      <c r="L144">
+        <v>4.2</v>
+      </c>
+      <c r="M144">
+        <v>5.75</v>
+      </c>
+      <c r="N144">
+        <v>1.4</v>
+      </c>
+      <c r="O144">
+        <v>4.2</v>
+      </c>
+      <c r="P144">
+        <v>5.75</v>
+      </c>
+      <c r="Q144">
+        <v>-1</v>
+      </c>
+      <c r="R144">
+        <v>1.725</v>
+      </c>
+      <c r="S144">
+        <v>2.075</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.9</v>
+      </c>
+      <c r="V144">
+        <v>1.9</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7751750</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45344.45833333334</v>
+      </c>
+      <c r="F145" t="s">
+        <v>33</v>
+      </c>
+      <c r="G145" t="s">
+        <v>36</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>3.3</v>
+      </c>
+      <c r="M145">
+        <v>3.4</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145">
+        <v>3.3</v>
+      </c>
+      <c r="P145">
+        <v>3.4</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>2.025</v>
+      </c>
+      <c r="S145">
+        <v>1.775</v>
+      </c>
+      <c r="T145">
+        <v>2.5</v>
+      </c>
+      <c r="U145">
+        <v>1.975</v>
+      </c>
+      <c r="V145">
+        <v>1.825</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -13269,31 +13269,31 @@
         <v>5.75</v>
       </c>
       <c r="N144">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O144">
         <v>4.2</v>
       </c>
       <c r="P144">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R144">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
         <v>0</v>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13259,6 +13259,15 @@
       <c r="G144" t="s">
         <v>32</v>
       </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>41</v>
+      </c>
       <c r="K144">
         <v>1.4</v>
       </c>
@@ -13269,46 +13278,52 @@
         <v>5.75</v>
       </c>
       <c r="N144">
-        <v>1.363</v>
+        <v>1.6</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
         <v>2.025</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
+        <v>1.025</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -13343,22 +13358,22 @@
         <v>3.4</v>
       </c>
       <c r="N145">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O145">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>1.775</v>
+      </c>
+      <c r="S145">
         <v>2.025</v>
-      </c>
-      <c r="S145">
-        <v>1.775</v>
       </c>
       <c r="T145">
         <v>2.5</v>
@@ -13382,6 +13397,80 @@
         <v>0</v>
       </c>
       <c r="AA145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7749870</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45345.45833333334</v>
+      </c>
+      <c r="F146" t="s">
+        <v>39</v>
+      </c>
+      <c r="G146" t="s">
+        <v>34</v>
+      </c>
+      <c r="K146">
+        <v>3.6</v>
+      </c>
+      <c r="L146">
+        <v>3.75</v>
+      </c>
+      <c r="M146">
+        <v>1.909</v>
+      </c>
+      <c r="N146">
+        <v>3.8</v>
+      </c>
+      <c r="O146">
+        <v>3.75</v>
+      </c>
+      <c r="P146">
+        <v>1.85</v>
+      </c>
+      <c r="Q146">
+        <v>0.5</v>
+      </c>
+      <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>1.85</v>
+      </c>
+      <c r="T146">
+        <v>2.75</v>
+      </c>
+      <c r="U146">
+        <v>1.925</v>
+      </c>
+      <c r="V146">
+        <v>1.875</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC146"/>
+  <dimension ref="A1:AC147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13326,7 +13326,7 @@
         <v>1.025</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:29">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -13348,6 +13348,15 @@
       <c r="G145" t="s">
         <v>36</v>
       </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>42</v>
+      </c>
       <c r="K145">
         <v>2</v>
       </c>
@@ -13358,49 +13367,55 @@
         <v>3.4</v>
       </c>
       <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145">
+        <v>3.6</v>
+      </c>
+      <c r="P145">
+        <v>3.4</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
         <v>2.05</v>
       </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>3.5</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.775</v>
-      </c>
       <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
+        <v>2.75</v>
+      </c>
+      <c r="U145">
         <v>2.025</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
-      <c r="U145">
-        <v>1.975</v>
       </c>
       <c r="V145">
         <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB145">
+        <v>0.5125</v>
+      </c>
+      <c r="AC145">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -13432,31 +13447,31 @@
         <v>1.909</v>
       </c>
       <c r="N146">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q146">
         <v>0.5</v>
       </c>
       <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
+        <v>1.9</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.85</v>
+      </c>
+      <c r="V146">
         <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.85</v>
-      </c>
-      <c r="T146">
-        <v>2.75</v>
-      </c>
-      <c r="U146">
-        <v>1.925</v>
-      </c>
-      <c r="V146">
-        <v>1.875</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -13471,6 +13486,80 @@
         <v>0</v>
       </c>
       <c r="AA146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7751751</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G147" t="s">
+        <v>35</v>
+      </c>
+      <c r="K147">
+        <v>1.2</v>
+      </c>
+      <c r="L147">
+        <v>5.5</v>
+      </c>
+      <c r="M147">
+        <v>10</v>
+      </c>
+      <c r="N147">
+        <v>1.142</v>
+      </c>
+      <c r="O147">
+        <v>6</v>
+      </c>
+      <c r="P147">
+        <v>15</v>
+      </c>
+      <c r="Q147">
+        <v>-2</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.8</v>
+      </c>
+      <c r="V147">
+        <v>2</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Punjab FC</t>
+  </si>
+  <si>
+    <t>FA Odisha</t>
   </si>
   <si>
     <t>A</t>
@@ -507,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC147"/>
+  <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>3.4</v>
@@ -717,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>1.727</v>
@@ -806,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>2.625</v>
@@ -895,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>4.5</v>
@@ -984,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>2.1</v>
@@ -1073,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>1.615</v>
@@ -1162,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>1.615</v>
@@ -1251,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.65</v>
@@ -1340,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>2.7</v>
@@ -1429,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>2.3</v>
@@ -1518,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>2.7</v>
@@ -1607,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -1696,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>2.6</v>
@@ -1785,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.1</v>
@@ -1874,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -1963,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>2.8</v>
@@ -2052,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>2.15</v>
@@ -2141,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2230,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2319,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>2.3</v>
@@ -2408,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>1.833</v>
@@ -2497,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>1.181</v>
@@ -2586,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>2.2</v>
@@ -2675,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -2764,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>1.533</v>
@@ -2853,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>3.75</v>
@@ -2942,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>1.65</v>
@@ -3031,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>2.9</v>
@@ -3120,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3209,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>1.666</v>
@@ -3298,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>3.4</v>
@@ -3387,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -3476,7 +3479,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34">
         <v>3.2</v>
@@ -3565,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>2.625</v>
@@ -3654,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>1.666</v>
@@ -3743,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K37">
         <v>2.15</v>
@@ -3832,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>3.8</v>
@@ -3921,7 +3924,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
         <v>1.909</v>
@@ -4010,7 +4013,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K40">
         <v>4.75</v>
@@ -4099,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K41">
         <v>1.55</v>
@@ -4188,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4277,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K43">
         <v>1.222</v>
@@ -4366,7 +4369,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>2.05</v>
@@ -4455,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>2.4</v>
@@ -4544,7 +4547,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>1.363</v>
@@ -4633,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
         <v>5.25</v>
@@ -4722,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>2.4</v>
@@ -4811,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>2.05</v>
@@ -4900,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.8</v>
@@ -4989,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K51">
         <v>1.8</v>
@@ -5078,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>2.375</v>
@@ -5167,7 +5170,7 @@
         <v>10</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>3.1</v>
@@ -5256,7 +5259,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5345,7 +5348,7 @@
         <v>5</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5434,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>2.6</v>
@@ -5523,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2.05</v>
@@ -5612,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>1.571</v>
@@ -5701,7 +5704,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K59">
         <v>7</v>
@@ -5790,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K60">
         <v>2.6</v>
@@ -5879,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>1.7</v>
@@ -5968,7 +5971,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>3.4</v>
@@ -6057,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>4.2</v>
@@ -6146,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>3.5</v>
@@ -6235,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6324,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>1.833</v>
@@ -6413,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>1.5</v>
@@ -6502,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6591,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6680,7 +6683,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6769,7 +6772,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
         <v>3.4</v>
@@ -6858,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>1.571</v>
@@ -6947,7 +6950,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
         <v>3.5</v>
@@ -7036,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>1.5</v>
@@ -7125,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>1.727</v>
@@ -7214,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -7303,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K77">
         <v>2.5</v>
@@ -7392,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7481,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7570,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>1.615</v>
@@ -7659,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>1.727</v>
@@ -7748,7 +7751,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>2.05</v>
@@ -7837,7 +7840,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -7926,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>1.333</v>
@@ -8015,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>1.533</v>
@@ -8104,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K86">
         <v>2.3</v>
@@ -8193,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K87">
         <v>2.5</v>
@@ -8282,7 +8285,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K88">
         <v>3.2</v>
@@ -8371,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>3.2</v>
@@ -8460,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K90">
         <v>2.3</v>
@@ -8549,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>1.75</v>
@@ -8638,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>3.1</v>
@@ -8727,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>1.615</v>
@@ -8816,7 +8819,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>1.75</v>
@@ -8905,7 +8908,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K95">
         <v>1.666</v>
@@ -8994,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9083,7 +9086,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>4.333</v>
@@ -9172,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.8</v>
@@ -9261,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
         <v>1.909</v>
@@ -9350,7 +9353,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K100">
         <v>1.727</v>
@@ -9439,7 +9442,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -9528,7 +9531,7 @@
         <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K102">
         <v>4.333</v>
@@ -9617,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9706,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>2.75</v>
@@ -9795,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9884,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>2.45</v>
@@ -9973,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K107">
         <v>2.75</v>
@@ -10062,7 +10065,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>3.75</v>
@@ -10151,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>1.95</v>
@@ -10240,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
         <v>1.4</v>
@@ -10329,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.75</v>
@@ -10418,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>2.6</v>
@@ -10507,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>1.95</v>
@@ -10596,7 +10599,7 @@
         <v>5</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K114">
         <v>2.6</v>
@@ -10685,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K115">
         <v>2.7</v>
@@ -10774,7 +10777,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
         <v>1.85</v>
@@ -10863,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>1.8</v>
@@ -10952,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K118">
         <v>2.6</v>
@@ -11041,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K119">
         <v>2.6</v>
@@ -11130,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11219,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.5</v>
@@ -11308,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>1.75</v>
@@ -11397,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>5</v>
@@ -11486,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11575,7 +11578,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K125">
         <v>5.25</v>
@@ -11664,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>2.15</v>
@@ -11753,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>2.5</v>
@@ -11842,7 +11845,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K128">
         <v>1.444</v>
@@ -11931,7 +11934,7 @@
         <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
         <v>1.571</v>
@@ -12020,7 +12023,7 @@
         <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K130">
         <v>9</v>
@@ -12109,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K131">
         <v>2</v>
@@ -12198,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K132">
         <v>3.1</v>
@@ -12287,7 +12290,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>2.6</v>
@@ -12376,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K134">
         <v>1.2</v>
@@ -12465,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K135">
         <v>2.375</v>
@@ -12554,7 +12557,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K136">
         <v>1.615</v>
@@ -12643,7 +12646,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K137">
         <v>3.75</v>
@@ -12732,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K138">
         <v>1.8</v>
@@ -12821,7 +12824,7 @@
         <v>4</v>
       </c>
       <c r="J139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K139">
         <v>2.55</v>
@@ -12910,7 +12913,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K140">
         <v>2.625</v>
@@ -12999,7 +13002,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K141">
         <v>1.666</v>
@@ -13088,7 +13091,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K142">
         <v>10</v>
@@ -13177,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K143">
         <v>1.65</v>
@@ -13266,7 +13269,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K144">
         <v>1.4</v>
@@ -13355,7 +13358,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13437,6 +13440,15 @@
       <c r="G146" t="s">
         <v>34</v>
       </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>42</v>
+      </c>
       <c r="K146">
         <v>3.6</v>
       </c>
@@ -13447,22 +13459,22 @@
         <v>1.909</v>
       </c>
       <c r="N146">
+        <v>3.8</v>
+      </c>
+      <c r="O146">
         <v>3.75</v>
       </c>
-      <c r="O146">
-        <v>3.6</v>
-      </c>
       <c r="P146">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="Q146">
         <v>0.5</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T146">
         <v>2.5</v>
@@ -13471,22 +13483,28 @@
         <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13494,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7751751</v>
+        <v>7873049</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13503,49 +13521,49 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45346.45833333334</v>
+        <v>45346.35416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K147">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L147">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="N147">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="O147">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="Q147">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13560,6 +13578,80 @@
         <v>0</v>
       </c>
       <c r="AA147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7751751</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F148" t="s">
+        <v>37</v>
+      </c>
+      <c r="G148" t="s">
+        <v>35</v>
+      </c>
+      <c r="K148">
+        <v>1.2</v>
+      </c>
+      <c r="L148">
+        <v>5.5</v>
+      </c>
+      <c r="M148">
+        <v>10</v>
+      </c>
+      <c r="N148">
+        <v>1.142</v>
+      </c>
+      <c r="O148">
+        <v>6.5</v>
+      </c>
+      <c r="P148">
+        <v>17</v>
+      </c>
+      <c r="Q148">
+        <v>-2</v>
+      </c>
+      <c r="R148">
+        <v>1.85</v>
+      </c>
+      <c r="S148">
+        <v>1.95</v>
+      </c>
+      <c r="T148">
+        <v>3</v>
+      </c>
+      <c r="U148">
+        <v>1.975</v>
+      </c>
+      <c r="V148">
+        <v>1.825</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Punjab FC</t>
-  </si>
-  <si>
-    <t>FA Odisha</t>
   </si>
   <si>
     <t>A</t>
@@ -510,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC148"/>
+  <dimension ref="A1:AC147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2">
         <v>3.4</v>
@@ -720,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1.727</v>
@@ -809,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>2.625</v>
@@ -898,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>4.5</v>
@@ -987,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>2.1</v>
@@ -1076,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>1.615</v>
@@ -1165,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>1.615</v>
@@ -1254,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.65</v>
@@ -1343,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>2.7</v>
@@ -1432,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>2.3</v>
@@ -1521,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>2.7</v>
@@ -1610,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -1699,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>2.6</v>
@@ -1788,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>1.1</v>
@@ -1877,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -1966,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>2.8</v>
@@ -2055,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
         <v>2.15</v>
@@ -2144,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2233,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2322,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>2.3</v>
@@ -2411,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>1.833</v>
@@ -2500,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>1.181</v>
@@ -2589,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>2.2</v>
@@ -2678,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -2767,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>1.533</v>
@@ -2856,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>3.75</v>
@@ -2945,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>1.65</v>
@@ -3034,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>2.9</v>
@@ -3123,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>1.727</v>
@@ -3212,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.666</v>
@@ -3301,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>3.4</v>
@@ -3390,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -3479,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34">
         <v>3.2</v>
@@ -3568,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35">
         <v>2.625</v>
@@ -3657,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>1.666</v>
@@ -3746,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K37">
         <v>2.15</v>
@@ -3835,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38">
         <v>3.8</v>
@@ -3924,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
         <v>1.909</v>
@@ -4013,7 +4010,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40">
         <v>4.75</v>
@@ -4102,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K41">
         <v>1.55</v>
@@ -4191,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4280,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
         <v>1.222</v>
@@ -4369,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
         <v>2.05</v>
@@ -4458,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
         <v>2.4</v>
@@ -4547,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>1.363</v>
@@ -4636,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>5.25</v>
@@ -4725,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
         <v>2.4</v>
@@ -4814,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
         <v>2.05</v>
@@ -4903,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
         <v>1.8</v>
@@ -4992,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K51">
         <v>1.8</v>
@@ -5081,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>2.375</v>
@@ -5170,7 +5167,7 @@
         <v>10</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>3.1</v>
@@ -5259,7 +5256,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5348,7 +5345,7 @@
         <v>5</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5437,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>2.6</v>
@@ -5526,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57">
         <v>2.05</v>
@@ -5615,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>1.571</v>
@@ -5704,7 +5701,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K59">
         <v>7</v>
@@ -5793,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>2.6</v>
@@ -5882,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>1.7</v>
@@ -5971,7 +5968,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>3.4</v>
@@ -6060,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
         <v>4.2</v>
@@ -6149,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
         <v>3.5</v>
@@ -6238,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6327,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K66">
         <v>1.833</v>
@@ -6416,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67">
         <v>1.5</v>
@@ -6505,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6594,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6683,7 +6680,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70">
         <v>1.909</v>
@@ -6772,7 +6769,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
         <v>3.4</v>
@@ -6861,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>1.571</v>
@@ -6950,7 +6947,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
         <v>3.5</v>
@@ -7039,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K74">
         <v>1.5</v>
@@ -7128,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>1.727</v>
@@ -7217,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -7306,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>2.5</v>
@@ -7395,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7484,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7573,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>1.615</v>
@@ -7662,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K81">
         <v>1.727</v>
@@ -7751,7 +7748,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>2.05</v>
@@ -7840,7 +7837,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -7929,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>1.333</v>
@@ -8018,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>1.533</v>
@@ -8107,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>2.3</v>
@@ -8196,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K87">
         <v>2.5</v>
@@ -8285,7 +8282,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K88">
         <v>3.2</v>
@@ -8374,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>3.2</v>
@@ -8463,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>2.3</v>
@@ -8552,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K91">
         <v>1.75</v>
@@ -8641,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>3.1</v>
@@ -8730,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
         <v>1.615</v>
@@ -8819,7 +8816,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>1.75</v>
@@ -8908,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>1.666</v>
@@ -8997,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
         <v>2.5</v>
@@ -9086,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
         <v>4.333</v>
@@ -9175,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>1.8</v>
@@ -9264,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
         <v>1.909</v>
@@ -9353,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>1.727</v>
@@ -9442,7 +9439,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -9531,7 +9528,7 @@
         <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K102">
         <v>4.333</v>
@@ -9620,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9709,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>2.75</v>
@@ -9798,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9887,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
         <v>2.45</v>
@@ -9976,7 +9973,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K107">
         <v>2.75</v>
@@ -10065,7 +10062,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K108">
         <v>3.75</v>
@@ -10154,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>1.95</v>
@@ -10243,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>1.4</v>
@@ -10332,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
         <v>1.75</v>
@@ -10421,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
         <v>2.6</v>
@@ -10510,7 +10507,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K113">
         <v>1.95</v>
@@ -10599,7 +10596,7 @@
         <v>5</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K114">
         <v>2.6</v>
@@ -10688,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>2.7</v>
@@ -10777,7 +10774,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
         <v>1.85</v>
@@ -10866,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>1.8</v>
@@ -10955,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K118">
         <v>2.6</v>
@@ -11044,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K119">
         <v>2.6</v>
@@ -11133,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11222,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K121">
         <v>1.5</v>
@@ -11311,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
         <v>1.75</v>
@@ -11400,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>5</v>
@@ -11489,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11578,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K125">
         <v>5.25</v>
@@ -11667,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K126">
         <v>2.15</v>
@@ -11756,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>2.5</v>
@@ -11845,7 +11842,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>1.444</v>
@@ -11934,7 +11931,7 @@
         <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
         <v>1.571</v>
@@ -12023,7 +12020,7 @@
         <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K130">
         <v>9</v>
@@ -12112,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K131">
         <v>2</v>
@@ -12201,7 +12198,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K132">
         <v>3.1</v>
@@ -12290,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
         <v>2.6</v>
@@ -12379,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K134">
         <v>1.2</v>
@@ -12468,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K135">
         <v>2.375</v>
@@ -12557,7 +12554,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K136">
         <v>1.615</v>
@@ -12646,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K137">
         <v>3.75</v>
@@ -12735,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K138">
         <v>1.8</v>
@@ -12824,7 +12821,7 @@
         <v>4</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K139">
         <v>2.55</v>
@@ -12913,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K140">
         <v>2.625</v>
@@ -13002,7 +12999,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
         <v>1.666</v>
@@ -13091,7 +13088,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K142">
         <v>10</v>
@@ -13180,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K143">
         <v>1.65</v>
@@ -13269,7 +13266,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K144">
         <v>1.4</v>
@@ -13358,7 +13355,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13447,7 +13444,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K146">
         <v>3.6</v>
@@ -13512,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7873049</v>
+        <v>7749466</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,34 +13518,34 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45346.35416666666</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K147">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="L147">
+        <v>3.4</v>
+      </c>
+      <c r="M147">
+        <v>1.95</v>
+      </c>
+      <c r="N147">
         <v>3.5</v>
       </c>
-      <c r="M147">
-        <v>2.625</v>
-      </c>
-      <c r="N147">
-        <v>2.375</v>
-      </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R147">
         <v>1.8</v>
@@ -13578,80 +13575,6 @@
         <v>0</v>
       </c>
       <c r="AA147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:29">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>7751751</v>
-      </c>
-      <c r="C148" t="s">
-        <v>28</v>
-      </c>
-      <c r="D148" t="s">
-        <v>28</v>
-      </c>
-      <c r="E148" s="2">
-        <v>45346.45833333334</v>
-      </c>
-      <c r="F148" t="s">
-        <v>37</v>
-      </c>
-      <c r="G148" t="s">
-        <v>35</v>
-      </c>
-      <c r="K148">
-        <v>1.2</v>
-      </c>
-      <c r="L148">
-        <v>5.5</v>
-      </c>
-      <c r="M148">
-        <v>10</v>
-      </c>
-      <c r="N148">
-        <v>1.142</v>
-      </c>
-      <c r="O148">
-        <v>6.5</v>
-      </c>
-      <c r="P148">
-        <v>17</v>
-      </c>
-      <c r="Q148">
-        <v>-2</v>
-      </c>
-      <c r="R148">
-        <v>1.85</v>
-      </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.975</v>
-      </c>
-      <c r="V148">
-        <v>1.825</v>
-      </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-      <c r="X148">
-        <v>0</v>
-      </c>
-      <c r="Y148">
-        <v>0</v>
-      </c>
-      <c r="Z148">
-        <v>0</v>
-      </c>
-      <c r="AA148">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC147"/>
+  <dimension ref="A1:AC150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7749466</v>
+        <v>7873049</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13518,63 +13518,315 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45347.45833333334</v>
+        <v>45346.35416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="N147">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q147">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S147">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
         <v>1.95</v>
       </c>
       <c r="W147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
         <v>0</v>
       </c>
       <c r="AA147">
+        <v>-0</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7751751</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F148" t="s">
+        <v>37</v>
+      </c>
+      <c r="G148" t="s">
+        <v>35</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>42</v>
+      </c>
+      <c r="K148">
+        <v>1.2</v>
+      </c>
+      <c r="L148">
+        <v>5.5</v>
+      </c>
+      <c r="M148">
+        <v>10</v>
+      </c>
+      <c r="N148">
+        <v>1.2</v>
+      </c>
+      <c r="O148">
+        <v>5.25</v>
+      </c>
+      <c r="P148">
+        <v>12</v>
+      </c>
+      <c r="Q148">
+        <v>-1.75</v>
+      </c>
+      <c r="R148">
+        <v>1.875</v>
+      </c>
+      <c r="S148">
+        <v>1.975</v>
+      </c>
+      <c r="T148">
+        <v>3</v>
+      </c>
+      <c r="U148">
+        <v>2.025</v>
+      </c>
+      <c r="V148">
+        <v>1.825</v>
+      </c>
+      <c r="W148">
+        <v>0.2</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+      <c r="AC148">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7749466</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F149" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149">
+        <v>3.3</v>
+      </c>
+      <c r="L149">
+        <v>3.4</v>
+      </c>
+      <c r="M149">
+        <v>1.95</v>
+      </c>
+      <c r="N149">
+        <v>3.5</v>
+      </c>
+      <c r="O149">
+        <v>3.4</v>
+      </c>
+      <c r="P149">
+        <v>1.909</v>
+      </c>
+      <c r="Q149">
+        <v>0.5</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>1.875</v>
+      </c>
+      <c r="V149">
+        <v>1.925</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7751752</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45348.45833333334</v>
+      </c>
+      <c r="F150" t="s">
+        <v>36</v>
+      </c>
+      <c r="G150" t="s">
+        <v>39</v>
+      </c>
+      <c r="K150">
+        <v>2.3</v>
+      </c>
+      <c r="L150">
+        <v>3.2</v>
+      </c>
+      <c r="M150">
+        <v>2.8</v>
+      </c>
+      <c r="N150">
+        <v>2.3</v>
+      </c>
+      <c r="O150">
+        <v>3.2</v>
+      </c>
+      <c r="P150">
+        <v>2.8</v>
+      </c>
+      <c r="Q150">
+        <v>-0.25</v>
+      </c>
+      <c r="R150">
+        <v>2.05</v>
+      </c>
+      <c r="S150">
+        <v>1.75</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>1.875</v>
+      </c>
+      <c r="V150">
+        <v>1.925</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC98"/>
+  <dimension ref="A1:AC99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8987,6 +8987,15 @@
       <c r="G96" t="s">
         <v>38</v>
       </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>41</v>
+      </c>
       <c r="K96">
         <v>2.3</v>
       </c>
@@ -8997,46 +9006,52 @@
         <v>2.8</v>
       </c>
       <c r="N96">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P96">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:27">
@@ -9044,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7749871</v>
+        <v>7751753</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9053,40 +9068,40 @@
         <v>28</v>
       </c>
       <c r="E97" s="2">
-        <v>45350.45833333334</v>
+        <v>45349.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K97">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L97">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="N97">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O97">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R97">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
         <v>2.5</v>
@@ -9118,72 +9133,146 @@
         <v>96</v>
       </c>
       <c r="B98">
+        <v>7749871</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45350.45833333334</v>
+      </c>
+      <c r="F98" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+      <c r="K98">
+        <v>1.909</v>
+      </c>
+      <c r="L98">
+        <v>3.3</v>
+      </c>
+      <c r="M98">
+        <v>3.6</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98">
+        <v>3.4</v>
+      </c>
+      <c r="P98">
+        <v>3.3</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
+        <v>1.825</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
+        <v>1.9</v>
+      </c>
+      <c r="V98">
+        <v>1.9</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
         <v>7749767</v>
       </c>
-      <c r="C98" t="s">
-        <v>28</v>
-      </c>
-      <c r="D98" t="s">
-        <v>28</v>
-      </c>
-      <c r="E98" s="2">
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="2">
         <v>45351.45833333334</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F99" t="s">
         <v>30</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G99" t="s">
         <v>33</v>
       </c>
-      <c r="K98">
+      <c r="K99">
         <v>1.6</v>
       </c>
-      <c r="L98">
+      <c r="L99">
         <v>3.8</v>
       </c>
-      <c r="M98">
+      <c r="M99">
         <v>5</v>
       </c>
-      <c r="N98">
-        <v>1.6</v>
-      </c>
-      <c r="O98">
-        <v>3.8</v>
-      </c>
-      <c r="P98">
+      <c r="N99">
+        <v>1.615</v>
+      </c>
+      <c r="O99">
+        <v>3.75</v>
+      </c>
+      <c r="P99">
         <v>5</v>
       </c>
-      <c r="Q98">
+      <c r="Q99">
         <v>-0.75</v>
       </c>
-      <c r="R98">
-        <v>1.775</v>
-      </c>
-      <c r="S98">
-        <v>2.025</v>
-      </c>
-      <c r="T98">
-        <v>2.75</v>
-      </c>
-      <c r="U98">
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
         <v>2</v>
       </c>
-      <c r="V98">
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>1.8</v>
       </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-      <c r="X98">
-        <v>0</v>
-      </c>
-      <c r="Y98">
-        <v>0</v>
-      </c>
-      <c r="Z98">
-        <v>0</v>
-      </c>
-      <c r="AA98">
+      <c r="V99">
+        <v>2</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC99"/>
+  <dimension ref="A1:AC100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9054,7 +9054,7 @@
         <v>0.9750000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:29">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9076,6 +9076,15 @@
       <c r="G97" t="s">
         <v>37</v>
       </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>42</v>
+      </c>
       <c r="K97">
         <v>4.333</v>
       </c>
@@ -9086,49 +9095,55 @@
         <v>1.65</v>
       </c>
       <c r="N97">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="Q97">
         <v>0.75</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9150,6 +9165,15 @@
       <c r="G98" t="s">
         <v>34</v>
       </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>43</v>
+      </c>
       <c r="K98">
         <v>1.909</v>
       </c>
@@ -9160,49 +9184,55 @@
         <v>3.6</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
         <v>3.4</v>
       </c>
       <c r="P98">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
         <v>1.975</v>
-      </c>
-      <c r="S98">
-        <v>1.825</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27">
+        <v>0.4875</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9246,33 +9276,107 @@
         <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
+        <v>1.825</v>
+      </c>
+      <c r="V99">
+        <v>1.975</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>7749759</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45352.45833333334</v>
+      </c>
+      <c r="F100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+      <c r="K100">
+        <v>1.615</v>
+      </c>
+      <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>1.615</v>
+      </c>
+      <c r="O100">
+        <v>3.75</v>
+      </c>
+      <c r="P100">
+        <v>5</v>
+      </c>
+      <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
         <v>1.8</v>
       </c>
-      <c r="V99">
+      <c r="V100">
         <v>2</v>
       </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-      <c r="X99">
-        <v>0</v>
-      </c>
-      <c r="Y99">
-        <v>0</v>
-      </c>
-      <c r="Z99">
-        <v>0</v>
-      </c>
-      <c r="AA99">
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC100"/>
+  <dimension ref="A1:AC103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9254,6 +9254,15 @@
       <c r="G99" t="s">
         <v>33</v>
       </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>41</v>
+      </c>
       <c r="K99">
         <v>1.6</v>
       </c>
@@ -9264,46 +9273,52 @@
         <v>5</v>
       </c>
       <c r="N99">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O99">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
         <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
+        <v>2.05</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
         <v>2.025</v>
       </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
+      <c r="V99">
         <v>1.825</v>
       </c>
-      <c r="V99">
-        <v>1.975</v>
-      </c>
       <c r="W99">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9328,6 +9343,15 @@
       <c r="G100" t="s">
         <v>36</v>
       </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>41</v>
+      </c>
       <c r="K100">
         <v>1.615</v>
       </c>
@@ -9338,45 +9362,273 @@
         <v>5</v>
       </c>
       <c r="N100">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
         <v>-0.75</v>
       </c>
       <c r="R100">
+        <v>2.025</v>
+      </c>
+      <c r="S100">
         <v>1.825</v>
       </c>
-      <c r="S100">
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
         <v>1.975</v>
       </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>1.8</v>
-      </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>7749872</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45353.35416666666</v>
+      </c>
+      <c r="F101" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K101">
+        <v>4.5</v>
+      </c>
+      <c r="L101">
+        <v>3.75</v>
+      </c>
+      <c r="M101">
+        <v>1.666</v>
+      </c>
+      <c r="N101">
+        <v>3.5</v>
+      </c>
+      <c r="O101">
+        <v>3.5</v>
+      </c>
+      <c r="P101">
+        <v>1.909</v>
+      </c>
+      <c r="Q101">
+        <v>0.5</v>
+      </c>
+      <c r="R101">
+        <v>1.85</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
+        <v>1.825</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>7749467</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F102" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" t="s">
+        <v>29</v>
+      </c>
+      <c r="K102">
+        <v>2.2</v>
+      </c>
+      <c r="L102">
+        <v>3.2</v>
+      </c>
+      <c r="M102">
+        <v>3.25</v>
+      </c>
+      <c r="N102">
+        <v>2.2</v>
+      </c>
+      <c r="O102">
+        <v>3.2</v>
+      </c>
+      <c r="P102">
+        <v>3.25</v>
+      </c>
+      <c r="Q102">
+        <v>-0.25</v>
+      </c>
+      <c r="R102">
+        <v>1.95</v>
+      </c>
+      <c r="S102">
+        <v>1.85</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.9</v>
+      </c>
+      <c r="V102">
+        <v>1.9</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>7751754</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45355.45833333334</v>
+      </c>
+      <c r="F103" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103">
+        <v>5.25</v>
+      </c>
+      <c r="L103">
+        <v>4.2</v>
+      </c>
+      <c r="M103">
+        <v>1.533</v>
+      </c>
+      <c r="N103">
+        <v>5.25</v>
+      </c>
+      <c r="O103">
+        <v>4.2</v>
+      </c>
+      <c r="P103">
+        <v>1.533</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.85</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
+        <v>1.9</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC103"/>
+  <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9432,6 +9432,15 @@
       <c r="G101" t="s">
         <v>39</v>
       </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>42</v>
+      </c>
       <c r="K101">
         <v>4.5</v>
       </c>
@@ -9442,46 +9451,52 @@
         <v>1.666</v>
       </c>
       <c r="N101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q101">
         <v>0.5</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB101">
+        <v>0.825</v>
+      </c>
+      <c r="AC101">
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9506,6 +9521,15 @@
       <c r="G102" t="s">
         <v>29</v>
       </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>41</v>
+      </c>
       <c r="K102">
         <v>2.2</v>
       </c>
@@ -9516,46 +9540,52 @@
         <v>3.25</v>
       </c>
       <c r="N102">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA102">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9563,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7751754</v>
+        <v>7749768</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9572,63 +9602,137 @@
         <v>28</v>
       </c>
       <c r="E103" s="2">
-        <v>45355.45833333334</v>
+        <v>45354.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K103">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="L103">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="N103">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="O103">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
+        <v>2</v>
+      </c>
+      <c r="V103">
+        <v>1.8</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>7751754</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45355.45833333334</v>
+      </c>
+      <c r="F104" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104">
+        <v>5.25</v>
+      </c>
+      <c r="L104">
+        <v>4.2</v>
+      </c>
+      <c r="M104">
+        <v>1.533</v>
+      </c>
+      <c r="N104">
+        <v>5.25</v>
+      </c>
+      <c r="O104">
+        <v>4.2</v>
+      </c>
+      <c r="P104">
+        <v>1.533</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
         <v>1.9</v>
       </c>
-      <c r="V103">
+      <c r="V104">
         <v>1.9</v>
       </c>
-      <c r="W103">
-        <v>0</v>
-      </c>
-      <c r="X103">
-        <v>0</v>
-      </c>
-      <c r="Y103">
-        <v>0</v>
-      </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC104"/>
+  <dimension ref="A1:AC107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9610,6 +9610,15 @@
       <c r="G103" t="s">
         <v>30</v>
       </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>41</v>
+      </c>
       <c r="K103">
         <v>2.6</v>
       </c>
@@ -9620,46 +9629,52 @@
         <v>2.25</v>
       </c>
       <c r="N103">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P103">
+        <v>2.25</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
         <v>2.05</v>
       </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
-      <c r="R103">
-        <v>1.9</v>
-      </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA103">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>0.925</v>
+      </c>
+      <c r="AC103">
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9684,6 +9699,15 @@
       <c r="G104" t="s">
         <v>32</v>
       </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>43</v>
+      </c>
       <c r="K104">
         <v>5.25</v>
       </c>
@@ -9697,7 +9721,7 @@
         <v>5.25</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P104">
         <v>1.533</v>
@@ -9709,30 +9733,273 @@
         <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
+        <v>1.85</v>
+      </c>
+      <c r="V104">
+        <v>2</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>3.5</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
+        <v>0.95</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>7751755</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45357.45833333334</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>41</v>
+      </c>
+      <c r="K105">
+        <v>1.6</v>
+      </c>
+      <c r="L105">
+        <v>4</v>
+      </c>
+      <c r="M105">
+        <v>5.25</v>
+      </c>
+      <c r="N105">
+        <v>1.6</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
+        <v>4.75</v>
+      </c>
+      <c r="Q105">
+        <v>-1</v>
+      </c>
+      <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>1.8</v>
+      </c>
+      <c r="T105">
+        <v>2.75</v>
+      </c>
+      <c r="U105">
+        <v>1.875</v>
+      </c>
+      <c r="V105">
+        <v>1.975</v>
+      </c>
+      <c r="W105">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>-0</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>7749873</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45359.45833333334</v>
+      </c>
+      <c r="F106" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" t="s">
+        <v>39</v>
+      </c>
+      <c r="K106">
+        <v>3.75</v>
+      </c>
+      <c r="L106">
+        <v>3.5</v>
+      </c>
+      <c r="M106">
+        <v>1.95</v>
+      </c>
+      <c r="N106">
+        <v>3.75</v>
+      </c>
+      <c r="O106">
+        <v>3.75</v>
+      </c>
+      <c r="P106">
+        <v>1.909</v>
+      </c>
+      <c r="Q106">
+        <v>0.5</v>
+      </c>
+      <c r="R106">
         <v>1.9</v>
       </c>
-      <c r="V104">
+      <c r="S106">
         <v>1.9</v>
       </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-      <c r="X104">
-        <v>0</v>
-      </c>
-      <c r="Y104">
-        <v>0</v>
-      </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
+        <v>1.95</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>7751757</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" t="s">
+        <v>40</v>
+      </c>
+      <c r="K107">
+        <v>1.333</v>
+      </c>
+      <c r="L107">
+        <v>4.5</v>
+      </c>
+      <c r="M107">
+        <v>8</v>
+      </c>
+      <c r="N107">
+        <v>1.333</v>
+      </c>
+      <c r="O107">
+        <v>4.5</v>
+      </c>
+      <c r="P107">
+        <v>8</v>
+      </c>
+      <c r="Q107">
+        <v>-1.5</v>
+      </c>
+      <c r="R107">
+        <v>2.025</v>
+      </c>
+      <c r="S107">
+        <v>1.775</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>1.9</v>
+      </c>
+      <c r="V107">
+        <v>1.9</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC107"/>
+  <dimension ref="A1:AC109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7749873</v>
+        <v>7751756</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9869,40 +9869,49 @@
         <v>28</v>
       </c>
       <c r="E106" s="2">
-        <v>45359.45833333334</v>
+        <v>45358.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N106">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S106">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T106">
         <v>2.75</v>
@@ -9914,19 +9923,25 @@
         <v>1.95</v>
       </c>
       <c r="W106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9934,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7751757</v>
+        <v>7749873</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9943,63 +9958,226 @@
         <v>28</v>
       </c>
       <c r="E107" s="2">
-        <v>45360.45833333334</v>
+        <v>45359.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="L107">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="N107">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O107">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="Q107">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
+        <v>1.85</v>
+      </c>
+      <c r="V107">
+        <v>2</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>2.6</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
+        <v>0.4625</v>
+      </c>
+      <c r="AA107">
+        <v>-0.5</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>7749760</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108">
+        <v>3.8</v>
+      </c>
+      <c r="L108">
+        <v>3.6</v>
+      </c>
+      <c r="M108">
+        <v>1.85</v>
+      </c>
+      <c r="N108">
+        <v>3.8</v>
+      </c>
+      <c r="O108">
+        <v>3.6</v>
+      </c>
+      <c r="P108">
+        <v>1.85</v>
+      </c>
+      <c r="Q108">
+        <v>0.5</v>
+      </c>
+      <c r="R108">
         <v>1.9</v>
       </c>
-      <c r="V107">
+      <c r="S108">
         <v>1.9</v>
       </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-      <c r="X107">
-        <v>0</v>
-      </c>
-      <c r="Y107">
-        <v>0</v>
-      </c>
-      <c r="Z107">
-        <v>0</v>
-      </c>
-      <c r="AA107">
+      <c r="T108">
+        <v>2.5</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
+        <v>1.8</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7751758</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45362.45833333334</v>
+      </c>
+      <c r="F109" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" t="s">
+        <v>34</v>
+      </c>
+      <c r="K109">
+        <v>3.8</v>
+      </c>
+      <c r="L109">
+        <v>3.8</v>
+      </c>
+      <c r="M109">
+        <v>1.8</v>
+      </c>
+      <c r="N109">
+        <v>3.8</v>
+      </c>
+      <c r="O109">
+        <v>3.8</v>
+      </c>
+      <c r="P109">
+        <v>1.8</v>
+      </c>
+      <c r="Q109">
+        <v>0.75</v>
+      </c>
+      <c r="R109">
+        <v>1.8</v>
+      </c>
+      <c r="S109">
+        <v>2</v>
+      </c>
+      <c r="T109">
+        <v>2.75</v>
+      </c>
+      <c r="U109">
+        <v>1.95</v>
+      </c>
+      <c r="V109">
+        <v>1.85</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC109"/>
+  <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7749760</v>
+        <v>7751757</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10047,64 +10047,79 @@
         <v>28</v>
       </c>
       <c r="E108" s="2">
-        <v>45361.5</v>
+        <v>45360.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>42</v>
       </c>
       <c r="K108">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M108">
+        <v>8</v>
+      </c>
+      <c r="N108">
+        <v>1.25</v>
+      </c>
+      <c r="O108">
+        <v>5.5</v>
+      </c>
+      <c r="P108">
+        <v>9</v>
+      </c>
+      <c r="Q108">
+        <v>-1.5</v>
+      </c>
+      <c r="R108">
         <v>1.85</v>
       </c>
-      <c r="N108">
-        <v>3.8</v>
-      </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
-      <c r="P108">
-        <v>1.85</v>
-      </c>
-      <c r="Q108">
-        <v>0.5</v>
-      </c>
-      <c r="R108">
-        <v>1.9</v>
-      </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V108">
         <v>1.8</v>
       </c>
       <c r="W108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10112,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7751758</v>
+        <v>7749760</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10121,63 +10136,389 @@
         <v>28</v>
       </c>
       <c r="E109" s="2">
-        <v>45362.45833333334</v>
+        <v>45361.5</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109" t="s">
+        <v>42</v>
       </c>
       <c r="K109">
         <v>3.8</v>
       </c>
       <c r="L109">
+        <v>3.6</v>
+      </c>
+      <c r="M109">
+        <v>1.85</v>
+      </c>
+      <c r="N109">
+        <v>3.6</v>
+      </c>
+      <c r="O109">
+        <v>3.6</v>
+      </c>
+      <c r="P109">
+        <v>1.85</v>
+      </c>
+      <c r="Q109">
+        <v>0.5</v>
+      </c>
+      <c r="R109">
+        <v>1.9</v>
+      </c>
+      <c r="S109">
+        <v>1.9</v>
+      </c>
+      <c r="T109">
+        <v>2.5</v>
+      </c>
+      <c r="U109">
+        <v>1.85</v>
+      </c>
+      <c r="V109">
+        <v>1.95</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB109">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>7751758</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45362.45833333334</v>
+      </c>
+      <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110" t="s">
+        <v>43</v>
+      </c>
+      <c r="K110">
         <v>3.8</v>
       </c>
-      <c r="M109">
+      <c r="L110">
+        <v>3.8</v>
+      </c>
+      <c r="M110">
         <v>1.8</v>
       </c>
-      <c r="N109">
+      <c r="N110">
+        <v>3.75</v>
+      </c>
+      <c r="O110">
         <v>3.8</v>
       </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
-      <c r="P109">
+      <c r="P110">
         <v>1.8</v>
       </c>
-      <c r="Q109">
+      <c r="Q110">
         <v>0.75</v>
       </c>
-      <c r="R109">
+      <c r="R110">
         <v>1.8</v>
       </c>
-      <c r="S109">
+      <c r="S110">
+        <v>2.05</v>
+      </c>
+      <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
         <v>2</v>
       </c>
-      <c r="T109">
-        <v>2.75</v>
-      </c>
-      <c r="U109">
+      <c r="V110">
+        <v>1.85</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>2.8</v>
+      </c>
+      <c r="Y110">
+        <v>-1</v>
+      </c>
+      <c r="Z110">
+        <v>0.8</v>
+      </c>
+      <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
+        <v>1</v>
+      </c>
+      <c r="AC110">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>7749874</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45363.45833333334</v>
+      </c>
+      <c r="F111" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" t="s">
+        <v>32</v>
+      </c>
+      <c r="K111">
+        <v>1.5</v>
+      </c>
+      <c r="L111">
+        <v>4.2</v>
+      </c>
+      <c r="M111">
+        <v>5.5</v>
+      </c>
+      <c r="N111">
+        <v>1.4</v>
+      </c>
+      <c r="O111">
+        <v>4.5</v>
+      </c>
+      <c r="P111">
+        <v>6.5</v>
+      </c>
+      <c r="Q111">
+        <v>-1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.875</v>
+      </c>
+      <c r="S111">
+        <v>1.925</v>
+      </c>
+      <c r="T111">
+        <v>3</v>
+      </c>
+      <c r="U111">
+        <v>1.9</v>
+      </c>
+      <c r="V111">
+        <v>1.9</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>7749468</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45364.45833333334</v>
+      </c>
+      <c r="F112" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112">
+        <v>2.9</v>
+      </c>
+      <c r="L112">
+        <v>3.1</v>
+      </c>
+      <c r="M112">
+        <v>2.375</v>
+      </c>
+      <c r="N112">
+        <v>2.9</v>
+      </c>
+      <c r="O112">
+        <v>3.1</v>
+      </c>
+      <c r="P112">
+        <v>2.375</v>
+      </c>
+      <c r="Q112">
+        <v>0.25</v>
+      </c>
+      <c r="R112">
+        <v>1.75</v>
+      </c>
+      <c r="S112">
+        <v>2.05</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
+        <v>1.825</v>
+      </c>
+      <c r="V112">
+        <v>1.975</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>7751759</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45365.45833333334</v>
+      </c>
+      <c r="F113" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113">
+        <v>1.666</v>
+      </c>
+      <c r="L113">
+        <v>3.5</v>
+      </c>
+      <c r="M113">
+        <v>4.75</v>
+      </c>
+      <c r="N113">
+        <v>1.666</v>
+      </c>
+      <c r="O113">
+        <v>3.5</v>
+      </c>
+      <c r="P113">
+        <v>4.75</v>
+      </c>
+      <c r="Q113">
+        <v>-0.75</v>
+      </c>
+      <c r="R113">
+        <v>1.85</v>
+      </c>
+      <c r="S113">
         <v>1.95</v>
       </c>
-      <c r="V109">
-        <v>1.85</v>
-      </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-      <c r="X109">
-        <v>0</v>
-      </c>
-      <c r="Y109">
-        <v>0</v>
-      </c>
-      <c r="Z109">
-        <v>0</v>
-      </c>
-      <c r="AA109">
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.825</v>
+      </c>
+      <c r="V113">
+        <v>1.975</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -10322,6 +10322,15 @@
       <c r="G111" t="s">
         <v>32</v>
       </c>
+      <c r="H111">
+        <v>4</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>41</v>
+      </c>
       <c r="K111">
         <v>1.5</v>
       </c>
@@ -10332,46 +10341,52 @@
         <v>5.5</v>
       </c>
       <c r="N111">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O111">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P111">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R111">
         <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>3</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W111">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB111">
+        <v>1</v>
+      </c>
+      <c r="AC111">
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10396,6 +10411,15 @@
       <c r="G112" t="s">
         <v>31</v>
       </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
+        <v>4</v>
+      </c>
+      <c r="J112" t="s">
+        <v>42</v>
+      </c>
       <c r="K112">
         <v>2.9</v>
       </c>
@@ -10406,49 +10430,55 @@
         <v>2.375</v>
       </c>
       <c r="N112">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q112">
         <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S112">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB112">
+        <v>0.95</v>
+      </c>
+      <c r="AC112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10470,6 +10500,15 @@
       <c r="G113" t="s">
         <v>35</v>
       </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>41</v>
+      </c>
       <c r="K113">
         <v>1.666</v>
       </c>
@@ -10480,46 +10519,52 @@
         <v>4.75</v>
       </c>
       <c r="N113">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q113">
         <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T113">
         <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
         <v>1.975</v>
       </c>
       <c r="W113">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA113">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB113">
+        <v>0.875</v>
+      </c>
+      <c r="AC113">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC113"/>
+  <dimension ref="A1:AC115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10567,6 +10567,154 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="114" spans="1:29">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>7749770</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45381.35416666666</v>
+      </c>
+      <c r="F114" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" t="s">
+        <v>30</v>
+      </c>
+      <c r="K114">
+        <v>2.55</v>
+      </c>
+      <c r="L114">
+        <v>3.3</v>
+      </c>
+      <c r="M114">
+        <v>2.55</v>
+      </c>
+      <c r="N114">
+        <v>2.55</v>
+      </c>
+      <c r="O114">
+        <v>3.3</v>
+      </c>
+      <c r="P114">
+        <v>2.55</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.8</v>
+      </c>
+      <c r="V114">
+        <v>2</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7749469</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
+        <v>29</v>
+      </c>
+      <c r="K115">
+        <v>2.2</v>
+      </c>
+      <c r="L115">
+        <v>3.25</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115">
+        <v>2.2</v>
+      </c>
+      <c r="O115">
+        <v>3.25</v>
+      </c>
+      <c r="P115">
+        <v>3</v>
+      </c>
+      <c r="Q115">
+        <v>-0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.975</v>
+      </c>
+      <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.925</v>
+      </c>
+      <c r="V115">
+        <v>1.875</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC115"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10620,10 +10620,10 @@
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -10712,6 +10712,154 @@
         <v>0</v>
       </c>
       <c r="AA115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>7749761</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45382.45833333334</v>
+      </c>
+      <c r="F116" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" t="s">
+        <v>38</v>
+      </c>
+      <c r="K116">
+        <v>1.533</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>5.5</v>
+      </c>
+      <c r="N116">
+        <v>1.533</v>
+      </c>
+      <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116">
+        <v>5.5</v>
+      </c>
+      <c r="Q116">
+        <v>-1</v>
+      </c>
+      <c r="R116">
+        <v>1.9</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
+        <v>1.9</v>
+      </c>
+      <c r="V116">
+        <v>1.9</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>7749875</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45383.45833333334</v>
+      </c>
+      <c r="F117" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" t="s">
+        <v>39</v>
+      </c>
+      <c r="K117">
+        <v>9.5</v>
+      </c>
+      <c r="L117">
+        <v>5.5</v>
+      </c>
+      <c r="M117">
+        <v>1.25</v>
+      </c>
+      <c r="N117">
+        <v>9.5</v>
+      </c>
+      <c r="O117">
+        <v>5.5</v>
+      </c>
+      <c r="P117">
+        <v>1.25</v>
+      </c>
+      <c r="Q117">
+        <v>1.5</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>1.8</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
+        <v>1.8</v>
+      </c>
+      <c r="V117">
+        <v>2</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -10685,10 +10685,10 @@
         <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
         <v>2.5</v>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC117"/>
+  <dimension ref="A1:AC115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7749770</v>
+        <v>7749761</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10581,49 +10581,49 @@
         <v>28</v>
       </c>
       <c r="E114" s="2">
-        <v>45381.35416666666</v>
+        <v>45382.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K114">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="L114">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R114">
+        <v>1.925</v>
+      </c>
+      <c r="S114">
+        <v>1.875</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
         <v>1.9</v>
       </c>
-      <c r="S114">
+      <c r="V114">
         <v>1.9</v>
-      </c>
-      <c r="T114">
-        <v>2.5</v>
-      </c>
-      <c r="U114">
-        <v>1.825</v>
-      </c>
-      <c r="V114">
-        <v>1.975</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -10646,7 +10646,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7749469</v>
+        <v>7749875</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10655,49 +10655,49 @@
         <v>28</v>
       </c>
       <c r="E115" s="2">
-        <v>45381.45833333334</v>
+        <v>45383.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K115">
-        <v>2.2</v>
+        <v>9.5</v>
       </c>
       <c r="L115">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M115">
+        <v>1.25</v>
+      </c>
+      <c r="N115">
+        <v>9.5</v>
+      </c>
+      <c r="O115">
+        <v>5.5</v>
+      </c>
+      <c r="P115">
+        <v>1.25</v>
+      </c>
+      <c r="Q115">
+        <v>1.75</v>
+      </c>
+      <c r="R115">
+        <v>1.8</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
         <v>3</v>
       </c>
-      <c r="N115">
-        <v>2.2</v>
-      </c>
-      <c r="O115">
-        <v>3.25</v>
-      </c>
-      <c r="P115">
-        <v>3</v>
-      </c>
-      <c r="Q115">
-        <v>-0.25</v>
-      </c>
-      <c r="R115">
-        <v>1.95</v>
-      </c>
-      <c r="S115">
-        <v>1.85</v>
-      </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -10712,154 +10712,6 @@
         <v>0</v>
       </c>
       <c r="AA115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>7749761</v>
-      </c>
-      <c r="C116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" t="s">
-        <v>28</v>
-      </c>
-      <c r="E116" s="2">
-        <v>45382.45833333334</v>
-      </c>
-      <c r="F116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G116" t="s">
-        <v>38</v>
-      </c>
-      <c r="K116">
-        <v>1.533</v>
-      </c>
-      <c r="L116">
-        <v>4</v>
-      </c>
-      <c r="M116">
-        <v>5.5</v>
-      </c>
-      <c r="N116">
-        <v>1.533</v>
-      </c>
-      <c r="O116">
-        <v>4</v>
-      </c>
-      <c r="P116">
-        <v>5.5</v>
-      </c>
-      <c r="Q116">
-        <v>-1</v>
-      </c>
-      <c r="R116">
-        <v>1.9</v>
-      </c>
-      <c r="S116">
-        <v>1.9</v>
-      </c>
-      <c r="T116">
-        <v>2.75</v>
-      </c>
-      <c r="U116">
-        <v>1.9</v>
-      </c>
-      <c r="V116">
-        <v>1.9</v>
-      </c>
-      <c r="W116">
-        <v>0</v>
-      </c>
-      <c r="X116">
-        <v>0</v>
-      </c>
-      <c r="Y116">
-        <v>0</v>
-      </c>
-      <c r="Z116">
-        <v>0</v>
-      </c>
-      <c r="AA116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>7749875</v>
-      </c>
-      <c r="C117" t="s">
-        <v>28</v>
-      </c>
-      <c r="D117" t="s">
-        <v>28</v>
-      </c>
-      <c r="E117" s="2">
-        <v>45383.45833333334</v>
-      </c>
-      <c r="F117" t="s">
-        <v>40</v>
-      </c>
-      <c r="G117" t="s">
-        <v>39</v>
-      </c>
-      <c r="K117">
-        <v>9.5</v>
-      </c>
-      <c r="L117">
-        <v>5.5</v>
-      </c>
-      <c r="M117">
-        <v>1.25</v>
-      </c>
-      <c r="N117">
-        <v>9.5</v>
-      </c>
-      <c r="O117">
-        <v>5.5</v>
-      </c>
-      <c r="P117">
-        <v>1.25</v>
-      </c>
-      <c r="Q117">
-        <v>1.5</v>
-      </c>
-      <c r="R117">
-        <v>2</v>
-      </c>
-      <c r="S117">
-        <v>1.8</v>
-      </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
-      <c r="U117">
-        <v>1.8</v>
-      </c>
-      <c r="V117">
-        <v>2</v>
-      </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-      <c r="X117">
-        <v>0</v>
-      </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-      <c r="Z117">
-        <v>0</v>
-      </c>
-      <c r="AA117">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC115"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7749761</v>
+        <v>7749770</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10581,64 +10581,79 @@
         <v>28</v>
       </c>
       <c r="E114" s="2">
-        <v>45382.45833333334</v>
+        <v>45381.35416666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>43</v>
       </c>
       <c r="K114">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N114">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P114">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10646,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7749875</v>
+        <v>7749469</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10655,34 +10670,43 @@
         <v>28</v>
       </c>
       <c r="E115" s="2">
-        <v>45383.45833333334</v>
+        <v>45381.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>43</v>
       </c>
       <c r="K115">
-        <v>9.5</v>
+        <v>2.2</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M115">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="N115">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="O115">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q115">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
         <v>1.8</v>
@@ -10691,27 +10715,107 @@
         <v>2</v>
       </c>
       <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.95</v>
+      </c>
+      <c r="V115">
+        <v>1.85</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>2.3</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>-0.5</v>
+      </c>
+      <c r="AA115">
+        <v>0.5</v>
+      </c>
+      <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>7749875</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45383.45833333334</v>
+      </c>
+      <c r="F116" t="s">
+        <v>40</v>
+      </c>
+      <c r="G116" t="s">
+        <v>39</v>
+      </c>
+      <c r="K116">
+        <v>9.5</v>
+      </c>
+      <c r="L116">
+        <v>5.5</v>
+      </c>
+      <c r="M116">
+        <v>1.25</v>
+      </c>
+      <c r="N116">
+        <v>10</v>
+      </c>
+      <c r="O116">
+        <v>5.75</v>
+      </c>
+      <c r="P116">
+        <v>1.25</v>
+      </c>
+      <c r="Q116">
+        <v>1.75</v>
+      </c>
+      <c r="R116">
+        <v>1.9</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
         <v>3</v>
       </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
-      <c r="W115">
+      <c r="U116">
+        <v>1.9</v>
+      </c>
+      <c r="V116">
+        <v>1.9</v>
+      </c>
+      <c r="W116">
         <v>0</v>
       </c>
-      <c r="X115">
+      <c r="X116">
         <v>0</v>
       </c>
-      <c r="Y115">
+      <c r="Y116">
         <v>0</v>
       </c>
-      <c r="Z115">
+      <c r="Z116">
         <v>0</v>
       </c>
-      <c r="AA115">
+      <c r="AA116">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC116"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7749875</v>
+        <v>7749761</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10759,63 +10759,241 @@
         <v>28</v>
       </c>
       <c r="E116" s="2">
-        <v>45383.45833333334</v>
+        <v>45382.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116" t="s">
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>9.5</v>
+        <v>1.533</v>
       </c>
       <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
         <v>5.5</v>
       </c>
-      <c r="M116">
-        <v>1.25</v>
-      </c>
       <c r="N116">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="O116">
+        <v>4.333</v>
+      </c>
+      <c r="P116">
         <v>5.75</v>
       </c>
-      <c r="P116">
-        <v>1.25</v>
-      </c>
       <c r="Q116">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>4.75</v>
+      </c>
+      <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
+        <v>0.825</v>
+      </c>
+      <c r="AB116">
+        <v>0.925</v>
+      </c>
+      <c r="AC116">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>7749875</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45383.45833333334</v>
+      </c>
+      <c r="F117" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" t="s">
+        <v>39</v>
+      </c>
+      <c r="H117">
         <v>0</v>
       </c>
-      <c r="X116">
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117" t="s">
+        <v>42</v>
+      </c>
+      <c r="K117">
+        <v>9.5</v>
+      </c>
+      <c r="L117">
+        <v>5.5</v>
+      </c>
+      <c r="M117">
+        <v>1.25</v>
+      </c>
+      <c r="N117">
+        <v>7</v>
+      </c>
+      <c r="O117">
+        <v>5.5</v>
+      </c>
+      <c r="P117">
+        <v>1.333</v>
+      </c>
+      <c r="Q117">
+        <v>1.5</v>
+      </c>
+      <c r="R117">
+        <v>1.85</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
+        <v>3.25</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
+        <v>1.8</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>0.333</v>
+      </c>
+      <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>0.95</v>
+      </c>
+      <c r="AB117">
+        <v>-0.5</v>
+      </c>
+      <c r="AC117">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>7749773</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45384.45833333334</v>
+      </c>
+      <c r="F118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s">
+        <v>37</v>
+      </c>
+      <c r="K118">
+        <v>1.65</v>
+      </c>
+      <c r="L118">
+        <v>3.75</v>
+      </c>
+      <c r="M118">
+        <v>4.2</v>
+      </c>
+      <c r="N118">
+        <v>1.666</v>
+      </c>
+      <c r="O118">
+        <v>3.75</v>
+      </c>
+      <c r="P118">
+        <v>5</v>
+      </c>
+      <c r="Q118">
+        <v>-0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.85</v>
+      </c>
+      <c r="S118">
+        <v>1.95</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
+        <v>1.925</v>
+      </c>
+      <c r="W118">
         <v>0</v>
       </c>
-      <c r="Y116">
+      <c r="X118">
         <v>0</v>
       </c>
-      <c r="Z116">
+      <c r="Y118">
         <v>0</v>
       </c>
-      <c r="AA116">
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10945,6 +10945,15 @@
       <c r="G118" t="s">
         <v>37</v>
       </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>41</v>
+      </c>
       <c r="K118">
         <v>1.65</v>
       </c>
@@ -10955,22 +10964,22 @@
         <v>4.2</v>
       </c>
       <c r="N118">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q118">
         <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
         <v>2.75</v>
@@ -10979,21 +10988,249 @@
         <v>1.875</v>
       </c>
       <c r="V118">
+        <v>1.975</v>
+      </c>
+      <c r="W118">
+        <v>0.75</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>0.875</v>
+      </c>
+      <c r="AC118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7749470</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45385.45833333334</v>
+      </c>
+      <c r="F119" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" t="s">
+        <v>33</v>
+      </c>
+      <c r="K119">
+        <v>1.85</v>
+      </c>
+      <c r="L119">
+        <v>3.4</v>
+      </c>
+      <c r="M119">
+        <v>3.6</v>
+      </c>
+      <c r="N119">
+        <v>1.9</v>
+      </c>
+      <c r="O119">
+        <v>3.5</v>
+      </c>
+      <c r="P119">
+        <v>4</v>
+      </c>
+      <c r="Q119">
+        <v>-0.5</v>
+      </c>
+      <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>1.9</v>
+      </c>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.925</v>
       </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-      <c r="X118">
-        <v>0</v>
-      </c>
-      <c r="Y118">
-        <v>0</v>
-      </c>
-      <c r="Z118">
-        <v>0</v>
-      </c>
-      <c r="AA118">
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>7751760</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45386.45833333334</v>
+      </c>
+      <c r="F120" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" t="s">
+        <v>36</v>
+      </c>
+      <c r="K120">
+        <v>2.3</v>
+      </c>
+      <c r="L120">
+        <v>3.5</v>
+      </c>
+      <c r="M120">
+        <v>2.9</v>
+      </c>
+      <c r="N120">
+        <v>2.3</v>
+      </c>
+      <c r="O120">
+        <v>3.5</v>
+      </c>
+      <c r="P120">
+        <v>2.9</v>
+      </c>
+      <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
+        <v>1.975</v>
+      </c>
+      <c r="S120">
+        <v>1.825</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
+        <v>1.9</v>
+      </c>
+      <c r="V120">
+        <v>1.9</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7751761</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45387.45833333334</v>
+      </c>
+      <c r="F121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>40</v>
+      </c>
+      <c r="K121">
+        <v>1.142</v>
+      </c>
+      <c r="L121">
+        <v>7.5</v>
+      </c>
+      <c r="M121">
+        <v>19</v>
+      </c>
+      <c r="N121">
+        <v>1.142</v>
+      </c>
+      <c r="O121">
+        <v>7.5</v>
+      </c>
+      <c r="P121">
+        <v>19</v>
+      </c>
+      <c r="Q121">
+        <v>-2.25</v>
+      </c>
+      <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>1.85</v>
+      </c>
+      <c r="T121">
+        <v>3.25</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
+        <v>1.8</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7749470</v>
+        <v>7751760</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11026,49 +11026,49 @@
         <v>28</v>
       </c>
       <c r="E119" s="2">
-        <v>45385.45833333334</v>
+        <v>45386.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K119">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="O119">
         <v>3.5</v>
       </c>
       <c r="P119">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
+        <v>1.925</v>
+      </c>
+      <c r="V119">
         <v>1.875</v>
-      </c>
-      <c r="V119">
-        <v>1.925</v>
       </c>
       <c r="W119">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7751760</v>
+        <v>7751761</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11100,49 +11100,49 @@
         <v>28</v>
       </c>
       <c r="E120" s="2">
-        <v>45386.45833333334</v>
+        <v>45387.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K120">
-        <v>2.3</v>
+        <v>1.142</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>19</v>
       </c>
       <c r="N120">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="P120">
-        <v>2.9</v>
+        <v>21</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>3.25</v>
+      </c>
+      <c r="U120">
         <v>1.975</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.825</v>
-      </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
       </c>
       <c r="W120">
         <v>0</v>
@@ -11165,7 +11165,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7751761</v>
+        <v>7749762</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11174,49 +11174,49 @@
         <v>28</v>
       </c>
       <c r="E121" s="2">
-        <v>45387.45833333334</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K121">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L121">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>19</v>
+        <v>1.75</v>
       </c>
       <c r="N121">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="O121">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>19</v>
+        <v>1.75</v>
       </c>
       <c r="Q121">
-        <v>-2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R121">
+        <v>1.8</v>
+      </c>
+      <c r="S121">
+        <v>2</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
+        <v>1.85</v>
+      </c>
+      <c r="V121">
         <v>1.95</v>
-      </c>
-      <c r="S121">
-        <v>1.85</v>
-      </c>
-      <c r="T121">
-        <v>3.25</v>
-      </c>
-      <c r="U121">
-        <v>2</v>
-      </c>
-      <c r="V121">
-        <v>1.8</v>
       </c>
       <c r="W121">
         <v>0</v>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7751760</v>
+        <v>7751761</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11026,49 +11026,49 @@
         <v>28</v>
       </c>
       <c r="E119" s="2">
-        <v>45386.45833333334</v>
+        <v>45387.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>1.142</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>19</v>
       </c>
       <c r="N119">
-        <v>2.3</v>
+        <v>1.083</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P119">
-        <v>2.9</v>
+        <v>26</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7751761</v>
+        <v>7749762</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11100,49 +11100,49 @@
         <v>28</v>
       </c>
       <c r="E120" s="2">
-        <v>45387.45833333334</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K120">
-        <v>1.142</v>
+        <v>4.333</v>
       </c>
       <c r="L120">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>19</v>
+        <v>1.75</v>
       </c>
       <c r="N120">
-        <v>1.125</v>
+        <v>4.333</v>
       </c>
       <c r="O120">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>21</v>
+        <v>1.75</v>
       </c>
       <c r="Q120">
-        <v>-2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R120">
+        <v>1.85</v>
+      </c>
+      <c r="S120">
         <v>1.95</v>
       </c>
-      <c r="S120">
-        <v>1.85</v>
-      </c>
       <c r="T120">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>0</v>
@@ -11157,80 +11157,6 @@
         <v>0</v>
       </c>
       <c r="AA120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>7749762</v>
-      </c>
-      <c r="C121" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" t="s">
-        <v>28</v>
-      </c>
-      <c r="E121" s="2">
-        <v>45388.35416666666</v>
-      </c>
-      <c r="F121" t="s">
-        <v>37</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
-      </c>
-      <c r="K121">
-        <v>4.333</v>
-      </c>
-      <c r="L121">
-        <v>3.6</v>
-      </c>
-      <c r="M121">
-        <v>1.75</v>
-      </c>
-      <c r="N121">
-        <v>4.333</v>
-      </c>
-      <c r="O121">
-        <v>3.6</v>
-      </c>
-      <c r="P121">
-        <v>1.75</v>
-      </c>
-      <c r="Q121">
-        <v>0.75</v>
-      </c>
-      <c r="R121">
-        <v>1.8</v>
-      </c>
-      <c r="S121">
-        <v>2</v>
-      </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.85</v>
-      </c>
-      <c r="V121">
-        <v>1.95</v>
-      </c>
-      <c r="W121">
-        <v>0</v>
-      </c>
-      <c r="X121">
-        <v>0</v>
-      </c>
-      <c r="Y121">
-        <v>0</v>
-      </c>
-      <c r="Z121">
-        <v>0</v>
-      </c>
-      <c r="AA121">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC120"/>
+  <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7751761</v>
+        <v>7749470</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11026,64 +11026,79 @@
         <v>28</v>
       </c>
       <c r="E119" s="2">
-        <v>45387.45833333334</v>
+        <v>45385.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
+        <v>4</v>
+      </c>
+      <c r="J119" t="s">
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>1.142</v>
+        <v>1.85</v>
       </c>
       <c r="L119">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="N119">
-        <v>1.083</v>
+        <v>2.15</v>
       </c>
       <c r="O119">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="P119">
-        <v>26</v>
+        <v>3.3</v>
       </c>
       <c r="Q119">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB119">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC119">
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11091,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7749762</v>
+        <v>7751760</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11100,63 +11115,463 @@
         <v>28</v>
       </c>
       <c r="E120" s="2">
-        <v>45388.35416666666</v>
+        <v>45386.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
         <v>1.95</v>
       </c>
       <c r="T120">
+        <v>3</v>
+      </c>
+      <c r="U120">
+        <v>1.975</v>
+      </c>
+      <c r="V120">
+        <v>1.875</v>
+      </c>
+      <c r="W120">
+        <v>1.15</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7751761</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45387.45833333334</v>
+      </c>
+      <c r="F121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>40</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>41</v>
+      </c>
+      <c r="K121">
+        <v>1.142</v>
+      </c>
+      <c r="L121">
+        <v>7.5</v>
+      </c>
+      <c r="M121">
+        <v>19</v>
+      </c>
+      <c r="N121">
+        <v>1.125</v>
+      </c>
+      <c r="O121">
+        <v>8</v>
+      </c>
+      <c r="P121">
+        <v>17</v>
+      </c>
+      <c r="Q121">
+        <v>-2.25</v>
+      </c>
+      <c r="R121">
+        <v>1.825</v>
+      </c>
+      <c r="S121">
+        <v>2.025</v>
+      </c>
+      <c r="T121">
+        <v>3.5</v>
+      </c>
+      <c r="U121">
+        <v>1.85</v>
+      </c>
+      <c r="V121">
+        <v>2</v>
+      </c>
+      <c r="W121">
+        <v>0.125</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
+        <v>0.825</v>
+      </c>
+      <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>7749762</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45388.35416666666</v>
+      </c>
+      <c r="F122" t="s">
+        <v>37</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122">
+        <v>4.333</v>
+      </c>
+      <c r="L122">
+        <v>3.6</v>
+      </c>
+      <c r="M122">
+        <v>1.75</v>
+      </c>
+      <c r="N122">
+        <v>4.333</v>
+      </c>
+      <c r="O122">
+        <v>3.8</v>
+      </c>
+      <c r="P122">
+        <v>1.75</v>
+      </c>
+      <c r="Q122">
+        <v>0.75</v>
+      </c>
+      <c r="R122">
+        <v>1.85</v>
+      </c>
+      <c r="S122">
+        <v>1.95</v>
+      </c>
+      <c r="T122">
         <v>2.75</v>
       </c>
-      <c r="U120">
+      <c r="U122">
         <v>1.9</v>
       </c>
-      <c r="V120">
+      <c r="V122">
         <v>1.9</v>
       </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-      <c r="X120">
-        <v>0</v>
-      </c>
-      <c r="Y120">
-        <v>0</v>
-      </c>
-      <c r="Z120">
-        <v>0</v>
-      </c>
-      <c r="AA120">
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7749471</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F123" t="s">
+        <v>32</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
+        <v>3.1</v>
+      </c>
+      <c r="N123">
+        <v>1.6</v>
+      </c>
+      <c r="O123">
+        <v>3.8</v>
+      </c>
+      <c r="P123">
+        <v>4.333</v>
+      </c>
+      <c r="Q123">
+        <v>-1</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>1.75</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
+        <v>1.95</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>7751762</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45389.45833333334</v>
+      </c>
+      <c r="F124" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" t="s">
+        <v>35</v>
+      </c>
+      <c r="K124">
+        <v>2.55</v>
+      </c>
+      <c r="L124">
+        <v>3.2</v>
+      </c>
+      <c r="M124">
+        <v>2.55</v>
+      </c>
+      <c r="N124">
+        <v>2.45</v>
+      </c>
+      <c r="O124">
+        <v>3.2</v>
+      </c>
+      <c r="P124">
+        <v>2.7</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>1.775</v>
+      </c>
+      <c r="S124">
+        <v>2.025</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
+        <v>1.85</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7749774</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45390.45833333334</v>
+      </c>
+      <c r="F125" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125">
+        <v>1.95</v>
+      </c>
+      <c r="L125">
+        <v>3.5</v>
+      </c>
+      <c r="M125">
+        <v>3.4</v>
+      </c>
+      <c r="N125">
+        <v>1.95</v>
+      </c>
+      <c r="O125">
+        <v>3.5</v>
+      </c>
+      <c r="P125">
+        <v>3.4</v>
+      </c>
+      <c r="Q125">
+        <v>-0.5</v>
+      </c>
+      <c r="R125">
+        <v>1.95</v>
+      </c>
+      <c r="S125">
+        <v>1.85</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>1.9</v>
+      </c>
+      <c r="V125">
+        <v>1.9</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC125"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7749762</v>
+        <v>7751762</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11293,49 +11293,49 @@
         <v>28</v>
       </c>
       <c r="E122" s="2">
-        <v>45388.35416666666</v>
+        <v>45389.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K122">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N122">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
         <v>0</v>
@@ -11358,7 +11358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7749471</v>
+        <v>7749774</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11367,49 +11367,49 @@
         <v>28</v>
       </c>
       <c r="E123" s="2">
-        <v>45388.45833333334</v>
+        <v>45390.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L123">
+        <v>3.5</v>
+      </c>
+      <c r="M123">
         <v>3.4</v>
       </c>
-      <c r="M123">
-        <v>3.1</v>
-      </c>
       <c r="N123">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
         <v>0</v>
@@ -11424,154 +11424,6 @@
         <v>0</v>
       </c>
       <c r="AA123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:29">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>7751762</v>
-      </c>
-      <c r="C124" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" t="s">
-        <v>28</v>
-      </c>
-      <c r="E124" s="2">
-        <v>45389.45833333334</v>
-      </c>
-      <c r="F124" t="s">
-        <v>33</v>
-      </c>
-      <c r="G124" t="s">
-        <v>35</v>
-      </c>
-      <c r="K124">
-        <v>2.55</v>
-      </c>
-      <c r="L124">
-        <v>3.2</v>
-      </c>
-      <c r="M124">
-        <v>2.55</v>
-      </c>
-      <c r="N124">
-        <v>2.45</v>
-      </c>
-      <c r="O124">
-        <v>3.2</v>
-      </c>
-      <c r="P124">
-        <v>2.7</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>1.775</v>
-      </c>
-      <c r="S124">
-        <v>2.025</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
-      <c r="U124">
-        <v>1.95</v>
-      </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-      <c r="X124">
-        <v>0</v>
-      </c>
-      <c r="Y124">
-        <v>0</v>
-      </c>
-      <c r="Z124">
-        <v>0</v>
-      </c>
-      <c r="AA124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>7749774</v>
-      </c>
-      <c r="C125" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" t="s">
-        <v>28</v>
-      </c>
-      <c r="E125" s="2">
-        <v>45390.45833333334</v>
-      </c>
-      <c r="F125" t="s">
-        <v>39</v>
-      </c>
-      <c r="G125" t="s">
-        <v>30</v>
-      </c>
-      <c r="K125">
-        <v>1.95</v>
-      </c>
-      <c r="L125">
-        <v>3.5</v>
-      </c>
-      <c r="M125">
-        <v>3.4</v>
-      </c>
-      <c r="N125">
-        <v>1.95</v>
-      </c>
-      <c r="O125">
-        <v>3.5</v>
-      </c>
-      <c r="P125">
-        <v>3.4</v>
-      </c>
-      <c r="Q125">
-        <v>-0.5</v>
-      </c>
-      <c r="R125">
-        <v>1.95</v>
-      </c>
-      <c r="S125">
-        <v>1.85</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
-      <c r="U125">
-        <v>1.9</v>
-      </c>
-      <c r="V125">
-        <v>1.9</v>
-      </c>
-      <c r="W125">
-        <v>0</v>
-      </c>
-      <c r="X125">
-        <v>0</v>
-      </c>
-      <c r="Y125">
-        <v>0</v>
-      </c>
-      <c r="Z125">
-        <v>0</v>
-      </c>
-      <c r="AA125">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC123"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7751762</v>
+        <v>7749762</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11293,64 +11293,79 @@
         <v>28</v>
       </c>
       <c r="E122" s="2">
-        <v>45389.45833333334</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N122">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
+        <v>1.975</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
+        <v>1.825</v>
+      </c>
+      <c r="V122">
         <v>2.025</v>
       </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.925</v>
-      </c>
-      <c r="V122">
-        <v>1.875</v>
-      </c>
       <c r="W122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>0.4875</v>
+      </c>
+      <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
+        <v>1.025</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11358,72 +11373,398 @@
         <v>121</v>
       </c>
       <c r="B123">
+        <v>7749471</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F123" t="s">
+        <v>32</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>41</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
+        <v>3.1</v>
+      </c>
+      <c r="N123">
+        <v>1.45</v>
+      </c>
+      <c r="O123">
+        <v>4.2</v>
+      </c>
+      <c r="P123">
+        <v>5.25</v>
+      </c>
+      <c r="Q123">
+        <v>-1</v>
+      </c>
+      <c r="R123">
+        <v>1.8</v>
+      </c>
+      <c r="S123">
+        <v>2</v>
+      </c>
+      <c r="T123">
+        <v>3</v>
+      </c>
+      <c r="U123">
+        <v>1.925</v>
+      </c>
+      <c r="V123">
+        <v>1.875</v>
+      </c>
+      <c r="W123">
+        <v>0.45</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.8</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>7751762</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45389.45833333334</v>
+      </c>
+      <c r="F124" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>41</v>
+      </c>
+      <c r="K124">
+        <v>2.55</v>
+      </c>
+      <c r="L124">
+        <v>3.2</v>
+      </c>
+      <c r="M124">
+        <v>2.55</v>
+      </c>
+      <c r="N124">
+        <v>2.45</v>
+      </c>
+      <c r="O124">
+        <v>3.2</v>
+      </c>
+      <c r="P124">
+        <v>2.7</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
+        <v>2</v>
+      </c>
+      <c r="W124">
+        <v>1.45</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.8</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC124">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
         <v>7749774</v>
       </c>
-      <c r="C123" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E123" s="2">
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
         <v>45390.45833333334</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F125" t="s">
         <v>39</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G125" t="s">
         <v>30</v>
       </c>
-      <c r="K123">
+      <c r="K125">
         <v>1.95</v>
       </c>
-      <c r="L123">
+      <c r="L125">
         <v>3.5</v>
       </c>
-      <c r="M123">
+      <c r="M125">
         <v>3.4</v>
       </c>
-      <c r="N123">
-        <v>1.909</v>
-      </c>
-      <c r="O123">
-        <v>3.5</v>
-      </c>
-      <c r="P123">
+      <c r="N125">
+        <v>1.833</v>
+      </c>
+      <c r="O125">
         <v>3.6</v>
       </c>
-      <c r="Q123">
+      <c r="P125">
+        <v>3.75</v>
+      </c>
+      <c r="Q125">
         <v>-0.5</v>
       </c>
-      <c r="R123">
+      <c r="R125">
         <v>1.9</v>
       </c>
-      <c r="S123">
+      <c r="S125">
         <v>1.9</v>
       </c>
-      <c r="T123">
+      <c r="T125">
         <v>2.75</v>
       </c>
-      <c r="U123">
+      <c r="U125">
         <v>1.9</v>
       </c>
-      <c r="V123">
+      <c r="V125">
         <v>1.9</v>
       </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-      <c r="X123">
-        <v>0</v>
-      </c>
-      <c r="Y123">
-        <v>0</v>
-      </c>
-      <c r="Z123">
-        <v>0</v>
-      </c>
-      <c r="AA123">
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7751763</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45391.35416666666</v>
+      </c>
+      <c r="F126" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" t="s">
+        <v>34</v>
+      </c>
+      <c r="K126">
+        <v>4</v>
+      </c>
+      <c r="L126">
+        <v>3.6</v>
+      </c>
+      <c r="M126">
+        <v>1.727</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <v>3.6</v>
+      </c>
+      <c r="P126">
+        <v>1.7</v>
+      </c>
+      <c r="Q126">
+        <v>0.75</v>
+      </c>
+      <c r="R126">
+        <v>1.85</v>
+      </c>
+      <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
+        <v>3</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
+        <v>1.8</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>7751764</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45391.45833333334</v>
+      </c>
+      <c r="F127" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" t="s">
+        <v>32</v>
+      </c>
+      <c r="K127">
+        <v>2.2</v>
+      </c>
+      <c r="L127">
+        <v>3.4</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>2.2</v>
+      </c>
+      <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
+        <v>3</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
+        <v>1.95</v>
+      </c>
+      <c r="S127">
+        <v>1.85</v>
+      </c>
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
+        <v>1.9</v>
+      </c>
+      <c r="V127">
+        <v>1.9</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC127"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11568,6 +11568,15 @@
       <c r="G125" t="s">
         <v>30</v>
       </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>41</v>
+      </c>
       <c r="K125">
         <v>1.95</v>
       </c>
@@ -11578,46 +11587,52 @@
         <v>3.4</v>
       </c>
       <c r="N125">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA125">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB125">
+        <v>0.4125</v>
+      </c>
+      <c r="AC125">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,13 +11667,13 @@
         <v>1.727</v>
       </c>
       <c r="N126">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="Q126">
         <v>0.75</v>
@@ -11670,13 +11685,13 @@
         <v>1.95</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
         <v>0</v>
@@ -11729,19 +11744,19 @@
         <v>2.2</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
         <v>2.75</v>
@@ -11765,6 +11780,80 @@
         <v>0</v>
       </c>
       <c r="AA127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>7751765</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45392.45833333334</v>
+      </c>
+      <c r="F128" t="s">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s">
+        <v>33</v>
+      </c>
+      <c r="K128">
+        <v>2.625</v>
+      </c>
+      <c r="L128">
+        <v>3.3</v>
+      </c>
+      <c r="M128">
+        <v>2.55</v>
+      </c>
+      <c r="N128">
+        <v>2.9</v>
+      </c>
+      <c r="O128">
+        <v>3.3</v>
+      </c>
+      <c r="P128">
+        <v>2.3</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>2.1</v>
+      </c>
+      <c r="S128">
+        <v>1.7</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
+        <v>1.95</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11657,6 +11657,15 @@
       <c r="G126" t="s">
         <v>34</v>
       </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126" t="s">
+        <v>42</v>
+      </c>
       <c r="K126">
         <v>4</v>
       </c>
@@ -11667,46 +11676,52 @@
         <v>1.727</v>
       </c>
       <c r="N126">
+        <v>5.5</v>
+      </c>
+      <c r="O126">
         <v>4.5</v>
       </c>
-      <c r="O126">
-        <v>3.75</v>
-      </c>
       <c r="P126">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="Q126">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R126">
+        <v>2.025</v>
+      </c>
+      <c r="S126">
+        <v>1.775</v>
+      </c>
+      <c r="T126">
+        <v>3.25</v>
+      </c>
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
         <v>1.85</v>
       </c>
-      <c r="S126">
-        <v>1.95</v>
-      </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>1.85</v>
-      </c>
-      <c r="V126">
-        <v>1.95</v>
-      </c>
       <c r="W126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z126">
         <v>0</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB126">
+        <v>0.95</v>
+      </c>
+      <c r="AC126">
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11731,6 +11746,15 @@
       <c r="G127" t="s">
         <v>32</v>
       </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>41</v>
+      </c>
       <c r="K127">
         <v>2.2</v>
       </c>
@@ -11741,46 +11765,52 @@
         <v>3</v>
       </c>
       <c r="N127">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P127">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
+        <v>2.025</v>
+      </c>
+      <c r="S127">
+        <v>1.825</v>
+      </c>
+      <c r="T127">
+        <v>3</v>
+      </c>
+      <c r="U127">
+        <v>1.85</v>
+      </c>
+      <c r="V127">
         <v>2</v>
       </c>
-      <c r="S127">
-        <v>1.8</v>
-      </c>
-      <c r="T127">
-        <v>2.75</v>
-      </c>
-      <c r="U127">
-        <v>1.9</v>
-      </c>
-      <c r="V127">
-        <v>1.9</v>
-      </c>
       <c r="W127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>-0</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11815,31 +11845,31 @@
         <v>2.55</v>
       </c>
       <c r="N128">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W128">
         <v>0</v>
@@ -11854,6 +11884,154 @@
         <v>0</v>
       </c>
       <c r="AA128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>7749763</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45393.45833333334</v>
+      </c>
+      <c r="F129" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" t="s">
+        <v>31</v>
+      </c>
+      <c r="K129">
+        <v>4.333</v>
+      </c>
+      <c r="L129">
+        <v>3.6</v>
+      </c>
+      <c r="M129">
+        <v>1.8</v>
+      </c>
+      <c r="N129">
+        <v>4.333</v>
+      </c>
+      <c r="O129">
+        <v>3.6</v>
+      </c>
+      <c r="P129">
+        <v>1.75</v>
+      </c>
+      <c r="Q129">
+        <v>0.75</v>
+      </c>
+      <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>1.975</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
+        <v>1.975</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7749472</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45394.45833333334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>40</v>
+      </c>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="K130">
+        <v>5.25</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>1.6</v>
+      </c>
+      <c r="N130">
+        <v>5.5</v>
+      </c>
+      <c r="O130">
+        <v>3.8</v>
+      </c>
+      <c r="P130">
+        <v>1.6</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+      <c r="R130">
+        <v>1.775</v>
+      </c>
+      <c r="S130">
+        <v>2.025</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.875</v>
+      </c>
+      <c r="V130">
+        <v>1.925</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC130"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7751765</v>
+        <v>7749763</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11827,49 +11827,49 @@
         <v>28</v>
       </c>
       <c r="E128" s="2">
-        <v>45392.45833333334</v>
+        <v>45393.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K128">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M128">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="N128">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
         <v>0</v>
@@ -11892,7 +11892,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7749763</v>
+        <v>7749472</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11901,50 +11901,50 @@
         <v>28</v>
       </c>
       <c r="E129" s="2">
-        <v>45393.45833333334</v>
+        <v>45394.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K129">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M129">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="N129">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q129">
         <v>0.75</v>
       </c>
       <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
+        <v>1.975</v>
+      </c>
+      <c r="V129">
         <v>1.825</v>
       </c>
-      <c r="S129">
-        <v>1.975</v>
-      </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.825</v>
-      </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
         <v>0</v>
       </c>
@@ -11958,80 +11958,6 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>7749472</v>
-      </c>
-      <c r="C130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" t="s">
-        <v>28</v>
-      </c>
-      <c r="E130" s="2">
-        <v>45394.45833333334</v>
-      </c>
-      <c r="F130" t="s">
-        <v>40</v>
-      </c>
-      <c r="G130" t="s">
-        <v>29</v>
-      </c>
-      <c r="K130">
-        <v>5.25</v>
-      </c>
-      <c r="L130">
-        <v>4</v>
-      </c>
-      <c r="M130">
-        <v>1.6</v>
-      </c>
-      <c r="N130">
-        <v>5.5</v>
-      </c>
-      <c r="O130">
-        <v>3.8</v>
-      </c>
-      <c r="P130">
-        <v>1.6</v>
-      </c>
-      <c r="Q130">
-        <v>1</v>
-      </c>
-      <c r="R130">
-        <v>1.775</v>
-      </c>
-      <c r="S130">
-        <v>2.025</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.875</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
-      <c r="W130">
-        <v>0</v>
-      </c>
-      <c r="X130">
-        <v>0</v>
-      </c>
-      <c r="Y130">
-        <v>0</v>
-      </c>
-      <c r="Z130">
-        <v>0</v>
-      </c>
-      <c r="AA130">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7749763</v>
+        <v>7751765</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11827,64 +11827,79 @@
         <v>28</v>
       </c>
       <c r="E128" s="2">
-        <v>45393.45833333334</v>
+        <v>45392.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H128">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>41</v>
       </c>
       <c r="K128">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="L128">
+        <v>3.3</v>
+      </c>
+      <c r="M128">
+        <v>2.55</v>
+      </c>
+      <c r="N128">
+        <v>3.1</v>
+      </c>
+      <c r="O128">
         <v>3.6</v>
       </c>
-      <c r="M128">
-        <v>1.8</v>
-      </c>
-      <c r="N128">
-        <v>4.75</v>
-      </c>
-      <c r="O128">
-        <v>3.75</v>
-      </c>
       <c r="P128">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
         <v>1.9</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA128">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC128">
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:27">
@@ -11931,10 +11946,10 @@
         <v>0.75</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T129">
         <v>2.75</v>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11902,12 +11902,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7749472</v>
+        <v>7749763</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11916,63 +11916,152 @@
         <v>28</v>
       </c>
       <c r="E129" s="2">
-        <v>45394.45833333334</v>
+        <v>45393.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>4</v>
+      </c>
+      <c r="J129" t="s">
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="N129">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB129">
+        <v>1</v>
+      </c>
+      <c r="AC129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7749775</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>32</v>
+      </c>
+      <c r="G130" t="s">
+        <v>30</v>
+      </c>
+      <c r="K130">
+        <v>2.8</v>
+      </c>
+      <c r="L130">
+        <v>3.5</v>
+      </c>
+      <c r="M130">
+        <v>2.2</v>
+      </c>
+      <c r="N130">
+        <v>2.9</v>
+      </c>
+      <c r="O130">
+        <v>3.5</v>
+      </c>
+      <c r="P130">
+        <v>2.1</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
+        <v>1.9</v>
+      </c>
+      <c r="T130">
+        <v>2.75</v>
+      </c>
+      <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
+        <v>2</v>
+      </c>
+      <c r="W130">
         <v>0</v>
       </c>
-      <c r="X129">
+      <c r="X130">
         <v>0</v>
       </c>
-      <c r="Y129">
+      <c r="Y130">
         <v>0</v>
       </c>
-      <c r="Z129">
+      <c r="Z130">
         <v>0</v>
       </c>
-      <c r="AA129">
+      <c r="AA130">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC130"/>
+  <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7749775</v>
+        <v>7749472</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12005,63 +12005,152 @@
         <v>28</v>
       </c>
       <c r="E130" s="2">
-        <v>45395.45833333334</v>
+        <v>45394.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130" t="s">
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M130">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="N130">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q130">
         <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
+        <v>1.85</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>1.05</v>
+      </c>
+      <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>0.825</v>
+      </c>
+      <c r="AB130">
+        <v>1</v>
+      </c>
+      <c r="AC130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>7749764</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45397.45833333334</v>
+      </c>
+      <c r="F131" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" t="s">
+        <v>39</v>
+      </c>
+      <c r="K131">
+        <v>2.5</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>2.7</v>
+      </c>
+      <c r="N131">
+        <v>2.5</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
+        <v>2.7</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>1.825</v>
+      </c>
+      <c r="S131">
+        <v>1.975</v>
+      </c>
+      <c r="T131">
         <v>2.75</v>
       </c>
-      <c r="U130">
-        <v>1.8</v>
-      </c>
-      <c r="V130">
-        <v>2</v>
-      </c>
-      <c r="W130">
+      <c r="U131">
+        <v>1.975</v>
+      </c>
+      <c r="V131">
+        <v>1.825</v>
+      </c>
+      <c r="W131">
         <v>0</v>
       </c>
-      <c r="X130">
+      <c r="X131">
         <v>0</v>
       </c>
-      <c r="Y130">
+      <c r="Y131">
         <v>0</v>
       </c>
-      <c r="Z130">
+      <c r="Z131">
         <v>0</v>
       </c>
-      <c r="AA130">
+      <c r="AA131">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC131"/>
+  <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7749764</v>
+        <v>7749775</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12094,63 +12094,152 @@
         <v>28</v>
       </c>
       <c r="E131" s="2">
-        <v>45397.45833333334</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N131">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q131">
         <v>0</v>
       </c>
       <c r="R131">
+        <v>1.975</v>
+      </c>
+      <c r="S131">
         <v>1.825</v>
       </c>
-      <c r="S131">
+      <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
+        <v>2.025</v>
+      </c>
+      <c r="V131">
+        <v>1.775</v>
+      </c>
+      <c r="W131">
+        <v>1.6</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>7749764</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45397.45833333334</v>
+      </c>
+      <c r="F132" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s">
+        <v>39</v>
+      </c>
+      <c r="K132">
+        <v>2.5</v>
+      </c>
+      <c r="L132">
+        <v>3.4</v>
+      </c>
+      <c r="M132">
+        <v>2.7</v>
+      </c>
+      <c r="N132">
+        <v>2.5</v>
+      </c>
+      <c r="O132">
+        <v>3.4</v>
+      </c>
+      <c r="P132">
+        <v>2.7</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>1.825</v>
+      </c>
+      <c r="S132">
         <v>1.975</v>
       </c>
-      <c r="T131">
+      <c r="T132">
         <v>2.75</v>
       </c>
-      <c r="U131">
-        <v>1.975</v>
-      </c>
-      <c r="V131">
-        <v>1.825</v>
-      </c>
-      <c r="W131">
+      <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
+        <v>1.85</v>
+      </c>
+      <c r="W132">
         <v>0</v>
       </c>
-      <c r="X131">
+      <c r="X132">
         <v>0</v>
       </c>
-      <c r="Y131">
+      <c r="Y132">
         <v>0</v>
       </c>
-      <c r="Z131">
+      <c r="Z132">
         <v>0</v>
       </c>
-      <c r="AA131">
+      <c r="AA132">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7749764</v>
+        <v>7751766</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12183,64 +12183,79 @@
         <v>28</v>
       </c>
       <c r="E132" s="2">
-        <v>45397.45833333334</v>
+        <v>45396.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>41</v>
       </c>
       <c r="K132">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M132">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N132">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P132">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R132">
+        <v>2.025</v>
+      </c>
+      <c r="S132">
         <v>1.825</v>
       </c>
-      <c r="S132">
+      <c r="T132">
+        <v>3.25</v>
+      </c>
+      <c r="U132">
         <v>1.975</v>
       </c>
-      <c r="T132">
-        <v>2.75</v>
-      </c>
-      <c r="U132">
-        <v>1.95</v>
-      </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="X132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB132">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC132">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC132"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12258,6 +12258,95 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7749764</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45397.45833333334</v>
+      </c>
+      <c r="F133" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" t="s">
+        <v>39</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>41</v>
+      </c>
+      <c r="K133">
+        <v>2.5</v>
+      </c>
+      <c r="L133">
+        <v>3.4</v>
+      </c>
+      <c r="M133">
+        <v>2.7</v>
+      </c>
+      <c r="N133">
+        <v>2.2</v>
+      </c>
+      <c r="O133">
+        <v>3.6</v>
+      </c>
+      <c r="P133">
+        <v>3</v>
+      </c>
+      <c r="Q133">
+        <v>-0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.975</v>
+      </c>
+      <c r="S133">
+        <v>1.875</v>
+      </c>
+      <c r="T133">
+        <v>3</v>
+      </c>
+      <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
+        <v>1.9</v>
+      </c>
+      <c r="W133">
+        <v>1.2</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA133">
+        <v>-1</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>-0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12347,6 +12347,154 @@
         <v>-0</v>
       </c>
     </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>8103573</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45401.45833333334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" t="s">
+        <v>29</v>
+      </c>
+      <c r="K134">
+        <v>1.65</v>
+      </c>
+      <c r="L134">
+        <v>3.7</v>
+      </c>
+      <c r="M134">
+        <v>4.5</v>
+      </c>
+      <c r="N134">
+        <v>1.65</v>
+      </c>
+      <c r="O134">
+        <v>3.75</v>
+      </c>
+      <c r="P134">
+        <v>4.5</v>
+      </c>
+      <c r="Q134">
+        <v>-0.75</v>
+      </c>
+      <c r="R134">
+        <v>1.85</v>
+      </c>
+      <c r="S134">
+        <v>1.95</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
+        <v>1.8</v>
+      </c>
+      <c r="V134">
+        <v>2</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>8103574</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45402.45833333334</v>
+      </c>
+      <c r="F135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" t="s">
+        <v>38</v>
+      </c>
+      <c r="K135">
+        <v>1.4</v>
+      </c>
+      <c r="L135">
+        <v>4.5</v>
+      </c>
+      <c r="M135">
+        <v>6</v>
+      </c>
+      <c r="N135">
+        <v>1.4</v>
+      </c>
+      <c r="O135">
+        <v>4.5</v>
+      </c>
+      <c r="P135">
+        <v>5.75</v>
+      </c>
+      <c r="Q135">
+        <v>-1.25</v>
+      </c>
+      <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>3</v>
+      </c>
+      <c r="U135">
+        <v>1.8</v>
+      </c>
+      <c r="V135">
+        <v>2</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC135"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8103573</v>
+        <v>8103574</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12361,43 +12361,43 @@
         <v>28</v>
       </c>
       <c r="E134" s="2">
-        <v>45401.45833333334</v>
+        <v>45402.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K134">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="L134">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
+        <v>6</v>
+      </c>
+      <c r="N134">
+        <v>1.4</v>
+      </c>
+      <c r="O134">
         <v>4.5</v>
       </c>
-      <c r="N134">
-        <v>1.65</v>
-      </c>
-      <c r="O134">
-        <v>3.75</v>
-      </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U134">
         <v>1.8</v>
@@ -12418,80 +12418,6 @@
         <v>0</v>
       </c>
       <c r="AA134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>8103574</v>
-      </c>
-      <c r="C135" t="s">
-        <v>28</v>
-      </c>
-      <c r="D135" t="s">
-        <v>28</v>
-      </c>
-      <c r="E135" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F135" t="s">
-        <v>34</v>
-      </c>
-      <c r="G135" t="s">
-        <v>38</v>
-      </c>
-      <c r="K135">
-        <v>1.4</v>
-      </c>
-      <c r="L135">
-        <v>4.5</v>
-      </c>
-      <c r="M135">
-        <v>6</v>
-      </c>
-      <c r="N135">
-        <v>1.4</v>
-      </c>
-      <c r="O135">
-        <v>4.5</v>
-      </c>
-      <c r="P135">
-        <v>5.75</v>
-      </c>
-      <c r="Q135">
-        <v>-1.25</v>
-      </c>
-      <c r="R135">
-        <v>1.9</v>
-      </c>
-      <c r="S135">
-        <v>1.9</v>
-      </c>
-      <c r="T135">
-        <v>3</v>
-      </c>
-      <c r="U135">
-        <v>1.8</v>
-      </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
-      <c r="W135">
-        <v>0</v>
-      </c>
-      <c r="X135">
-        <v>0</v>
-      </c>
-      <c r="Y135">
-        <v>0</v>
-      </c>
-      <c r="Z135">
-        <v>0</v>
-      </c>
-      <c r="AA135">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12352,72 +12352,161 @@
         <v>132</v>
       </c>
       <c r="B134">
+        <v>8103573</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45401.45833333334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>41</v>
+      </c>
+      <c r="K134">
+        <v>1.65</v>
+      </c>
+      <c r="L134">
+        <v>3.7</v>
+      </c>
+      <c r="M134">
+        <v>4.5</v>
+      </c>
+      <c r="N134">
+        <v>1.75</v>
+      </c>
+      <c r="O134">
+        <v>3.5</v>
+      </c>
+      <c r="P134">
+        <v>4.2</v>
+      </c>
+      <c r="Q134">
+        <v>-0.75</v>
+      </c>
+      <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
+        <v>1.825</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
+        <v>1.85</v>
+      </c>
+      <c r="W134">
+        <v>0.75</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
+        <v>0.5125</v>
+      </c>
+      <c r="AA134">
+        <v>-0.5</v>
+      </c>
+      <c r="AB134">
+        <v>0.5</v>
+      </c>
+      <c r="AC134">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
         <v>8103574</v>
       </c>
-      <c r="C134" t="s">
-        <v>28</v>
-      </c>
-      <c r="D134" t="s">
-        <v>28</v>
-      </c>
-      <c r="E134" s="2">
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
         <v>45402.45833333334</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F135" t="s">
         <v>34</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G135" t="s">
         <v>38</v>
       </c>
-      <c r="K134">
+      <c r="K135">
         <v>1.4</v>
       </c>
-      <c r="L134">
+      <c r="L135">
         <v>4.5</v>
       </c>
-      <c r="M134">
+      <c r="M135">
         <v>6</v>
       </c>
-      <c r="N134">
+      <c r="N135">
         <v>1.4</v>
       </c>
-      <c r="O134">
+      <c r="O135">
         <v>4.5</v>
       </c>
-      <c r="P134">
+      <c r="P135">
         <v>5.75</v>
       </c>
-      <c r="Q134">
+      <c r="Q135">
         <v>-1.25</v>
       </c>
-      <c r="R134">
+      <c r="R135">
         <v>1.925</v>
       </c>
-      <c r="S134">
+      <c r="S135">
         <v>1.875</v>
       </c>
-      <c r="T134">
+      <c r="T135">
         <v>3</v>
       </c>
-      <c r="U134">
-        <v>1.8</v>
-      </c>
-      <c r="V134">
-        <v>2</v>
-      </c>
-      <c r="W134">
+      <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
+        <v>1.975</v>
+      </c>
+      <c r="W135">
         <v>0</v>
       </c>
-      <c r="X134">
+      <c r="X135">
         <v>0</v>
       </c>
-      <c r="Y134">
+      <c r="Y135">
         <v>0</v>
       </c>
-      <c r="Z134">
+      <c r="Z135">
         <v>0</v>
       </c>
-      <c r="AA134">
+      <c r="AA135">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC135"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12436,80 +12436,6 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:29">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>8103574</v>
-      </c>
-      <c r="C135" t="s">
-        <v>28</v>
-      </c>
-      <c r="D135" t="s">
-        <v>28</v>
-      </c>
-      <c r="E135" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F135" t="s">
-        <v>34</v>
-      </c>
-      <c r="G135" t="s">
-        <v>38</v>
-      </c>
-      <c r="K135">
-        <v>1.4</v>
-      </c>
-      <c r="L135">
-        <v>4.5</v>
-      </c>
-      <c r="M135">
-        <v>6</v>
-      </c>
-      <c r="N135">
-        <v>1.4</v>
-      </c>
-      <c r="O135">
-        <v>4.5</v>
-      </c>
-      <c r="P135">
-        <v>5.75</v>
-      </c>
-      <c r="Q135">
-        <v>-1.25</v>
-      </c>
-      <c r="R135">
-        <v>1.925</v>
-      </c>
-      <c r="S135">
-        <v>1.875</v>
-      </c>
-      <c r="T135">
-        <v>3</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
-      <c r="W135">
-        <v>0</v>
-      </c>
-      <c r="X135">
-        <v>0</v>
-      </c>
-      <c r="Y135">
-        <v>0</v>
-      </c>
-      <c r="Z135">
-        <v>0</v>
-      </c>
-      <c r="AA135">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12436,6 +12436,95 @@
         <v>-0.5</v>
       </c>
     </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>8103574</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45402.45833333334</v>
+      </c>
+      <c r="F135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" t="s">
+        <v>38</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>41</v>
+      </c>
+      <c r="K135">
+        <v>1.4</v>
+      </c>
+      <c r="L135">
+        <v>4.5</v>
+      </c>
+      <c r="M135">
+        <v>6</v>
+      </c>
+      <c r="N135">
+        <v>1.6</v>
+      </c>
+      <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135">
+        <v>4.5</v>
+      </c>
+      <c r="Q135">
+        <v>-1</v>
+      </c>
+      <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
+        <v>1.8</v>
+      </c>
+      <c r="T135">
+        <v>3</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
+        <v>1.9</v>
+      </c>
+      <c r="W135">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>-0</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>-0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8124823</t>
   </si>
   <si>
     <t>India Super League</t>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB135"/>
+  <dimension ref="A1:AB136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +604,16 @@
         <v>7184224</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45190.47916666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -619,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -667,10 +670,10 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
         <v>0.875</v>
@@ -687,16 +690,16 @@
         <v>7184225</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45192.375</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>2.05</v>
@@ -753,10 +756,10 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
@@ -773,16 +776,16 @@
         <v>7186566</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45192.5</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -791,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>1.571</v>
@@ -839,10 +842,10 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <v>0.9750000000000001</v>
@@ -859,16 +862,16 @@
         <v>7184256</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45193.47916666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -877,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>7</v>
@@ -945,16 +948,16 @@
         <v>7184226</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45194.47916666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -963,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>2.6</v>
@@ -1031,16 +1034,16 @@
         <v>7263673</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45196.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1049,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1097,10 +1100,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z7">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1117,16 +1120,16 @@
         <v>7185195</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45197.47916666666</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1135,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1203,16 +1206,16 @@
         <v>7184227</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45198.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>4.2</v>
@@ -1269,10 +1272,10 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1289,16 +1292,16 @@
         <v>7184228</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45199.47916666666</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1307,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1355,10 +1358,10 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <v>0.8500000000000001</v>
@@ -1375,16 +1378,16 @@
         <v>7184229</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>1.85</v>
@@ -1441,10 +1444,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>-1</v>
@@ -1461,16 +1464,16 @@
         <v>7186565</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45201.47916666666</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1479,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>1.833</v>
@@ -1527,10 +1530,10 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1547,16 +1550,16 @@
         <v>7184230</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45203.47916666666</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1565,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1.5</v>
@@ -1613,10 +1616,10 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>0.5</v>
@@ -1633,16 +1636,16 @@
         <v>7184258</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45204.47916666666</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>3.1</v>
@@ -1699,10 +1702,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z14">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1719,16 +1722,16 @@
         <v>7186564</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45205.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1737,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1805,16 +1808,16 @@
         <v>7184259</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45206.375</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1823,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>1.909</v>
@@ -1871,10 +1874,10 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
         <v>0.7749999999999999</v>
@@ -1891,16 +1894,16 @@
         <v>7184231</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45206.47916666666</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1909,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>3.4</v>
@@ -1957,10 +1960,10 @@
         <v>0.909</v>
       </c>
       <c r="Y17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA17">
         <v>0.9750000000000001</v>
@@ -1977,16 +1980,16 @@
         <v>7184232</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1995,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2043,10 +2046,10 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -2063,16 +2066,16 @@
         <v>7184233</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45220.375</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2081,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>3.5</v>
@@ -2129,10 +2132,10 @@
         <v>1.1</v>
       </c>
       <c r="Y19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2149,16 +2152,16 @@
         <v>7184234</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45220.47916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2167,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>1.5</v>
@@ -2235,16 +2238,16 @@
         <v>7186563</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45221.47916666666</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2321,16 +2324,16 @@
         <v>7184235</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45222.47916666666</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2339,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2387,10 +2390,10 @@
         <v>3.333</v>
       </c>
       <c r="Y22">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2407,17 +2410,17 @@
         <v>7184260</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
         <v>34</v>
       </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>2.5</v>
@@ -2493,16 +2496,16 @@
         <v>7184261</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45225.47916666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2511,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>2.875</v>
@@ -2559,10 +2562,10 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>0.4625</v>
@@ -2579,16 +2582,16 @@
         <v>7184236</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2597,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2645,10 +2648,10 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>0.4875</v>
@@ -2665,16 +2668,16 @@
         <v>7184262</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45227.47916666666</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2683,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.615</v>
@@ -2751,16 +2754,16 @@
         <v>7186562</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
         <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2769,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2817,10 +2820,10 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z27">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
         <v>0.875</v>
@@ -2837,16 +2840,16 @@
         <v>7184263</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45230.47916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2855,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>2.05</v>
@@ -2903,10 +2906,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>0.875</v>
@@ -2923,16 +2926,16 @@
         <v>7184264</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45231.47916666666</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2941,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -2989,10 +2992,10 @@
         <v>0.75</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
         <v>0.8500000000000001</v>
@@ -3009,16 +3012,16 @@
         <v>7186561</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45232.47916666666</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3027,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>1.333</v>
@@ -3095,16 +3098,16 @@
         <v>7184265</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45233.47916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3113,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>1.533</v>
@@ -3161,10 +3164,10 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
@@ -3181,16 +3184,16 @@
         <v>7184266</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45234.375</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3199,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>2.3</v>
@@ -3267,16 +3270,16 @@
         <v>7184238</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45234.47916666666</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3285,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2.5</v>
@@ -3333,10 +3336,10 @@
         <v>2</v>
       </c>
       <c r="Y33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
         <v>0.925</v>
@@ -3353,16 +3356,16 @@
         <v>7184239</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3371,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>3.2</v>
@@ -3419,10 +3422,10 @@
         <v>1.15</v>
       </c>
       <c r="Y34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -3439,16 +3442,16 @@
         <v>7186560</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45237.47916666666</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3457,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>3.2</v>
@@ -3525,16 +3528,16 @@
         <v>7184240</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45255.375</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3543,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>2.3</v>
@@ -3611,16 +3614,16 @@
         <v>7184241</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45255.47916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3629,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -3677,10 +3680,10 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3697,16 +3700,16 @@
         <v>7184267</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45256.47916666666</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3715,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -3783,16 +3786,16 @@
         <v>7184268</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45257.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3801,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>1.615</v>
@@ -3849,10 +3852,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -3869,16 +3872,16 @@
         <v>7184242</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45259.47916666666</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3887,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>1.75</v>
@@ -3955,16 +3958,16 @@
         <v>7186559</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45260.47916666666</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3973,7 +3976,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4041,16 +4044,16 @@
         <v>7184269</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45261.47916666666</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4059,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>2.5</v>
@@ -4107,10 +4110,10 @@
         <v>1.75</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA42">
         <v>-1</v>
@@ -4127,16 +4130,16 @@
         <v>7184270</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4145,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>4.333</v>
@@ -4193,10 +4196,10 @@
         <v>0.8</v>
       </c>
       <c r="Y43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4213,16 +4216,16 @@
         <v>7184243</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45263.47916666666</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4231,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4279,10 +4282,10 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4299,16 +4302,16 @@
         <v>7184244</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45264.47916666666</v>
       </c>
       <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
         <v>32</v>
-      </c>
-      <c r="F45" t="s">
-        <v>31</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -4317,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4365,10 +4368,10 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
         <v>0.825</v>
@@ -4385,16 +4388,16 @@
         <v>7185196</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45266.47916666666</v>
       </c>
       <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
         <v>30</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4403,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>1.727</v>
@@ -4471,16 +4474,16 @@
         <v>7184245</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45267.47916666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4489,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4557,16 +4560,16 @@
         <v>7184271</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45268.47916666666</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4575,7 +4578,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>4.333</v>
@@ -4623,10 +4626,10 @@
         <v>1.1</v>
       </c>
       <c r="Y48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
         <v>1.025</v>
@@ -4643,16 +4646,16 @@
         <v>7186558</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45269.47916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4661,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4729,16 +4732,16 @@
         <v>7184272</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4747,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>2.75</v>
@@ -4815,16 +4818,16 @@
         <v>7184273</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45272.47916666666</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4833,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>2.375</v>
@@ -4901,16 +4904,16 @@
         <v>7184246</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45273.47916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4919,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>2.45</v>
@@ -4967,10 +4970,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>-1</v>
@@ -4987,16 +4990,16 @@
         <v>7186557</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45274.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5005,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5053,10 +5056,10 @@
         <v>1.15</v>
       </c>
       <c r="Y53">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
@@ -5073,16 +5076,16 @@
         <v>7184274</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45275.47916666666</v>
       </c>
       <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
         <v>31</v>
-      </c>
-      <c r="F54" t="s">
-        <v>30</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5091,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>3.75</v>
@@ -5139,10 +5142,10 @@
         <v>0.833</v>
       </c>
       <c r="Y54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
         <v>0.925</v>
@@ -5159,16 +5162,16 @@
         <v>7184275</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45276.375</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5177,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>1.95</v>
@@ -5225,10 +5228,10 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
         <v>-1</v>
@@ -5245,16 +5248,16 @@
         <v>7184247</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45276.47916666666</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5263,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>1.4</v>
@@ -5331,16 +5334,16 @@
         <v>7184276</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45277.47916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5349,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>1.75</v>
@@ -5397,10 +5400,10 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
         <v>0.825</v>
@@ -5417,16 +5420,16 @@
         <v>7186556</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45278.47916666666</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5435,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>2.6</v>
@@ -5483,10 +5486,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z58">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5503,16 +5506,16 @@
         <v>7185197</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45280.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5521,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>1.95</v>
@@ -5569,10 +5572,10 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>0.925</v>
@@ -5589,16 +5592,16 @@
         <v>7184277</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45281.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5607,7 +5610,7 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>2.6</v>
@@ -5655,10 +5658,10 @@
         <v>1.7</v>
       </c>
       <c r="Y60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
         <v>0.925</v>
@@ -5675,16 +5678,16 @@
         <v>7184248</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45282.47916666666</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5693,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>2.7</v>
@@ -5761,16 +5764,16 @@
         <v>7184278</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5779,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>1.85</v>
@@ -5827,10 +5830,10 @@
         <v>1.625</v>
       </c>
       <c r="Y62">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA62">
         <v>0.875</v>
@@ -5847,16 +5850,16 @@
         <v>7184279</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45284.375</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5865,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5933,16 +5936,16 @@
         <v>7184251</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5951,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -5999,10 +6002,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>-0.5</v>
@@ -6019,16 +6022,16 @@
         <v>7186555</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45286.47916666666</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6037,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>2.6</v>
@@ -6085,10 +6088,10 @@
         <v>1.1</v>
       </c>
       <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
         <v>0.925</v>
-      </c>
-      <c r="Z65">
-        <v>-1</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6105,16 +6108,16 @@
         <v>7184252</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45287.47916666666</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6123,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>1.909</v>
@@ -6171,10 +6174,10 @@
         <v>3</v>
       </c>
       <c r="Y66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA66">
         <v>-1</v>
@@ -6191,16 +6194,16 @@
         <v>7184253</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45288.47916666666</v>
       </c>
       <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s">
         <v>38</v>
-      </c>
-      <c r="F67" t="s">
-        <v>37</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6209,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>1.5</v>
@@ -6257,10 +6260,10 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
         <v>0.4375</v>
@@ -6277,16 +6280,16 @@
         <v>7184280</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45289.375</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6295,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>1.75</v>
@@ -6343,10 +6346,10 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
         <v>1</v>
@@ -6363,16 +6366,16 @@
         <v>7184281</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45289.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6381,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -6449,16 +6452,16 @@
         <v>7751741</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45322.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6467,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6535,16 +6538,16 @@
         <v>7751742</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45323.45833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6553,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>5.25</v>
@@ -6601,10 +6604,10 @@
         <v>0.1659999999999999</v>
       </c>
       <c r="Y71">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
         <v>-1</v>
@@ -6621,16 +6624,16 @@
         <v>7749463</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45324.45833333334</v>
       </c>
       <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
         <v>29</v>
-      </c>
-      <c r="F72" t="s">
-        <v>28</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6639,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>2.15</v>
@@ -6687,10 +6690,10 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
         <v>0.95</v>
@@ -6707,16 +6710,16 @@
         <v>7751743</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -6725,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <v>2.5</v>
@@ -6773,10 +6776,10 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
         <v>0.9750000000000001</v>
@@ -6793,16 +6796,16 @@
         <v>7749754</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6811,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>1.444</v>
@@ -6879,16 +6882,16 @@
         <v>7749867</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6897,7 +6900,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>1.571</v>
@@ -6945,10 +6948,10 @@
         <v>3.75</v>
       </c>
       <c r="Y75">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA75">
         <v>0.925</v>
@@ -6965,16 +6968,16 @@
         <v>7749765</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45327.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6983,7 +6986,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <v>9</v>
@@ -7031,10 +7034,10 @@
         <v>0.222</v>
       </c>
       <c r="Y76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
         <v>-0.5</v>
@@ -7051,16 +7054,16 @@
         <v>7751744</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45329.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7069,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7117,10 +7120,10 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7137,16 +7140,16 @@
         <v>7749766</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45331.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7155,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>3.1</v>
@@ -7223,16 +7226,16 @@
         <v>7751745</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7241,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>2.6</v>
@@ -7289,10 +7292,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
         <v>0.9750000000000001</v>
@@ -7309,16 +7312,16 @@
         <v>7749755</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7327,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>1.2</v>
@@ -7375,10 +7378,10 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z80">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7395,16 +7398,16 @@
         <v>7751746</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" t="s">
         <v>35</v>
-      </c>
-      <c r="F81" t="s">
-        <v>34</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7413,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7481,16 +7484,16 @@
         <v>7749464</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45334.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7499,7 +7502,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>1.615</v>
@@ -7547,10 +7550,10 @@
         <v>3.75</v>
       </c>
       <c r="Y82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA82">
         <v>0.9750000000000001</v>
@@ -7567,16 +7570,16 @@
         <v>7749868</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45335.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7585,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>3.75</v>
@@ -7633,10 +7636,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y83">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7653,16 +7656,16 @@
         <v>7749756</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45336.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7671,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7719,10 +7722,10 @@
         <v>3.333</v>
       </c>
       <c r="Y84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -7739,16 +7742,16 @@
         <v>7751747</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45337.45833333334</v>
       </c>
       <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
         <v>36</v>
-      </c>
-      <c r="F85" t="s">
-        <v>35</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7757,7 +7760,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>2.55</v>
@@ -7805,10 +7808,10 @@
         <v>1.8</v>
       </c>
       <c r="Y85">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA85">
         <v>0.95</v>
@@ -7825,16 +7828,16 @@
         <v>7749465</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45338.45833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7843,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <v>2.625</v>
@@ -7891,10 +7894,10 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z86">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -7911,16 +7914,16 @@
         <v>7749757</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>4</v>
@@ -7929,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>1.666</v>
@@ -7977,10 +7980,10 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
         <v>0.875</v>
@@ -7997,16 +8000,16 @@
         <v>7751748</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8015,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>10</v>
@@ -8063,10 +8066,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y88">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
         <v>-1</v>
@@ -8083,16 +8086,16 @@
         <v>7749869</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8101,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J89">
         <v>1.65</v>
@@ -8149,10 +8152,10 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8169,16 +8172,16 @@
         <v>7751749</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8187,7 +8190,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>1.4</v>
@@ -8235,10 +8238,10 @@
         <v>4.5</v>
       </c>
       <c r="Y90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8255,16 +8258,16 @@
         <v>7751750</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8273,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -8321,10 +8324,10 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>0.5125</v>
@@ -8341,16 +8344,16 @@
         <v>7749870</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45345.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8359,7 +8362,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8407,10 +8410,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8427,16 +8430,16 @@
         <v>7873049</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8445,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J93">
         <v>2.25</v>
@@ -8513,16 +8516,16 @@
         <v>7751751</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8531,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J94">
         <v>1.2</v>
@@ -8599,16 +8602,16 @@
         <v>7749466</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8617,7 +8620,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>3.3</v>
@@ -8665,10 +8668,10 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
         <v>0.9750000000000001</v>
@@ -8685,16 +8688,16 @@
         <v>7751752</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8703,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8751,10 +8754,10 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
         <v>-1</v>
@@ -8771,16 +8774,16 @@
         <v>7751753</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45349.45833333334</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8789,7 +8792,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>4.333</v>
@@ -8837,10 +8840,10 @@
         <v>0.55</v>
       </c>
       <c r="Y97">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA97">
         <v>-1</v>
@@ -8857,16 +8860,16 @@
         <v>7749871</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45350.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8875,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8943,16 +8946,16 @@
         <v>7749767</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45351.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8961,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9009,10 +9012,10 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z99">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
         <v>0</v>
@@ -9029,16 +9032,16 @@
         <v>7749759</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45352.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9047,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J100">
         <v>1.615</v>
@@ -9095,10 +9098,10 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>0</v>
@@ -9115,16 +9118,16 @@
         <v>7749872</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9133,7 +9136,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>4.5</v>
@@ -9181,10 +9184,10 @@
         <v>1</v>
       </c>
       <c r="Y101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA101">
         <v>0.825</v>
@@ -9201,16 +9204,16 @@
         <v>7749467</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9219,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9267,10 +9270,10 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
         <v>-1</v>
@@ -9287,16 +9290,16 @@
         <v>7749768</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9305,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>2.6</v>
@@ -9353,10 +9356,10 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
         <v>0.925</v>
@@ -9373,16 +9376,16 @@
         <v>7751754</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45355.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9391,7 +9394,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>5.25</v>
@@ -9459,16 +9462,16 @@
         <v>7751755</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45357.45833333334</v>
       </c>
       <c r="E105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" t="s">
         <v>33</v>
-      </c>
-      <c r="F105" t="s">
-        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9477,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J105">
         <v>1.6</v>
@@ -9525,10 +9528,10 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA105">
         <v>-1</v>
@@ -9545,16 +9548,16 @@
         <v>7751756</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45358.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9563,7 +9566,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9611,10 +9614,10 @@
         <v>2.1</v>
       </c>
       <c r="Y106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
@@ -9631,16 +9634,16 @@
         <v>7749873</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45359.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9649,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>3.75</v>
@@ -9717,16 +9720,16 @@
         <v>7751757</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9735,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>1.333</v>
@@ -9803,16 +9806,16 @@
         <v>7749760</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45361.5</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9821,7 +9824,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>3.8</v>
@@ -9869,10 +9872,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z109">
-        <v>-1</v>
       </c>
       <c r="AA109">
         <v>0.8500000000000001</v>
@@ -9889,16 +9892,16 @@
         <v>7751758</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45362.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>3</v>
@@ -9907,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -9975,16 +9978,16 @@
         <v>7749874</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45363.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -9993,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J111">
         <v>1.5</v>
@@ -10041,10 +10044,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z111">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>1</v>
@@ -10061,16 +10064,16 @@
         <v>7749468</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45364.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10079,7 +10082,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>2.9</v>
@@ -10127,10 +10130,10 @@
         <v>1</v>
       </c>
       <c r="Y112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
         <v>0.95</v>
@@ -10147,16 +10150,16 @@
         <v>7751759</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45365.45833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10165,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>1.666</v>
@@ -10213,10 +10216,10 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z113">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
         <v>0.875</v>
@@ -10233,16 +10236,16 @@
         <v>7749770</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10251,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>2.55</v>
@@ -10319,16 +10322,16 @@
         <v>7749469</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10337,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>2.2</v>
@@ -10405,16 +10408,16 @@
         <v>7749761</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10423,7 +10426,7 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>1.533</v>
@@ -10471,10 +10474,10 @@
         <v>4.75</v>
       </c>
       <c r="Y116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA116">
         <v>0.925</v>
@@ -10491,16 +10494,16 @@
         <v>7749875</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45383.45833333334</v>
       </c>
       <c r="E117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" t="s">
         <v>39</v>
-      </c>
-      <c r="F117" t="s">
-        <v>38</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10509,7 +10512,7 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>9.5</v>
@@ -10557,10 +10560,10 @@
         <v>0.333</v>
       </c>
       <c r="Y117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
         <v>-0.5</v>
@@ -10577,16 +10580,16 @@
         <v>7749773</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45384.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10595,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J118">
         <v>1.65</v>
@@ -10643,10 +10646,10 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
         <v>0.875</v>
@@ -10663,16 +10666,16 @@
         <v>7749470</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45385.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10681,7 +10684,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>1.85</v>
@@ -10729,10 +10732,10 @@
         <v>2.3</v>
       </c>
       <c r="Y119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
         <v>0.8500000000000001</v>
@@ -10749,16 +10752,16 @@
         <v>7751760</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45386.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10767,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>2.3</v>
@@ -10815,10 +10818,10 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
         <v>0</v>
@@ -10835,16 +10838,16 @@
         <v>7751761</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45387.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>4</v>
@@ -10853,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J121">
         <v>1.142</v>
@@ -10901,10 +10904,10 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
         <v>0.8500000000000001</v>
@@ -10921,16 +10924,16 @@
         <v>7749762</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10939,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>4.333</v>
@@ -10987,10 +10990,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y122">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11007,16 +11010,16 @@
         <v>7749471</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11025,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J123">
         <v>2</v>
@@ -11073,10 +11076,10 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11093,16 +11096,16 @@
         <v>7751762</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45389.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11111,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11159,10 +11162,10 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>0.8500000000000001</v>
@@ -11179,16 +11182,16 @@
         <v>7749774</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45390.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11197,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J125">
         <v>1.95</v>
@@ -11245,10 +11248,10 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z125">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
         <v>0.4125</v>
@@ -11265,16 +11268,16 @@
         <v>7751763</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45391.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11283,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -11331,10 +11334,10 @@
         <v>0.5</v>
       </c>
       <c r="Y126">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA126">
         <v>0.95</v>
@@ -11351,16 +11354,16 @@
         <v>7751764</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45391.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11369,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J127">
         <v>2.2</v>
@@ -11417,10 +11420,10 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
         <v>0</v>
@@ -11437,16 +11440,16 @@
         <v>7751765</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45392.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11455,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11503,10 +11506,10 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
         <v>0.9750000000000001</v>
@@ -11523,16 +11526,16 @@
         <v>7749763</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45393.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11541,7 +11544,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>4.333</v>
@@ -11589,10 +11592,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>1</v>
@@ -11609,16 +11612,16 @@
         <v>7749472</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45394.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11627,7 +11630,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J130">
         <v>5.25</v>
@@ -11675,10 +11678,10 @@
         <v>1.05</v>
       </c>
       <c r="Y130">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
         <v>1</v>
@@ -11695,16 +11698,16 @@
         <v>7749775</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11713,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>2.8</v>
@@ -11761,10 +11764,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>0</v>
@@ -11781,16 +11784,16 @@
         <v>7751766</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11799,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J132">
         <v>1.363</v>
@@ -11847,10 +11850,10 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
         <v>0.9750000000000001</v>
@@ -11867,16 +11870,16 @@
         <v>7749764</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45397.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11885,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>2.5</v>
@@ -11933,10 +11936,10 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
         <v>0</v>
@@ -11953,16 +11956,16 @@
         <v>8103573</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E134" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" t="s">
         <v>29</v>
-      </c>
-      <c r="F134" t="s">
-        <v>28</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11971,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>1.65</v>
@@ -12019,10 +12022,10 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z134">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
         <v>0.5</v>
@@ -12039,16 +12042,16 @@
         <v>8103574</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12057,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>1.4</v>
@@ -12105,15 +12108,80 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z135">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA135">
         <v>0</v>
       </c>
       <c r="AB135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45406.45833333334</v>
+      </c>
+      <c r="E136" t="s">
+        <v>34</v>
+      </c>
+      <c r="F136" t="s">
+        <v>39</v>
+      </c>
+      <c r="J136">
+        <v>2.05</v>
+      </c>
+      <c r="K136">
+        <v>3.5</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>1.95</v>
+      </c>
+      <c r="N136">
+        <v>3.6</v>
+      </c>
+      <c r="O136">
+        <v>3.4</v>
+      </c>
+      <c r="P136">
+        <v>-0.5</v>
+      </c>
+      <c r="Q136">
+        <v>2</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
+        <v>3</v>
+      </c>
+      <c r="T136">
+        <v>1.95</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
         <v>0</v>
       </c>
     </row>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8124823</t>
   </si>
   <si>
     <t>India Super League</t>
@@ -507,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB136"/>
+  <dimension ref="A1:AB137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,16 +601,16 @@
         <v>7184224</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45190.47916666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -622,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -690,16 +687,16 @@
         <v>7184225</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45192.375</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -708,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>2.05</v>
@@ -776,16 +773,16 @@
         <v>7186566</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45192.5</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -794,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>1.571</v>
@@ -862,16 +859,16 @@
         <v>7184256</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45193.47916666666</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -880,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>7</v>
@@ -948,16 +945,16 @@
         <v>7184226</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45194.47916666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -966,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>2.6</v>
@@ -1034,16 +1031,16 @@
         <v>7263673</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45196.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1052,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1120,16 +1117,16 @@
         <v>7185195</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45197.47916666666</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1138,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1206,16 +1203,16 @@
         <v>7184227</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45198.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1224,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>4.2</v>
@@ -1292,16 +1289,16 @@
         <v>7184228</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45199.47916666666</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1310,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1378,16 +1375,16 @@
         <v>7184229</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>1.85</v>
@@ -1464,16 +1461,16 @@
         <v>7186565</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45201.47916666666</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1482,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>1.833</v>
@@ -1550,16 +1547,16 @@
         <v>7184230</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45203.47916666666</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1568,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>1.5</v>
@@ -1636,16 +1633,16 @@
         <v>7184258</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45204.47916666666</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1654,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>3.1</v>
@@ -1722,16 +1719,16 @@
         <v>7186564</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45205.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1740,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1808,16 +1805,16 @@
         <v>7184259</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45206.375</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1826,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>1.909</v>
@@ -1894,16 +1891,16 @@
         <v>7184231</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45206.47916666666</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1912,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>3.4</v>
@@ -1980,16 +1977,16 @@
         <v>7184232</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1998,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2066,16 +2063,16 @@
         <v>7184233</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45220.375</v>
       </c>
       <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2084,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>3.5</v>
@@ -2152,16 +2149,16 @@
         <v>7184234</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45220.47916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2170,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1.5</v>
@@ -2238,17 +2235,17 @@
         <v>7186563</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45221.47916666666</v>
       </c>
       <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -2256,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2324,16 +2321,16 @@
         <v>7184235</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45222.47916666666</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2342,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2410,16 +2407,16 @@
         <v>7184260</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2428,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>2.5</v>
@@ -2496,16 +2493,16 @@
         <v>7184261</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45225.47916666666</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2514,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>2.875</v>
@@ -2582,16 +2579,16 @@
         <v>7184236</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
         <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2600,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2668,16 +2665,16 @@
         <v>7184262</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45227.47916666666</v>
       </c>
       <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
         <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2686,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1.615</v>
@@ -2754,16 +2751,16 @@
         <v>7186562</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2772,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2840,16 +2837,16 @@
         <v>7184263</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45230.47916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2858,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>2.05</v>
@@ -2926,16 +2923,16 @@
         <v>7184264</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45231.47916666666</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2944,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -3012,16 +3009,16 @@
         <v>7186561</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45232.47916666666</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3030,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J30">
         <v>1.333</v>
@@ -3098,16 +3095,16 @@
         <v>7184265</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45233.47916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3116,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>1.533</v>
@@ -3184,16 +3181,16 @@
         <v>7184266</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45234.375</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3202,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2.3</v>
@@ -3270,16 +3267,16 @@
         <v>7184238</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45234.47916666666</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3288,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>2.5</v>
@@ -3356,16 +3353,16 @@
         <v>7184239</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3374,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>3.2</v>
@@ -3442,16 +3439,16 @@
         <v>7186560</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45237.47916666666</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3460,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>3.2</v>
@@ -3528,16 +3525,16 @@
         <v>7184240</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45255.375</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3546,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>2.3</v>
@@ -3614,16 +3611,16 @@
         <v>7184241</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45255.47916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3632,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -3700,16 +3697,16 @@
         <v>7184267</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45256.47916666666</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3718,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -3786,16 +3783,16 @@
         <v>7184268</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45257.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3804,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>1.615</v>
@@ -3872,16 +3869,16 @@
         <v>7184242</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45259.47916666666</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3890,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>1.75</v>
@@ -3958,16 +3955,16 @@
         <v>7186559</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45260.47916666666</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3976,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4044,16 +4041,16 @@
         <v>7184269</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45261.47916666666</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4062,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>2.5</v>
@@ -4130,16 +4127,16 @@
         <v>7184270</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4148,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>4.333</v>
@@ -4216,16 +4213,16 @@
         <v>7184243</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45263.47916666666</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4234,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4302,16 +4299,16 @@
         <v>7184244</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45264.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -4320,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4388,16 +4385,16 @@
         <v>7185196</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45266.47916666666</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4406,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>1.727</v>
@@ -4474,16 +4471,16 @@
         <v>7184245</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45267.47916666666</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4492,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4560,16 +4557,16 @@
         <v>7184271</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45268.47916666666</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4578,7 +4575,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>4.333</v>
@@ -4646,16 +4643,16 @@
         <v>7186558</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45269.47916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4664,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4732,16 +4729,16 @@
         <v>7184272</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4750,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <v>2.75</v>
@@ -4818,16 +4815,16 @@
         <v>7184273</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45272.47916666666</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4836,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>2.375</v>
@@ -4904,16 +4901,16 @@
         <v>7184246</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45273.47916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4922,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>2.45</v>
@@ -4990,16 +4987,16 @@
         <v>7186557</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45274.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5008,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5076,16 +5073,16 @@
         <v>7184274</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45275.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5094,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>3.75</v>
@@ -5162,16 +5159,16 @@
         <v>7184275</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45276.375</v>
       </c>
       <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" t="s">
         <v>35</v>
-      </c>
-      <c r="F55" t="s">
-        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5180,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J55">
         <v>1.95</v>
@@ -5248,16 +5245,16 @@
         <v>7184247</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45276.47916666666</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5266,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>1.4</v>
@@ -5334,16 +5331,16 @@
         <v>7184276</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45277.47916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5352,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>1.75</v>
@@ -5420,16 +5417,16 @@
         <v>7186556</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45278.47916666666</v>
       </c>
       <c r="E58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" t="s">
         <v>37</v>
-      </c>
-      <c r="F58" t="s">
-        <v>38</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5438,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J58">
         <v>2.6</v>
@@ -5506,16 +5503,16 @@
         <v>7185197</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45280.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5524,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J59">
         <v>1.95</v>
@@ -5592,16 +5589,16 @@
         <v>7184277</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45281.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5610,7 +5607,7 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <v>2.6</v>
@@ -5678,16 +5675,16 @@
         <v>7184248</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45282.47916666666</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5696,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>2.7</v>
@@ -5764,16 +5761,16 @@
         <v>7184278</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5782,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>1.85</v>
@@ -5850,16 +5847,16 @@
         <v>7184279</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45284.375</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5868,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5936,16 +5933,16 @@
         <v>7184251</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5954,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -6022,16 +6019,16 @@
         <v>7186555</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45286.47916666666</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6040,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <v>2.6</v>
@@ -6108,16 +6105,16 @@
         <v>7184252</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45287.47916666666</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6126,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>1.909</v>
@@ -6194,16 +6191,16 @@
         <v>7184253</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45288.47916666666</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6212,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.5</v>
@@ -6280,16 +6277,16 @@
         <v>7184280</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45289.375</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6298,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J68">
         <v>1.75</v>
@@ -6366,16 +6363,16 @@
         <v>7184281</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45289.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6384,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -6452,16 +6449,16 @@
         <v>7751741</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45322.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6470,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6538,16 +6535,16 @@
         <v>7751742</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45323.45833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6556,7 +6553,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>5.25</v>
@@ -6624,16 +6621,16 @@
         <v>7749463</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45324.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6642,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>2.15</v>
@@ -6710,16 +6707,16 @@
         <v>7751743</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -6728,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J73">
         <v>2.5</v>
@@ -6796,16 +6793,16 @@
         <v>7749754</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6814,7 +6811,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <v>1.444</v>
@@ -6882,16 +6879,16 @@
         <v>7749867</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6900,7 +6897,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>1.571</v>
@@ -6968,16 +6965,16 @@
         <v>7749765</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45327.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6986,7 +6983,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <v>9</v>
@@ -7054,16 +7051,16 @@
         <v>7751744</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45329.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7072,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7140,16 +7137,16 @@
         <v>7749766</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45331.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7158,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>3.1</v>
@@ -7226,16 +7223,16 @@
         <v>7751745</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" t="s">
         <v>32</v>
-      </c>
-      <c r="F79" t="s">
-        <v>33</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7244,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J79">
         <v>2.6</v>
@@ -7312,16 +7309,16 @@
         <v>7749755</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7330,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>1.2</v>
@@ -7398,16 +7395,16 @@
         <v>7751746</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7416,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7484,16 +7481,16 @@
         <v>7749464</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45334.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7502,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J82">
         <v>1.615</v>
@@ -7570,16 +7567,16 @@
         <v>7749868</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45335.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7588,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>3.75</v>
@@ -7656,16 +7653,16 @@
         <v>7749756</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45336.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7674,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7742,16 +7739,16 @@
         <v>7751747</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45337.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7760,7 +7757,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>2.55</v>
@@ -7828,16 +7825,16 @@
         <v>7749465</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45338.45833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7846,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>2.625</v>
@@ -7914,16 +7911,16 @@
         <v>7749757</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
         <v>31</v>
-      </c>
-      <c r="F87" t="s">
-        <v>32</v>
       </c>
       <c r="G87">
         <v>4</v>
@@ -7932,7 +7929,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>1.666</v>
@@ -8000,16 +7997,16 @@
         <v>7751748</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8018,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>10</v>
@@ -8086,16 +8083,16 @@
         <v>7749869</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8104,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J89">
         <v>1.65</v>
@@ -8172,16 +8169,16 @@
         <v>7751749</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8190,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J90">
         <v>1.4</v>
@@ -8258,16 +8255,16 @@
         <v>7751750</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8276,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -8344,16 +8341,16 @@
         <v>7749870</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45345.45833333334</v>
       </c>
       <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
         <v>38</v>
-      </c>
-      <c r="F92" t="s">
-        <v>39</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8362,7 +8359,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8430,17 +8427,17 @@
         <v>7873049</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" t="s">
         <v>30</v>
       </c>
-      <c r="F93" t="s">
-        <v>31</v>
-      </c>
       <c r="G93">
         <v>0</v>
       </c>
@@ -8448,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>2.25</v>
@@ -8516,16 +8513,16 @@
         <v>7751751</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8534,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J94">
         <v>1.2</v>
@@ -8602,16 +8599,16 @@
         <v>7749466</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8620,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J95">
         <v>3.3</v>
@@ -8688,16 +8685,16 @@
         <v>7751752</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8706,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8774,16 +8771,16 @@
         <v>7751753</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45349.45833333334</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8792,7 +8789,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>4.333</v>
@@ -8860,16 +8857,16 @@
         <v>7749871</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45350.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8878,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8946,16 +8943,16 @@
         <v>7749767</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45351.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8964,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9032,16 +9029,16 @@
         <v>7749759</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45352.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9050,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J100">
         <v>1.615</v>
@@ -9118,16 +9115,16 @@
         <v>7749872</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9136,7 +9133,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J101">
         <v>4.5</v>
@@ -9204,16 +9201,16 @@
         <v>7749467</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9222,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9290,16 +9287,16 @@
         <v>7749768</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9308,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J103">
         <v>2.6</v>
@@ -9376,16 +9373,16 @@
         <v>7751754</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45355.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9394,7 +9391,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J104">
         <v>5.25</v>
@@ -9462,16 +9459,16 @@
         <v>7751755</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45357.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9480,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <v>1.6</v>
@@ -9548,16 +9545,16 @@
         <v>7751756</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45358.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9566,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9634,16 +9631,16 @@
         <v>7749873</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45359.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9652,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>3.75</v>
@@ -9720,16 +9717,16 @@
         <v>7751757</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9738,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J108">
         <v>1.333</v>
@@ -9806,16 +9803,16 @@
         <v>7749760</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45361.5</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9824,7 +9821,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J109">
         <v>3.8</v>
@@ -9892,16 +9889,16 @@
         <v>7751758</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45362.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110">
         <v>3</v>
@@ -9910,7 +9907,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -9978,16 +9975,16 @@
         <v>7749874</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45363.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -9996,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J111">
         <v>1.5</v>
@@ -10064,16 +10061,16 @@
         <v>7749468</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45364.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10082,7 +10079,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>2.9</v>
@@ -10150,16 +10147,16 @@
         <v>7751759</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45365.45833333334</v>
       </c>
       <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" t="s">
         <v>34</v>
-      </c>
-      <c r="F113" t="s">
-        <v>35</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10168,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>1.666</v>
@@ -10236,16 +10233,16 @@
         <v>7749770</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10254,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>2.55</v>
@@ -10322,16 +10319,16 @@
         <v>7749469</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10340,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>2.2</v>
@@ -10408,16 +10405,16 @@
         <v>7749761</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10426,7 +10423,7 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>1.533</v>
@@ -10494,16 +10491,16 @@
         <v>7749875</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45383.45833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10512,7 +10509,7 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J117">
         <v>9.5</v>
@@ -10580,16 +10577,16 @@
         <v>7749773</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45384.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10598,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J118">
         <v>1.65</v>
@@ -10666,16 +10663,16 @@
         <v>7749470</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45385.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10684,7 +10681,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>1.85</v>
@@ -10752,16 +10749,16 @@
         <v>7751760</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45386.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10770,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J120">
         <v>2.3</v>
@@ -10838,16 +10835,16 @@
         <v>7751761</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45387.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G121">
         <v>4</v>
@@ -10856,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J121">
         <v>1.142</v>
@@ -10924,16 +10921,16 @@
         <v>7749762</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10942,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J122">
         <v>4.333</v>
@@ -11010,16 +11007,16 @@
         <v>7749471</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11028,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J123">
         <v>2</v>
@@ -11096,16 +11093,16 @@
         <v>7751762</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45389.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11114,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11182,16 +11179,16 @@
         <v>7749774</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45390.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11200,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J125">
         <v>1.95</v>
@@ -11268,16 +11265,16 @@
         <v>7751763</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45391.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11286,7 +11283,7 @@
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -11354,16 +11351,16 @@
         <v>7751764</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45391.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11372,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J127">
         <v>2.2</v>
@@ -11440,16 +11437,16 @@
         <v>7751765</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45392.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11458,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11526,16 +11523,16 @@
         <v>7749763</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45393.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11544,7 +11541,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J129">
         <v>4.333</v>
@@ -11612,16 +11609,16 @@
         <v>7749472</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45394.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11630,7 +11627,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>5.25</v>
@@ -11698,16 +11695,16 @@
         <v>7749775</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11716,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>2.8</v>
@@ -11784,16 +11781,16 @@
         <v>7751766</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11802,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J132">
         <v>1.363</v>
@@ -11870,16 +11867,16 @@
         <v>7749764</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45397.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11888,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>2.5</v>
@@ -11956,16 +11953,16 @@
         <v>8103573</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11974,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J134">
         <v>1.65</v>
@@ -12042,16 +12039,16 @@
         <v>8103574</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12060,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J135">
         <v>1.4</v>
@@ -12124,65 +12121,172 @@
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
-        <v>27</v>
+      <c r="B136">
+        <v>8120939</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
-        <v>45406.45833333334</v>
+        <v>45405.45833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>40</v>
       </c>
       <c r="J136">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="K136">
         <v>3.5</v>
       </c>
       <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>3.1</v>
+      </c>
+      <c r="N136">
+        <v>3.4</v>
+      </c>
+      <c r="O136">
+        <v>2.15</v>
+      </c>
+      <c r="P136">
+        <v>0.25</v>
+      </c>
+      <c r="Q136">
+        <v>1.9</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>2.75</v>
+      </c>
+      <c r="T136">
+        <v>1.875</v>
+      </c>
+      <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
+        <v>2.1</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.4375</v>
+      </c>
+      <c r="AB136">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>8124823</v>
+      </c>
+      <c r="C137" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45406.45833333334</v>
+      </c>
+      <c r="E137" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" t="s">
+        <v>38</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137" t="s">
+        <v>41</v>
+      </c>
+      <c r="J137">
+        <v>2.05</v>
+      </c>
+      <c r="K137">
+        <v>3.5</v>
+      </c>
+      <c r="L137">
         <v>3.2</v>
       </c>
-      <c r="M136">
-        <v>1.95</v>
-      </c>
-      <c r="N136">
-        <v>3.6</v>
-      </c>
-      <c r="O136">
-        <v>3.4</v>
-      </c>
-      <c r="P136">
-        <v>-0.5</v>
-      </c>
-      <c r="Q136">
+      <c r="M137">
+        <v>2.3</v>
+      </c>
+      <c r="N137">
+        <v>3.1</v>
+      </c>
+      <c r="O137">
+        <v>3</v>
+      </c>
+      <c r="P137">
+        <v>-0.25</v>
+      </c>
+      <c r="Q137">
+        <v>2.025</v>
+      </c>
+      <c r="R137">
+        <v>1.825</v>
+      </c>
+      <c r="S137">
+        <v>2.5</v>
+      </c>
+      <c r="T137">
         <v>2</v>
       </c>
-      <c r="R136">
-        <v>1.8</v>
-      </c>
-      <c r="S136">
-        <v>3</v>
-      </c>
-      <c r="T136">
-        <v>1.95</v>
-      </c>
-      <c r="U136">
+      <c r="U137">
         <v>1.85</v>
       </c>
-      <c r="V136">
-        <v>0</v>
-      </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-      <c r="X136">
-        <v>0</v>
+      <c r="V137">
+        <v>-1</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>2</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>0.825</v>
+      </c>
+      <c r="AA137">
+        <v>1</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB137"/>
+  <dimension ref="A1:AB135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12117,178 +12117,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>8120939</v>
-      </c>
-      <c r="C136" t="s">
-        <v>27</v>
-      </c>
-      <c r="D136" s="2">
-        <v>45405.45833333334</v>
-      </c>
-      <c r="E136" t="s">
-        <v>29</v>
-      </c>
-      <c r="F136" t="s">
-        <v>30</v>
-      </c>
-      <c r="G136">
-        <v>2</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="I136" t="s">
-        <v>40</v>
-      </c>
-      <c r="J136">
-        <v>3.4</v>
-      </c>
-      <c r="K136">
-        <v>3.5</v>
-      </c>
-      <c r="L136">
-        <v>2</v>
-      </c>
-      <c r="M136">
-        <v>3.1</v>
-      </c>
-      <c r="N136">
-        <v>3.4</v>
-      </c>
-      <c r="O136">
-        <v>2.15</v>
-      </c>
-      <c r="P136">
-        <v>0.25</v>
-      </c>
-      <c r="Q136">
-        <v>1.9</v>
-      </c>
-      <c r="R136">
-        <v>1.95</v>
-      </c>
-      <c r="S136">
-        <v>2.75</v>
-      </c>
-      <c r="T136">
-        <v>1.875</v>
-      </c>
-      <c r="U136">
-        <v>1.975</v>
-      </c>
-      <c r="V136">
-        <v>2.1</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
-      <c r="AA136">
-        <v>0.4375</v>
-      </c>
-      <c r="AB136">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:28">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>8124823</v>
-      </c>
-      <c r="C137" t="s">
-        <v>27</v>
-      </c>
-      <c r="D137" s="2">
-        <v>45406.45833333334</v>
-      </c>
-      <c r="E137" t="s">
-        <v>33</v>
-      </c>
-      <c r="F137" t="s">
-        <v>38</v>
-      </c>
-      <c r="G137">
-        <v>2</v>
-      </c>
-      <c r="H137">
-        <v>3</v>
-      </c>
-      <c r="I137" t="s">
-        <v>41</v>
-      </c>
-      <c r="J137">
-        <v>2.05</v>
-      </c>
-      <c r="K137">
-        <v>3.5</v>
-      </c>
-      <c r="L137">
-        <v>3.2</v>
-      </c>
-      <c r="M137">
-        <v>2.3</v>
-      </c>
-      <c r="N137">
-        <v>3.1</v>
-      </c>
-      <c r="O137">
-        <v>3</v>
-      </c>
-      <c r="P137">
-        <v>-0.25</v>
-      </c>
-      <c r="Q137">
-        <v>2.025</v>
-      </c>
-      <c r="R137">
-        <v>1.825</v>
-      </c>
-      <c r="S137">
-        <v>2.5</v>
-      </c>
-      <c r="T137">
-        <v>2</v>
-      </c>
-      <c r="U137">
-        <v>1.85</v>
-      </c>
-      <c r="V137">
-        <v>-1</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>2</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>0.825</v>
-      </c>
-      <c r="AA137">
-        <v>1</v>
-      </c>
-      <c r="AB137">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB135"/>
+  <dimension ref="A1:AB137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12117,6 +12117,178 @@
         <v>0</v>
       </c>
     </row>
+    <row r="136" spans="1:28">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>8120939</v>
+      </c>
+      <c r="C136" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45405.45833333334</v>
+      </c>
+      <c r="E136" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>40</v>
+      </c>
+      <c r="J136">
+        <v>3.4</v>
+      </c>
+      <c r="K136">
+        <v>3.5</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>3.1</v>
+      </c>
+      <c r="N136">
+        <v>3.4</v>
+      </c>
+      <c r="O136">
+        <v>2.15</v>
+      </c>
+      <c r="P136">
+        <v>0.25</v>
+      </c>
+      <c r="Q136">
+        <v>1.9</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>2.75</v>
+      </c>
+      <c r="T136">
+        <v>1.875</v>
+      </c>
+      <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
+        <v>2.1</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.4375</v>
+      </c>
+      <c r="AB136">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>8124823</v>
+      </c>
+      <c r="C137" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45406.45833333334</v>
+      </c>
+      <c r="E137" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" t="s">
+        <v>38</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137" t="s">
+        <v>41</v>
+      </c>
+      <c r="J137">
+        <v>2.05</v>
+      </c>
+      <c r="K137">
+        <v>3.5</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>2.3</v>
+      </c>
+      <c r="N137">
+        <v>3.1</v>
+      </c>
+      <c r="O137">
+        <v>3</v>
+      </c>
+      <c r="P137">
+        <v>-0.25</v>
+      </c>
+      <c r="Q137">
+        <v>2.025</v>
+      </c>
+      <c r="R137">
+        <v>1.825</v>
+      </c>
+      <c r="S137">
+        <v>2.5</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
+        <v>1.85</v>
+      </c>
+      <c r="V137">
+        <v>-1</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>2</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>0.825</v>
+      </c>
+      <c r="AA137">
+        <v>1</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8120940</t>
   </si>
   <si>
     <t>India Super League</t>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB137"/>
+  <dimension ref="A1:AB138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +604,16 @@
         <v>7184224</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45190.47916666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -619,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -687,16 +690,16 @@
         <v>7184225</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45192.375</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>2.05</v>
@@ -773,16 +776,16 @@
         <v>7186566</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45192.5</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -791,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>1.571</v>
@@ -859,16 +862,16 @@
         <v>7184256</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45193.47916666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -877,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>7</v>
@@ -945,16 +948,16 @@
         <v>7184226</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45194.47916666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -963,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>2.6</v>
@@ -1031,16 +1034,16 @@
         <v>7263673</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45196.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1049,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1117,16 +1120,16 @@
         <v>7185195</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45197.47916666666</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1135,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1203,16 +1206,16 @@
         <v>7184227</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45198.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>4.2</v>
@@ -1289,16 +1292,16 @@
         <v>7184228</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45199.47916666666</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1307,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1375,16 +1378,16 @@
         <v>7184229</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>1.85</v>
@@ -1461,16 +1464,16 @@
         <v>7186565</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45201.47916666666</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1479,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>1.833</v>
@@ -1547,16 +1550,16 @@
         <v>7184230</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45203.47916666666</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1565,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1.5</v>
@@ -1633,16 +1636,16 @@
         <v>7184258</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45204.47916666666</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>3.1</v>
@@ -1719,16 +1722,16 @@
         <v>7186564</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45205.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1737,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1805,16 +1808,16 @@
         <v>7184259</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45206.375</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1823,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>1.909</v>
@@ -1891,16 +1894,16 @@
         <v>7184231</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45206.47916666666</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1909,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>3.4</v>
@@ -1977,16 +1980,16 @@
         <v>7184232</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1995,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2063,16 +2066,16 @@
         <v>7184233</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45220.375</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2081,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>3.5</v>
@@ -2149,16 +2152,16 @@
         <v>7184234</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45220.47916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2167,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>1.5</v>
@@ -2235,16 +2238,16 @@
         <v>7186563</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45221.47916666666</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2321,16 +2324,16 @@
         <v>7184235</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45222.47916666666</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2339,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2407,17 +2410,17 @@
         <v>7184260</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
         <v>34</v>
       </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>2.5</v>
@@ -2493,16 +2496,16 @@
         <v>7184261</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45225.47916666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2511,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>2.875</v>
@@ -2579,16 +2582,16 @@
         <v>7184236</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2597,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2665,16 +2668,16 @@
         <v>7184262</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45227.47916666666</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2683,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.615</v>
@@ -2751,16 +2754,16 @@
         <v>7186562</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
         <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2769,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2837,16 +2840,16 @@
         <v>7184263</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45230.47916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2855,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>2.05</v>
@@ -2923,16 +2926,16 @@
         <v>7184264</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45231.47916666666</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2941,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -3009,16 +3012,16 @@
         <v>7186561</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45232.47916666666</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3027,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>1.333</v>
@@ -3095,16 +3098,16 @@
         <v>7184265</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45233.47916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3113,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>1.533</v>
@@ -3181,16 +3184,16 @@
         <v>7184266</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45234.375</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3199,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>2.3</v>
@@ -3267,16 +3270,16 @@
         <v>7184238</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45234.47916666666</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3285,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2.5</v>
@@ -3353,16 +3356,16 @@
         <v>7184239</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3371,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>3.2</v>
@@ -3439,16 +3442,16 @@
         <v>7186560</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45237.47916666666</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3457,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>3.2</v>
@@ -3525,16 +3528,16 @@
         <v>7184240</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45255.375</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3543,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>2.3</v>
@@ -3611,16 +3614,16 @@
         <v>7184241</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45255.47916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3629,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -3697,16 +3700,16 @@
         <v>7184267</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45256.47916666666</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3715,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -3783,16 +3786,16 @@
         <v>7184268</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45257.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3801,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>1.615</v>
@@ -3869,16 +3872,16 @@
         <v>7184242</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45259.47916666666</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3887,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>1.75</v>
@@ -3955,16 +3958,16 @@
         <v>7186559</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45260.47916666666</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3973,7 +3976,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4041,16 +4044,16 @@
         <v>7184269</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45261.47916666666</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4059,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>2.5</v>
@@ -4127,16 +4130,16 @@
         <v>7184270</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4145,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>4.333</v>
@@ -4213,16 +4216,16 @@
         <v>7184243</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45263.47916666666</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4231,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4299,16 +4302,16 @@
         <v>7184244</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45264.47916666666</v>
       </c>
       <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
         <v>32</v>
-      </c>
-      <c r="F45" t="s">
-        <v>31</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -4317,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4385,16 +4388,16 @@
         <v>7185196</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45266.47916666666</v>
       </c>
       <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
         <v>30</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4403,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>1.727</v>
@@ -4471,16 +4474,16 @@
         <v>7184245</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45267.47916666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4489,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4557,16 +4560,16 @@
         <v>7184271</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45268.47916666666</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4575,7 +4578,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>4.333</v>
@@ -4643,16 +4646,16 @@
         <v>7186558</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45269.47916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4661,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4729,16 +4732,16 @@
         <v>7184272</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4747,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>2.75</v>
@@ -4815,16 +4818,16 @@
         <v>7184273</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45272.47916666666</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4833,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>2.375</v>
@@ -4901,16 +4904,16 @@
         <v>7184246</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45273.47916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4919,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>2.45</v>
@@ -4987,16 +4990,16 @@
         <v>7186557</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45274.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5005,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5073,16 +5076,16 @@
         <v>7184274</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45275.47916666666</v>
       </c>
       <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
         <v>31</v>
-      </c>
-      <c r="F54" t="s">
-        <v>30</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5091,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>3.75</v>
@@ -5159,16 +5162,16 @@
         <v>7184275</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45276.375</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5177,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>1.95</v>
@@ -5245,16 +5248,16 @@
         <v>7184247</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45276.47916666666</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5263,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>1.4</v>
@@ -5331,16 +5334,16 @@
         <v>7184276</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45277.47916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5349,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>1.75</v>
@@ -5417,16 +5420,16 @@
         <v>7186556</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45278.47916666666</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5435,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>2.6</v>
@@ -5503,16 +5506,16 @@
         <v>7185197</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45280.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5521,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>1.95</v>
@@ -5589,16 +5592,16 @@
         <v>7184277</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45281.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5607,7 +5610,7 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>2.6</v>
@@ -5675,16 +5678,16 @@
         <v>7184248</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45282.47916666666</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5693,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>2.7</v>
@@ -5761,16 +5764,16 @@
         <v>7184278</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5779,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>1.85</v>
@@ -5847,16 +5850,16 @@
         <v>7184279</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45284.375</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5865,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5933,16 +5936,16 @@
         <v>7184251</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5951,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -6019,16 +6022,16 @@
         <v>7186555</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45286.47916666666</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6037,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>2.6</v>
@@ -6105,16 +6108,16 @@
         <v>7184252</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45287.47916666666</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6123,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>1.909</v>
@@ -6191,16 +6194,16 @@
         <v>7184253</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45288.47916666666</v>
       </c>
       <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s">
         <v>38</v>
-      </c>
-      <c r="F67" t="s">
-        <v>37</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6209,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>1.5</v>
@@ -6277,16 +6280,16 @@
         <v>7184280</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45289.375</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6295,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>1.75</v>
@@ -6363,16 +6366,16 @@
         <v>7184281</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45289.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6381,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -6449,16 +6452,16 @@
         <v>7751741</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45322.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6467,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6535,16 +6538,16 @@
         <v>7751742</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45323.45833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6553,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>5.25</v>
@@ -6621,16 +6624,16 @@
         <v>7749463</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45324.45833333334</v>
       </c>
       <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
         <v>29</v>
-      </c>
-      <c r="F72" t="s">
-        <v>28</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6639,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>2.15</v>
@@ -6707,16 +6710,16 @@
         <v>7751743</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -6725,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <v>2.5</v>
@@ -6793,16 +6796,16 @@
         <v>7749754</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6811,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>1.444</v>
@@ -6879,16 +6882,16 @@
         <v>7749867</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6897,7 +6900,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>1.571</v>
@@ -6965,16 +6968,16 @@
         <v>7749765</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45327.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6983,7 +6986,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <v>9</v>
@@ -7051,16 +7054,16 @@
         <v>7751744</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45329.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7069,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7137,16 +7140,16 @@
         <v>7749766</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45331.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7155,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>3.1</v>
@@ -7223,16 +7226,16 @@
         <v>7751745</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7241,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>2.6</v>
@@ -7309,16 +7312,16 @@
         <v>7749755</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7327,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>1.2</v>
@@ -7395,16 +7398,16 @@
         <v>7751746</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" t="s">
         <v>35</v>
-      </c>
-      <c r="F81" t="s">
-        <v>34</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7413,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7481,16 +7484,16 @@
         <v>7749464</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45334.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7499,7 +7502,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>1.615</v>
@@ -7567,16 +7570,16 @@
         <v>7749868</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45335.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7585,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>3.75</v>
@@ -7653,16 +7656,16 @@
         <v>7749756</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45336.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7671,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7739,16 +7742,16 @@
         <v>7751747</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45337.45833333334</v>
       </c>
       <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
         <v>36</v>
-      </c>
-      <c r="F85" t="s">
-        <v>35</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7757,7 +7760,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>2.55</v>
@@ -7825,16 +7828,16 @@
         <v>7749465</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45338.45833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7843,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <v>2.625</v>
@@ -7911,16 +7914,16 @@
         <v>7749757</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>4</v>
@@ -7929,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>1.666</v>
@@ -7997,16 +8000,16 @@
         <v>7751748</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8015,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>10</v>
@@ -8083,16 +8086,16 @@
         <v>7749869</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8101,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J89">
         <v>1.65</v>
@@ -8169,16 +8172,16 @@
         <v>7751749</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8187,7 +8190,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>1.4</v>
@@ -8255,16 +8258,16 @@
         <v>7751750</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8273,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -8341,16 +8344,16 @@
         <v>7749870</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45345.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8359,7 +8362,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8427,16 +8430,16 @@
         <v>7873049</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8445,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J93">
         <v>2.25</v>
@@ -8513,16 +8516,16 @@
         <v>7751751</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8531,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J94">
         <v>1.2</v>
@@ -8599,16 +8602,16 @@
         <v>7749466</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8617,7 +8620,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>3.3</v>
@@ -8685,16 +8688,16 @@
         <v>7751752</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8703,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8771,16 +8774,16 @@
         <v>7751753</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45349.45833333334</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8789,7 +8792,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>4.333</v>
@@ -8857,16 +8860,16 @@
         <v>7749871</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45350.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8875,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8943,16 +8946,16 @@
         <v>7749767</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45351.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8961,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9029,16 +9032,16 @@
         <v>7749759</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45352.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9047,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J100">
         <v>1.615</v>
@@ -9115,16 +9118,16 @@
         <v>7749872</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9133,7 +9136,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>4.5</v>
@@ -9201,16 +9204,16 @@
         <v>7749467</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9219,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9287,16 +9290,16 @@
         <v>7749768</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9305,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>2.6</v>
@@ -9373,16 +9376,16 @@
         <v>7751754</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45355.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9391,7 +9394,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>5.25</v>
@@ -9459,16 +9462,16 @@
         <v>7751755</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45357.45833333334</v>
       </c>
       <c r="E105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" t="s">
         <v>33</v>
-      </c>
-      <c r="F105" t="s">
-        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9477,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J105">
         <v>1.6</v>
@@ -9545,16 +9548,16 @@
         <v>7751756</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45358.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9563,7 +9566,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9631,16 +9634,16 @@
         <v>7749873</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45359.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9649,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>3.75</v>
@@ -9717,16 +9720,16 @@
         <v>7751757</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9735,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>1.333</v>
@@ -9803,16 +9806,16 @@
         <v>7749760</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45361.5</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9821,7 +9824,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>3.8</v>
@@ -9889,16 +9892,16 @@
         <v>7751758</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45362.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>3</v>
@@ -9907,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -9975,16 +9978,16 @@
         <v>7749874</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45363.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -9993,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J111">
         <v>1.5</v>
@@ -10061,16 +10064,16 @@
         <v>7749468</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45364.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10079,7 +10082,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>2.9</v>
@@ -10147,16 +10150,16 @@
         <v>7751759</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45365.45833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10165,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>1.666</v>
@@ -10233,16 +10236,16 @@
         <v>7749770</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10251,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>2.55</v>
@@ -10319,16 +10322,16 @@
         <v>7749469</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10337,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>2.2</v>
@@ -10405,16 +10408,16 @@
         <v>7749761</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10423,7 +10426,7 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>1.533</v>
@@ -10491,16 +10494,16 @@
         <v>7749875</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45383.45833333334</v>
       </c>
       <c r="E117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" t="s">
         <v>39</v>
-      </c>
-      <c r="F117" t="s">
-        <v>38</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10509,7 +10512,7 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>9.5</v>
@@ -10577,16 +10580,16 @@
         <v>7749773</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45384.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10595,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J118">
         <v>1.65</v>
@@ -10663,16 +10666,16 @@
         <v>7749470</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45385.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10681,7 +10684,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>1.85</v>
@@ -10749,16 +10752,16 @@
         <v>7751760</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45386.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10767,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>2.3</v>
@@ -10835,16 +10838,16 @@
         <v>7751761</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45387.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>4</v>
@@ -10853,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J121">
         <v>1.142</v>
@@ -10921,16 +10924,16 @@
         <v>7749762</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10939,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>4.333</v>
@@ -11007,16 +11010,16 @@
         <v>7749471</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11025,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J123">
         <v>2</v>
@@ -11093,16 +11096,16 @@
         <v>7751762</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45389.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11111,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11179,16 +11182,16 @@
         <v>7749774</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45390.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11197,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J125">
         <v>1.95</v>
@@ -11265,16 +11268,16 @@
         <v>7751763</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45391.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11283,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -11351,16 +11354,16 @@
         <v>7751764</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45391.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11369,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J127">
         <v>2.2</v>
@@ -11437,16 +11440,16 @@
         <v>7751765</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45392.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11455,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11523,16 +11526,16 @@
         <v>7749763</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45393.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11541,7 +11544,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>4.333</v>
@@ -11609,16 +11612,16 @@
         <v>7749472</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45394.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11627,7 +11630,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J130">
         <v>5.25</v>
@@ -11695,16 +11698,16 @@
         <v>7749775</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11713,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>2.8</v>
@@ -11781,16 +11784,16 @@
         <v>7751766</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11799,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J132">
         <v>1.363</v>
@@ -11867,16 +11870,16 @@
         <v>7749764</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45397.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11885,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>2.5</v>
@@ -11953,16 +11956,16 @@
         <v>8103573</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E134" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" t="s">
         <v>29</v>
-      </c>
-      <c r="F134" t="s">
-        <v>28</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11971,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>1.65</v>
@@ -12039,16 +12042,16 @@
         <v>8103574</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12057,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>1.4</v>
@@ -12125,16 +12128,16 @@
         <v>8120939</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12143,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>3.4</v>
@@ -12211,16 +12214,16 @@
         <v>8124823</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45406.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12229,7 +12232,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J137">
         <v>2.05</v>
@@ -12287,6 +12290,71 @@
       </c>
       <c r="AB137">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45410.45833333334</v>
+      </c>
+      <c r="E138" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" t="s">
+        <v>30</v>
+      </c>
+      <c r="J138">
+        <v>1.75</v>
+      </c>
+      <c r="K138">
+        <v>3.6</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>1.7</v>
+      </c>
+      <c r="N138">
+        <v>3.75</v>
+      </c>
+      <c r="O138">
+        <v>4.2</v>
+      </c>
+      <c r="P138">
+        <v>-0.75</v>
+      </c>
+      <c r="Q138">
+        <v>1.95</v>
+      </c>
+      <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
+        <v>3</v>
+      </c>
+      <c r="T138">
+        <v>1.975</v>
+      </c>
+      <c r="U138">
+        <v>1.825</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -97,7 +97,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8120940</t>
+    <t>8124824</t>
   </si>
   <si>
     <t>India Super League</t>
@@ -2063,85 +2063,85 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7184233</v>
+        <v>7184234</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="2">
-        <v>45220.375</v>
+        <v>45220.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J19">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K19">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="L19">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="M19">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="P19">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S19">
+        <v>2.75</v>
+      </c>
+      <c r="T19">
+        <v>1.825</v>
+      </c>
+      <c r="U19">
+        <v>2.025</v>
+      </c>
+      <c r="V19">
+        <v>-1</v>
+      </c>
+      <c r="W19">
         <v>3</v>
       </c>
-      <c r="T19">
-        <v>1.875</v>
-      </c>
-      <c r="U19">
-        <v>1.975</v>
-      </c>
-      <c r="V19">
-        <v>-1</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
       <c r="X19">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2149,85 +2149,85 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7184234</v>
+        <v>7184233</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="2">
-        <v>45220.47916666666</v>
+        <v>45220.375</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="K20">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="L20">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="M20">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="P20">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R20">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
         <v>-1</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -5159,85 +5159,85 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7184275</v>
+        <v>7184247</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="2">
-        <v>45276.375</v>
+        <v>45276.47916666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J55">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="K55">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="L55">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="M55">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="N55">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P55">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V55">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5245,85 +5245,85 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7184247</v>
+        <v>7184275</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="2">
-        <v>45276.47916666666</v>
+        <v>45276.375</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J56">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="K56">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="L56">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="M56">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="N56">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O56">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q56">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W56">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5847,85 +5847,85 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7184279</v>
+        <v>7184251</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="2">
-        <v>45284.375</v>
+        <v>45284.47916666666</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J63">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="K63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L63">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="M63">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="N63">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="P63">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T63">
         <v>1.9</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5933,85 +5933,85 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7184251</v>
+        <v>7184279</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="2">
-        <v>45284.47916666666</v>
+        <v>45284.375</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J64">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="K64">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L64">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="M64">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="N64">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O64">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q64">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T64">
         <v>1.9</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6277,58 +6277,58 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7184280</v>
+        <v>7184281</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="2">
-        <v>45289.375</v>
+        <v>45289.47916666666</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J68">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="K68">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="M68">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="N68">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O68">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="P68">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q68">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T68">
         <v>2</v>
@@ -6337,25 +6337,25 @@
         <v>1.85</v>
       </c>
       <c r="V68">
+        <v>-1</v>
+      </c>
+      <c r="W68">
+        <v>2.6</v>
+      </c>
+      <c r="X68">
+        <v>-1</v>
+      </c>
+      <c r="Y68">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
+        <v>-1</v>
+      </c>
+      <c r="AB68">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
-      <c r="Y68">
-        <v>0.925</v>
-      </c>
-      <c r="Z68">
-        <v>-1</v>
-      </c>
-      <c r="AA68">
-        <v>1</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6363,58 +6363,58 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7184281</v>
+        <v>7184280</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="2">
-        <v>45289.47916666666</v>
+        <v>45289.375</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="K69">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L69">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="N69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O69">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="P69">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q69">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T69">
         <v>2</v>
@@ -6423,25 +6423,25 @@
         <v>1.85</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W69">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6707,55 +6707,55 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7751743</v>
+        <v>7749754</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="2">
-        <v>45325.35416666666</v>
+        <v>45325.45833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J73">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="K73">
+        <v>4.2</v>
+      </c>
+      <c r="L73">
+        <v>5.5</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
         <v>3.4</v>
       </c>
-      <c r="L73">
-        <v>2.4</v>
-      </c>
-      <c r="M73">
-        <v>2.7</v>
-      </c>
-      <c r="N73">
+      <c r="O73">
         <v>3.3</v>
       </c>
-      <c r="O73">
-        <v>2.3</v>
-      </c>
       <c r="P73">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q73">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
         <v>2.5</v>
@@ -6767,19 +6767,19 @@
         <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
         <v>0.9750000000000001</v>
@@ -6793,55 +6793,55 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7749754</v>
+        <v>7751743</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="2">
-        <v>45325.45833333334</v>
+        <v>45325.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J74">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="K74">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L74">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N74">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="P74">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S74">
         <v>2.5</v>
@@ -6853,19 +6853,19 @@
         <v>1.875</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W74">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>0.9750000000000001</v>
@@ -7223,67 +7223,67 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7751745</v>
+        <v>7749755</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="2">
-        <v>45332.35416666666</v>
+        <v>45332.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
         <v>41</v>
       </c>
       <c r="J79">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="K79">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L79">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="M79">
-        <v>2.45</v>
+        <v>1.181</v>
       </c>
       <c r="N79">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="O79">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T79">
+        <v>1.875</v>
+      </c>
+      <c r="U79">
         <v>1.975</v>
       </c>
-      <c r="U79">
-        <v>1.825</v>
-      </c>
       <c r="V79">
-        <v>1.45</v>
+        <v>0.181</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7292,16 +7292,16 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA79">
+        <v>-1</v>
+      </c>
+      <c r="AB79">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB79">
-        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7309,67 +7309,67 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7749755</v>
+        <v>7751745</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="2">
-        <v>45332.45833333334</v>
+        <v>45332.35416666666</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
         <v>2</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
       </c>
       <c r="I80" t="s">
         <v>41</v>
       </c>
       <c r="J80">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="K80">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L80">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="M80">
-        <v>1.181</v>
+        <v>2.45</v>
       </c>
       <c r="N80">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="O80">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="P80">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T80">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>0.181</v>
+        <v>1.45</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7378,16 +7378,16 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -8427,85 +8427,85 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7873049</v>
+        <v>7751751</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="2">
-        <v>45346.35416666666</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J93">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="K93">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L93">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="M93">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O93">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q93">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R93">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T93">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W93">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8513,85 +8513,85 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7751751</v>
+        <v>7873049</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="2">
-        <v>45346.45833333334</v>
+        <v>45346.35416666666</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J94">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="K94">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L94">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="M94">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="N94">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O94">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="P94">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S94">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T94">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -10921,85 +10921,85 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7749762</v>
+        <v>7749471</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="2">
-        <v>45388.35416666666</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J122">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="K122">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L122">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="M122">
-        <v>4.333</v>
+        <v>1.45</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O122">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="P122">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q122">
+        <v>1.8</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
+        <v>3</v>
+      </c>
+      <c r="T122">
+        <v>1.925</v>
+      </c>
+      <c r="U122">
         <v>1.875</v>
       </c>
-      <c r="R122">
-        <v>1.975</v>
-      </c>
-      <c r="S122">
-        <v>2.75</v>
-      </c>
-      <c r="T122">
-        <v>1.825</v>
-      </c>
-      <c r="U122">
-        <v>2.025</v>
-      </c>
       <c r="V122">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z122">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11007,85 +11007,85 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7749471</v>
+        <v>7749762</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
       </c>
       <c r="D123" s="2">
-        <v>45388.45833333334</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="K123">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="M123">
-        <v>1.45</v>
+        <v>4.333</v>
       </c>
       <c r="N123">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O123">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="P123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q123">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y123">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -12303,49 +12303,49 @@
         <v>28</v>
       </c>
       <c r="D138" s="2">
-        <v>45410.45833333334</v>
+        <v>45411.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J138">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="K138">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M138">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="N138">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O138">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P138">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V138">
         <v>0</v>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8124824</t>
   </si>
   <si>
     <t>India Super League</t>
@@ -507,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB138"/>
+  <dimension ref="A1:AB139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,16 +601,16 @@
         <v>7184224</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45190.47916666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -622,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -690,16 +687,16 @@
         <v>7184225</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45192.375</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -708,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>2.05</v>
@@ -776,16 +773,16 @@
         <v>7186566</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45192.5</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -794,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>1.571</v>
@@ -862,16 +859,16 @@
         <v>7184256</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45193.47916666666</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -880,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>7</v>
@@ -948,16 +945,16 @@
         <v>7184226</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45194.47916666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -966,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>2.6</v>
@@ -1034,16 +1031,16 @@
         <v>7263673</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45196.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1052,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1120,16 +1117,16 @@
         <v>7185195</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45197.47916666666</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1138,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1206,16 +1203,16 @@
         <v>7184227</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45198.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1224,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>4.2</v>
@@ -1292,16 +1289,16 @@
         <v>7184228</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45199.47916666666</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1310,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1378,16 +1375,16 @@
         <v>7184229</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>1.85</v>
@@ -1464,16 +1461,16 @@
         <v>7186565</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45201.47916666666</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1482,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>1.833</v>
@@ -1550,16 +1547,16 @@
         <v>7184230</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45203.47916666666</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1568,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>1.5</v>
@@ -1636,16 +1633,16 @@
         <v>7184258</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45204.47916666666</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1654,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>3.1</v>
@@ -1722,16 +1719,16 @@
         <v>7186564</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45205.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1740,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1808,16 +1805,16 @@
         <v>7184259</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45206.375</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1826,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>1.909</v>
@@ -1894,16 +1891,16 @@
         <v>7184231</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45206.47916666666</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1912,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>3.4</v>
@@ -1980,16 +1977,16 @@
         <v>7184232</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1998,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2066,16 +2063,16 @@
         <v>7184234</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45220.47916666666</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2084,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1.5</v>
@@ -2152,16 +2149,16 @@
         <v>7184233</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45220.375</v>
       </c>
       <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
         <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2170,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>3.5</v>
@@ -2238,17 +2235,17 @@
         <v>7186563</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45221.47916666666</v>
       </c>
       <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -2256,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2324,16 +2321,16 @@
         <v>7184235</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45222.47916666666</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2342,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2410,16 +2407,16 @@
         <v>7184260</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2428,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>2.5</v>
@@ -2496,16 +2493,16 @@
         <v>7184261</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45225.47916666666</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2514,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>2.875</v>
@@ -2582,16 +2579,16 @@
         <v>7184236</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
         <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2600,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2668,16 +2665,16 @@
         <v>7184262</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45227.47916666666</v>
       </c>
       <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
         <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2686,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1.615</v>
@@ -2754,16 +2751,16 @@
         <v>7186562</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2772,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2840,16 +2837,16 @@
         <v>7184263</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45230.47916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2858,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>2.05</v>
@@ -2926,16 +2923,16 @@
         <v>7184264</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45231.47916666666</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2944,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -3012,16 +3009,16 @@
         <v>7186561</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45232.47916666666</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3030,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J30">
         <v>1.333</v>
@@ -3098,16 +3095,16 @@
         <v>7184265</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45233.47916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3116,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>1.533</v>
@@ -3184,16 +3181,16 @@
         <v>7184266</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45234.375</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3202,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2.3</v>
@@ -3270,16 +3267,16 @@
         <v>7184238</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45234.47916666666</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3288,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>2.5</v>
@@ -3356,16 +3353,16 @@
         <v>7184239</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3374,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>3.2</v>
@@ -3442,16 +3439,16 @@
         <v>7186560</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45237.47916666666</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3460,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>3.2</v>
@@ -3525,49 +3522,49 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7184240</v>
+        <v>7184241</v>
       </c>
       <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45255.47916666666</v>
+      </c>
+      <c r="E36" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="2">
-        <v>45255.375</v>
-      </c>
-      <c r="E36" t="s">
-        <v>38</v>
-      </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J36">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="K36">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L36">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O36">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q36">
         <v>1.925</v>
@@ -3579,31 +3576,31 @@
         <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W36">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3611,49 +3608,49 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7184241</v>
+        <v>7184240</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>45255.47916666666</v>
+        <v>45255.375</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J37">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="K37">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="M37">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N37">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="P37">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q37">
         <v>1.925</v>
@@ -3665,31 +3662,31 @@
         <v>2.5</v>
       </c>
       <c r="T37">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3700,16 +3697,16 @@
         <v>7184267</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45256.47916666666</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3718,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -3786,16 +3783,16 @@
         <v>7184268</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45257.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3804,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>1.615</v>
@@ -3872,16 +3869,16 @@
         <v>7184242</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45259.47916666666</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3890,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>1.75</v>
@@ -3958,16 +3955,16 @@
         <v>7186559</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45260.47916666666</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3976,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4044,16 +4041,16 @@
         <v>7184269</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45261.47916666666</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4062,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>2.5</v>
@@ -4130,16 +4127,16 @@
         <v>7184270</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4148,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>4.333</v>
@@ -4216,16 +4213,16 @@
         <v>7184243</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45263.47916666666</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4234,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4302,16 +4299,16 @@
         <v>7184244</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45264.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -4320,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4388,16 +4385,16 @@
         <v>7185196</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45266.47916666666</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4406,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>1.727</v>
@@ -4474,16 +4471,16 @@
         <v>7184245</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45267.47916666666</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4492,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4560,16 +4557,16 @@
         <v>7184271</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45268.47916666666</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4578,7 +4575,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>4.333</v>
@@ -4646,16 +4643,16 @@
         <v>7186558</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45269.47916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4664,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4732,16 +4729,16 @@
         <v>7184272</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4750,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <v>2.75</v>
@@ -4818,16 +4815,16 @@
         <v>7184273</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45272.47916666666</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4836,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>2.375</v>
@@ -4904,16 +4901,16 @@
         <v>7184246</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45273.47916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4922,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>2.45</v>
@@ -4990,16 +4987,16 @@
         <v>7186557</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45274.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5008,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5076,16 +5073,16 @@
         <v>7184274</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45275.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5094,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>3.75</v>
@@ -5162,16 +5159,16 @@
         <v>7184247</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45276.47916666666</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5180,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>1.4</v>
@@ -5248,16 +5245,16 @@
         <v>7184275</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45276.375</v>
       </c>
       <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" t="s">
         <v>35</v>
-      </c>
-      <c r="F56" t="s">
-        <v>36</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5266,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J56">
         <v>1.95</v>
@@ -5334,16 +5331,16 @@
         <v>7184276</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45277.47916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5352,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>1.75</v>
@@ -5420,16 +5417,16 @@
         <v>7186556</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45278.47916666666</v>
       </c>
       <c r="E58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" t="s">
         <v>37</v>
-      </c>
-      <c r="F58" t="s">
-        <v>38</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5438,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J58">
         <v>2.6</v>
@@ -5506,16 +5503,16 @@
         <v>7185197</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45280.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5524,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J59">
         <v>1.95</v>
@@ -5592,16 +5589,16 @@
         <v>7184277</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45281.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5610,7 +5607,7 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <v>2.6</v>
@@ -5678,16 +5675,16 @@
         <v>7184248</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45282.47916666666</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5696,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>2.7</v>
@@ -5764,16 +5761,16 @@
         <v>7184278</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5782,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>1.85</v>
@@ -5847,85 +5844,85 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7184251</v>
+        <v>7184279</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
-        <v>45284.47916666666</v>
+        <v>45284.375</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J63">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="K63">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L63">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="M63">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="N63">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O63">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q63">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R63">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T63">
         <v>1.9</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5933,85 +5930,85 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7184279</v>
+        <v>7184251</v>
       </c>
       <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45284.47916666666</v>
+      </c>
+      <c r="E64" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="2">
-        <v>45284.375</v>
-      </c>
-      <c r="E64" t="s">
-        <v>35</v>
-      </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J64">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="K64">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L64">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="M64">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="N64">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="P64">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T64">
         <v>1.9</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6022,16 +6019,16 @@
         <v>7186555</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45286.47916666666</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6040,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <v>2.6</v>
@@ -6108,16 +6105,16 @@
         <v>7184252</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45287.47916666666</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6126,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>1.909</v>
@@ -6194,16 +6191,16 @@
         <v>7184253</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45288.47916666666</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6212,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.5</v>
@@ -6280,16 +6277,16 @@
         <v>7184281</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45289.47916666666</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6298,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>5</v>
@@ -6366,16 +6363,16 @@
         <v>7184280</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45289.375</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>4</v>
@@ -6384,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J69">
         <v>1.75</v>
@@ -6452,16 +6449,16 @@
         <v>7751741</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45322.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6470,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6538,16 +6535,16 @@
         <v>7751742</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45323.45833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6556,7 +6553,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>5.25</v>
@@ -6624,16 +6621,16 @@
         <v>7749463</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45324.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6642,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>2.15</v>
@@ -6710,16 +6707,16 @@
         <v>7749754</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6728,7 +6725,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J73">
         <v>1.444</v>
@@ -6796,16 +6793,16 @@
         <v>7751743</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6814,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J74">
         <v>2.5</v>
@@ -6882,16 +6879,16 @@
         <v>7749867</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6900,7 +6897,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>1.571</v>
@@ -6968,16 +6965,16 @@
         <v>7749765</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45327.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6986,7 +6983,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <v>9</v>
@@ -7054,16 +7051,16 @@
         <v>7751744</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45329.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7072,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7140,16 +7137,16 @@
         <v>7749766</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45331.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7158,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>3.1</v>
@@ -7223,67 +7220,67 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7749755</v>
+        <v>7751745</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>45332.45833333334</v>
+        <v>45332.35416666666</v>
       </c>
       <c r="E79" t="s">
         <v>31</v>
       </c>
       <c r="F79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79" t="s">
         <v>40</v>
       </c>
-      <c r="G79">
-        <v>2</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79" t="s">
-        <v>41</v>
-      </c>
       <c r="J79">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="K79">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L79">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="M79">
-        <v>1.181</v>
+        <v>2.45</v>
       </c>
       <c r="N79">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="O79">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="P79">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T79">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>0.181</v>
+        <v>1.45</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7292,16 +7289,16 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7309,67 +7306,67 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7751745</v>
+        <v>7749755</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
-        <v>45332.35416666666</v>
+        <v>45332.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J80">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="K80">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L80">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="M80">
-        <v>2.45</v>
+        <v>1.181</v>
       </c>
       <c r="N80">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="O80">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q80">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T80">
+        <v>1.875</v>
+      </c>
+      <c r="U80">
         <v>1.975</v>
       </c>
-      <c r="U80">
-        <v>1.825</v>
-      </c>
       <c r="V80">
-        <v>1.45</v>
+        <v>0.181</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7378,16 +7375,16 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7398,16 +7395,16 @@
         <v>7751746</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7416,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7484,16 +7481,16 @@
         <v>7749464</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45334.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7502,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J82">
         <v>1.615</v>
@@ -7570,16 +7567,16 @@
         <v>7749868</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45335.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7588,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>3.75</v>
@@ -7656,16 +7653,16 @@
         <v>7749756</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45336.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7674,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7742,16 +7739,16 @@
         <v>7751747</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45337.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7760,7 +7757,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>2.55</v>
@@ -7828,16 +7825,16 @@
         <v>7749465</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45338.45833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7846,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>2.625</v>
@@ -7911,85 +7908,85 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7749757</v>
+        <v>7751748</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>45339.35416666666</v>
+        <v>45339.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
         <v>32</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="s">
         <v>41</v>
       </c>
       <c r="J87">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="K87">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L87">
-        <v>4.333</v>
+        <v>1.285</v>
       </c>
       <c r="M87">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="N87">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O87">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="P87">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R87">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y87">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -7997,85 +7994,85 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7751748</v>
+        <v>7749757</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
-        <v>45339.45833333334</v>
+        <v>45339.35416666666</v>
       </c>
       <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
         <v>40</v>
       </c>
-      <c r="F88" t="s">
-        <v>33</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88" t="s">
-        <v>42</v>
-      </c>
       <c r="J88">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="K88">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L88">
-        <v>1.285</v>
+        <v>4.333</v>
       </c>
       <c r="M88">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O88">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8086,16 +8083,16 @@
         <v>7749869</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8104,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J89">
         <v>1.65</v>
@@ -8172,16 +8169,16 @@
         <v>7751749</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8190,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J90">
         <v>1.4</v>
@@ -8258,16 +8255,16 @@
         <v>7751750</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8276,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -8344,16 +8341,16 @@
         <v>7749870</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45345.45833333334</v>
       </c>
       <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
         <v>38</v>
-      </c>
-      <c r="F92" t="s">
-        <v>39</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8362,7 +8359,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8427,85 +8424,85 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7751751</v>
+        <v>7873049</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
-        <v>45346.45833333334</v>
+        <v>45346.35416666666</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J93">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="K93">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L93">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="M93">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="N93">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O93">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="P93">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S93">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T93">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8513,85 +8510,85 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7873049</v>
+        <v>7751751</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
-        <v>45346.35416666666</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J94">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="K94">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L94">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="M94">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="N94">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O94">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q94">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R94">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T94">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W94">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB94">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8602,16 +8599,16 @@
         <v>7749466</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8620,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J95">
         <v>3.3</v>
@@ -8688,16 +8685,16 @@
         <v>7751752</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8706,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8774,16 +8771,16 @@
         <v>7751753</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45349.45833333334</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8792,7 +8789,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>4.333</v>
@@ -8860,16 +8857,16 @@
         <v>7749871</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45350.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8878,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8946,16 +8943,16 @@
         <v>7749767</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45351.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8964,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9032,16 +9029,16 @@
         <v>7749759</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45352.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9050,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J100">
         <v>1.615</v>
@@ -9115,85 +9112,85 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7749872</v>
+        <v>7749467</v>
       </c>
       <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="E101" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="2">
-        <v>45353.35416666666</v>
-      </c>
-      <c r="E101" t="s">
-        <v>37</v>
-      </c>
-      <c r="F101" t="s">
-        <v>39</v>
-      </c>
       <c r="G101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J101">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="K101">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L101">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N101">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O101">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="P101">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q101">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R101">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z101">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9201,85 +9198,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7749467</v>
+        <v>7749872</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
-        <v>45353.45833333334</v>
+        <v>45353.35416666666</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102" t="s">
         <v>41</v>
       </c>
       <c r="J102">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="K102">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L102">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="M102">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N102">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="P102">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q102">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9290,16 +9287,16 @@
         <v>7749768</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9308,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J103">
         <v>2.6</v>
@@ -9376,16 +9373,16 @@
         <v>7751754</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45355.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9394,7 +9391,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J104">
         <v>5.25</v>
@@ -9462,16 +9459,16 @@
         <v>7751755</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45357.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9480,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <v>1.6</v>
@@ -9548,16 +9545,16 @@
         <v>7751756</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45358.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9566,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9634,16 +9631,16 @@
         <v>7749873</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45359.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9652,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>3.75</v>
@@ -9720,16 +9717,16 @@
         <v>7751757</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9738,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J108">
         <v>1.333</v>
@@ -9806,16 +9803,16 @@
         <v>7749760</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45361.5</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9824,7 +9821,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J109">
         <v>3.8</v>
@@ -9892,16 +9889,16 @@
         <v>7751758</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45362.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110">
         <v>3</v>
@@ -9910,7 +9907,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -9978,16 +9975,16 @@
         <v>7749874</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45363.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -9996,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J111">
         <v>1.5</v>
@@ -10064,16 +10061,16 @@
         <v>7749468</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45364.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10082,7 +10079,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>2.9</v>
@@ -10150,16 +10147,16 @@
         <v>7751759</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45365.45833333334</v>
       </c>
       <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" t="s">
         <v>34</v>
-      </c>
-      <c r="F113" t="s">
-        <v>35</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10168,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>1.666</v>
@@ -10236,16 +10233,16 @@
         <v>7749770</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10254,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>2.55</v>
@@ -10322,16 +10319,16 @@
         <v>7749469</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10340,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>2.2</v>
@@ -10408,16 +10405,16 @@
         <v>7749761</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10426,7 +10423,7 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>1.533</v>
@@ -10494,16 +10491,16 @@
         <v>7749875</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45383.45833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10512,7 +10509,7 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J117">
         <v>9.5</v>
@@ -10580,16 +10577,16 @@
         <v>7749773</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45384.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10598,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J118">
         <v>1.65</v>
@@ -10666,16 +10663,16 @@
         <v>7749470</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45385.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10684,7 +10681,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>1.85</v>
@@ -10752,16 +10749,16 @@
         <v>7751760</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45386.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10770,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J120">
         <v>2.3</v>
@@ -10838,16 +10835,16 @@
         <v>7751761</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45387.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G121">
         <v>4</v>
@@ -10856,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J121">
         <v>1.142</v>
@@ -10924,16 +10921,16 @@
         <v>7749471</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10942,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J122">
         <v>2</v>
@@ -11010,16 +11007,16 @@
         <v>7749762</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11028,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J123">
         <v>4.333</v>
@@ -11096,16 +11093,16 @@
         <v>7751762</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45389.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11114,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11182,16 +11179,16 @@
         <v>7749774</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45390.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11200,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J125">
         <v>1.95</v>
@@ -11265,85 +11262,85 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7751763</v>
+        <v>7751764</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
-        <v>45391.35416666666</v>
+        <v>45391.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G126">
         <v>2</v>
       </c>
       <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126" t="s">
+        <v>40</v>
+      </c>
+      <c r="J126">
+        <v>2.2</v>
+      </c>
+      <c r="K126">
+        <v>3.4</v>
+      </c>
+      <c r="L126">
         <v>3</v>
       </c>
-      <c r="I126" t="s">
-        <v>42</v>
-      </c>
-      <c r="J126">
-        <v>4</v>
-      </c>
-      <c r="K126">
-        <v>3.6</v>
-      </c>
-      <c r="L126">
-        <v>1.727</v>
-      </c>
       <c r="M126">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N126">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O126">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q126">
         <v>2.025</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T126">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11351,85 +11348,85 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7751764</v>
+        <v>7751763</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
-        <v>45391.45833333334</v>
+        <v>45391.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G127">
         <v>2</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127" t="s">
         <v>41</v>
       </c>
       <c r="J127">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="K127">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="M127">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N127">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="P127">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q127">
         <v>2.025</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T127">
+        <v>1.95</v>
+      </c>
+      <c r="U127">
         <v>1.85</v>
       </c>
-      <c r="U127">
-        <v>2</v>
-      </c>
       <c r="V127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y127">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11440,16 +11437,16 @@
         <v>7751765</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45392.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11458,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11526,16 +11523,16 @@
         <v>7749763</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45393.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11544,7 +11541,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J129">
         <v>4.333</v>
@@ -11612,16 +11609,16 @@
         <v>7749472</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45394.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11630,7 +11627,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>5.25</v>
@@ -11698,16 +11695,16 @@
         <v>7749775</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11716,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>2.8</v>
@@ -11784,16 +11781,16 @@
         <v>7751766</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11802,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J132">
         <v>1.363</v>
@@ -11870,16 +11867,16 @@
         <v>7749764</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45397.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11888,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>2.5</v>
@@ -11956,16 +11953,16 @@
         <v>8103573</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11974,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J134">
         <v>1.65</v>
@@ -12042,16 +12039,16 @@
         <v>8103574</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12060,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J135">
         <v>1.4</v>
@@ -12128,16 +12125,16 @@
         <v>8120939</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E136" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" t="s">
         <v>30</v>
-      </c>
-      <c r="F136" t="s">
-        <v>31</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12146,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J136">
         <v>3.4</v>
@@ -12214,16 +12211,16 @@
         <v>8124823</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45406.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12232,7 +12229,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>2.05</v>
@@ -12296,41 +12293,50 @@
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
-        <v>27</v>
+      <c r="B138">
+        <v>8120940</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
-        <v>45411.45833333334</v>
+        <v>45410.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>40</v>
       </c>
       <c r="J138">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="K138">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L138">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N138">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O138">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="P138">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q138">
         <v>1.775</v>
@@ -12339,22 +12345,120 @@
         <v>2.025</v>
       </c>
       <c r="S138">
+        <v>3</v>
+      </c>
+      <c r="T138">
+        <v>1.9</v>
+      </c>
+      <c r="U138">
+        <v>1.9</v>
+      </c>
+      <c r="V138">
+        <v>0.615</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>8124824</v>
+      </c>
+      <c r="C139" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45411.45833333334</v>
+      </c>
+      <c r="E139" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" t="s">
+        <v>33</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>40</v>
+      </c>
+      <c r="J139">
+        <v>2.375</v>
+      </c>
+      <c r="K139">
+        <v>3.4</v>
+      </c>
+      <c r="L139">
+        <v>2.7</v>
+      </c>
+      <c r="M139">
+        <v>2.3</v>
+      </c>
+      <c r="N139">
+        <v>3.3</v>
+      </c>
+      <c r="O139">
         <v>2.75</v>
       </c>
-      <c r="T138">
-        <v>1.8</v>
-      </c>
-      <c r="U138">
-        <v>2</v>
-      </c>
-      <c r="V138">
-        <v>0</v>
-      </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-      <c r="X138">
-        <v>0</v>
+      <c r="P139">
+        <v>-0.25</v>
+      </c>
+      <c r="Q139">
+        <v>2.025</v>
+      </c>
+      <c r="R139">
+        <v>1.775</v>
+      </c>
+      <c r="S139">
+        <v>2.75</v>
+      </c>
+      <c r="T139">
+        <v>1.825</v>
+      </c>
+      <c r="U139">
+        <v>1.975</v>
+      </c>
+      <c r="V139">
+        <v>1.3</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>1.025</v>
+      </c>
+      <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -103,10 +103,10 @@
     <t>Kerala Blasters</t>
   </si>
   <si>
-    <t>Odisha FC</t>
+    <t>Mohun Bagan SG</t>
   </si>
   <si>
-    <t>Mohun Bagan SG</t>
+    <t>Odisha FC</t>
   </si>
   <si>
     <t>Northeast United</t>
@@ -684,67 +684,67 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7184225</v>
+        <v>7186566</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>45192.375</v>
+        <v>45192.5</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>40</v>
       </c>
       <c r="J3">
+        <v>1.571</v>
+      </c>
+      <c r="K3">
+        <v>3.75</v>
+      </c>
+      <c r="L3">
+        <v>4.8</v>
+      </c>
+      <c r="M3">
+        <v>1.4</v>
+      </c>
+      <c r="N3">
+        <v>4.2</v>
+      </c>
+      <c r="O3">
+        <v>6.5</v>
+      </c>
+      <c r="P3">
+        <v>-1.25</v>
+      </c>
+      <c r="Q3">
         <v>2.05</v>
       </c>
-      <c r="K3">
-        <v>3.4</v>
-      </c>
-      <c r="L3">
-        <v>3.2</v>
-      </c>
-      <c r="M3">
-        <v>2.2</v>
-      </c>
-      <c r="N3">
-        <v>3.25</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>-0.25</v>
-      </c>
-      <c r="Q3">
-        <v>1.95</v>
-      </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T3">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -753,16 +753,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -770,67 +770,67 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7186566</v>
+        <v>7184225</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>45192.5</v>
+        <v>45192.375</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>40</v>
       </c>
       <c r="J4">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="K4">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="N4">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O4">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q4">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -839,16 +839,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1037,7 +1037,7 @@
         <v>45196.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -1123,7 +1123,7 @@
         <v>45197.47916666666</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
@@ -1802,82 +1802,82 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7184259</v>
+        <v>7184231</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>45206.375</v>
+        <v>45206.47916666666</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16">
+        <v>3.4</v>
+      </c>
+      <c r="K16">
+        <v>3.4</v>
+      </c>
+      <c r="L16">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16">
+      <c r="M16">
+        <v>3.6</v>
+      </c>
+      <c r="N16">
+        <v>3.5</v>
+      </c>
+      <c r="O16">
         <v>1.909</v>
       </c>
-      <c r="K16">
-        <v>3.6</v>
-      </c>
-      <c r="L16">
-        <v>3.4</v>
-      </c>
-      <c r="M16">
-        <v>1.909</v>
-      </c>
-      <c r="N16">
-        <v>3.6</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
       <c r="P16">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q16">
+        <v>1.9</v>
+      </c>
+      <c r="R16">
         <v>1.95</v>
-      </c>
-      <c r="R16">
-        <v>1.85</v>
       </c>
       <c r="S16">
         <v>2.75</v>
       </c>
       <c r="T16">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
+        <v>-1</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>0.909</v>
       </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
         <v>0.95</v>
       </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
       <c r="AA16">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1888,82 +1888,82 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7184231</v>
+        <v>7184259</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>45206.47916666666</v>
+        <v>45206.375</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17">
+        <v>1.909</v>
+      </c>
+      <c r="K17">
+        <v>3.6</v>
+      </c>
+      <c r="L17">
         <v>3.4</v>
       </c>
-      <c r="K17">
-        <v>3.4</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
       <c r="M17">
+        <v>1.909</v>
+      </c>
+      <c r="N17">
         <v>3.6</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>3.5</v>
       </c>
-      <c r="O17">
-        <v>1.909</v>
-      </c>
       <c r="P17">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
         <v>2.75</v>
       </c>
       <c r="T17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2588,7 +2588,7 @@
         <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2843,7 +2843,7 @@
         <v>45230.47916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -2932,7 +2932,7 @@
         <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3101,7 +3101,7 @@
         <v>45233.47916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -4050,7 +4050,7 @@
         <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4391,10 +4391,10 @@
         <v>45266.47916666666</v>
       </c>
       <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
         <v>30</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -5082,7 +5082,7 @@
         <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>45277.47916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
@@ -5512,7 +5512,7 @@
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5684,7 +5684,7 @@
         <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5767,7 +5767,7 @@
         <v>45283.47916666666</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
         <v>33</v>
@@ -6028,7 +6028,7 @@
         <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>45287.47916666666</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
         <v>28</v>
@@ -6369,7 +6369,7 @@
         <v>45289.375</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
         <v>35</v>
@@ -6627,7 +6627,7 @@
         <v>45324.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
         <v>28</v>
@@ -6704,55 +6704,55 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7749754</v>
+        <v>7751743</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>45325.45833333334</v>
+        <v>45325.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J73">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="K73">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N73">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="P73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
         <v>2.5</v>
@@ -6764,19 +6764,19 @@
         <v>1.875</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W73">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
         <v>0.9750000000000001</v>
@@ -6790,55 +6790,55 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7751743</v>
+        <v>7749754</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45325.35416666666</v>
+        <v>45325.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J74">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="K74">
+        <v>4.2</v>
+      </c>
+      <c r="L74">
+        <v>5.5</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
         <v>3.4</v>
       </c>
-      <c r="L74">
-        <v>2.4</v>
-      </c>
-      <c r="M74">
-        <v>2.7</v>
-      </c>
-      <c r="N74">
+      <c r="O74">
         <v>3.3</v>
       </c>
-      <c r="O74">
-        <v>2.3</v>
-      </c>
       <c r="P74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q74">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
         <v>2.5</v>
@@ -6850,19 +6850,19 @@
         <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
         <v>0.9750000000000001</v>
@@ -6974,7 +6974,7 @@
         <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>45331.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
         <v>33</v>
@@ -7315,7 +7315,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
         <v>39</v>
@@ -7662,7 +7662,7 @@
         <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7908,85 +7908,85 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7751748</v>
+        <v>7749757</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>45339.45833333334</v>
+        <v>45339.35416666666</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J87">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="K87">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L87">
-        <v>1.285</v>
+        <v>4.333</v>
       </c>
       <c r="M87">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="N87">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -7994,85 +7994,85 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7749757</v>
+        <v>7751748</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2">
-        <v>45339.35416666666</v>
+        <v>45339.45833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>41</v>
+      </c>
+      <c r="J88">
+        <v>10</v>
+      </c>
+      <c r="K88">
+        <v>5.25</v>
+      </c>
+      <c r="L88">
+        <v>1.285</v>
+      </c>
+      <c r="M88">
+        <v>6.5</v>
+      </c>
+      <c r="N88">
         <v>4</v>
       </c>
-      <c r="H88">
-        <v>2</v>
-      </c>
-      <c r="I88" t="s">
-        <v>40</v>
-      </c>
-      <c r="J88">
-        <v>1.666</v>
-      </c>
-      <c r="K88">
-        <v>3.6</v>
-      </c>
-      <c r="L88">
-        <v>4.333</v>
-      </c>
-      <c r="M88">
-        <v>1.615</v>
-      </c>
-      <c r="N88">
-        <v>4.2</v>
-      </c>
       <c r="O88">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="P88">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R88">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y88">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8433,10 +8433,10 @@
         <v>45346.35416666666</v>
       </c>
       <c r="E93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" t="s">
         <v>29</v>
-      </c>
-      <c r="F93" t="s">
-        <v>30</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8949,7 +8949,7 @@
         <v>45351.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
         <v>32</v>
@@ -9035,7 +9035,7 @@
         <v>45352.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F100" t="s">
         <v>35</v>
@@ -9112,85 +9112,85 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7749467</v>
+        <v>7749872</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2">
-        <v>45353.45833333334</v>
+        <v>45353.35416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101" t="s">
+        <v>41</v>
+      </c>
+      <c r="J101">
+        <v>4.5</v>
+      </c>
+      <c r="K101">
+        <v>3.75</v>
+      </c>
+      <c r="L101">
+        <v>1.666</v>
+      </c>
+      <c r="M101">
+        <v>3.4</v>
+      </c>
+      <c r="N101">
+        <v>3.4</v>
+      </c>
+      <c r="O101">
+        <v>2</v>
+      </c>
+      <c r="P101">
+        <v>0.5</v>
+      </c>
+      <c r="Q101">
+        <v>1.8</v>
+      </c>
+      <c r="R101">
+        <v>2.05</v>
+      </c>
+      <c r="S101">
+        <v>2.5</v>
+      </c>
+      <c r="T101">
+        <v>1.825</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
+        <v>-1</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>1</v>
       </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
-        <v>40</v>
-      </c>
-      <c r="J101">
-        <v>2.2</v>
-      </c>
-      <c r="K101">
-        <v>3.2</v>
-      </c>
-      <c r="L101">
-        <v>3.25</v>
-      </c>
-      <c r="M101">
-        <v>2.25</v>
-      </c>
-      <c r="N101">
-        <v>3.1</v>
-      </c>
-      <c r="O101">
-        <v>3.1</v>
-      </c>
-      <c r="P101">
-        <v>-0.25</v>
-      </c>
-      <c r="Q101">
-        <v>1.975</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>2.25</v>
-      </c>
-      <c r="T101">
-        <v>1.925</v>
-      </c>
-      <c r="U101">
-        <v>1.925</v>
-      </c>
-      <c r="V101">
-        <v>1.25</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
       <c r="Y101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9198,85 +9198,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7749872</v>
+        <v>7749467</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2">
-        <v>45353.35416666666</v>
+        <v>45353.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J102">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="K102">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L102">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="M102">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N102">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O102">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q102">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z102">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9296,7 +9296,7 @@
         <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9812,7 +9812,7 @@
         <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10070,7 +10070,7 @@
         <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10230,85 +10230,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7749770</v>
+        <v>7749469</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2">
-        <v>45381.35416666666</v>
+        <v>45381.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
         <v>42</v>
       </c>
       <c r="J114">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="K114">
+        <v>3.25</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>2.15</v>
+      </c>
+      <c r="N114">
         <v>3.3</v>
       </c>
-      <c r="L114">
-        <v>2.55</v>
-      </c>
-      <c r="M114">
-        <v>2.625</v>
-      </c>
-      <c r="N114">
-        <v>3.25</v>
-      </c>
       <c r="O114">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q114">
+        <v>1.8</v>
+      </c>
+      <c r="R114">
         <v>2</v>
-      </c>
-      <c r="R114">
-        <v>1.85</v>
       </c>
       <c r="S114">
         <v>2.5</v>
       </c>
       <c r="T114">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
         <v>-1</v>
       </c>
       <c r="W114">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10316,85 +10316,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7749469</v>
+        <v>7749770</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2">
-        <v>45381.45833333334</v>
+        <v>45381.35416666666</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
         <v>42</v>
       </c>
       <c r="J115">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="K115">
+        <v>3.3</v>
+      </c>
+      <c r="L115">
+        <v>2.55</v>
+      </c>
+      <c r="M115">
+        <v>2.625</v>
+      </c>
+      <c r="N115">
         <v>3.25</v>
       </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
-        <v>2.15</v>
-      </c>
-      <c r="N115">
-        <v>3.3</v>
-      </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P115">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
         <v>2.5</v>
       </c>
       <c r="T115">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
         <v>-1</v>
       </c>
       <c r="W115">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z115">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10411,7 +10411,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
         <v>37</v>
@@ -10583,7 +10583,7 @@
         <v>45384.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
         <v>36</v>
@@ -10918,85 +10918,85 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7749471</v>
+        <v>7749762</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2">
-        <v>45388.45833333334</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J122">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="K122">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="M122">
-        <v>1.45</v>
+        <v>4.333</v>
       </c>
       <c r="N122">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O122">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="P122">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T122">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y122">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11004,85 +11004,85 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7749762</v>
+        <v>7749471</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2">
-        <v>45388.35416666666</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J123">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="K123">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L123">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>1.45</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O123">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="P123">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q123">
+        <v>1.8</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>3</v>
+      </c>
+      <c r="T123">
+        <v>1.925</v>
+      </c>
+      <c r="U123">
         <v>1.875</v>
       </c>
-      <c r="R123">
-        <v>1.975</v>
-      </c>
-      <c r="S123">
-        <v>2.75</v>
-      </c>
-      <c r="T123">
-        <v>1.825</v>
-      </c>
-      <c r="U123">
-        <v>2.025</v>
-      </c>
       <c r="V123">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z123">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11188,7 +11188,7 @@
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11262,85 +11262,85 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7751764</v>
+        <v>7751763</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2">
-        <v>45391.45833333334</v>
+        <v>45391.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>2</v>
       </c>
       <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126" t="s">
+        <v>41</v>
+      </c>
+      <c r="J126">
+        <v>4</v>
+      </c>
+      <c r="K126">
+        <v>3.6</v>
+      </c>
+      <c r="L126">
+        <v>1.727</v>
+      </c>
+      <c r="M126">
+        <v>5.5</v>
+      </c>
+      <c r="N126">
+        <v>4.5</v>
+      </c>
+      <c r="O126">
+        <v>1.5</v>
+      </c>
+      <c r="P126">
         <v>1</v>
-      </c>
-      <c r="I126" t="s">
-        <v>40</v>
-      </c>
-      <c r="J126">
-        <v>2.2</v>
-      </c>
-      <c r="K126">
-        <v>3.4</v>
-      </c>
-      <c r="L126">
-        <v>3</v>
-      </c>
-      <c r="M126">
-        <v>2</v>
-      </c>
-      <c r="N126">
-        <v>3.75</v>
-      </c>
-      <c r="O126">
-        <v>3.4</v>
-      </c>
-      <c r="P126">
-        <v>-0.5</v>
       </c>
       <c r="Q126">
         <v>2.025</v>
       </c>
       <c r="R126">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T126">
+        <v>1.95</v>
+      </c>
+      <c r="U126">
         <v>1.85</v>
       </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
       <c r="V126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y126">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11348,85 +11348,85 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7751763</v>
+        <v>7751764</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2">
-        <v>45391.35416666666</v>
+        <v>45391.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G127">
         <v>2</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127">
+        <v>2.2</v>
+      </c>
+      <c r="K127">
+        <v>3.4</v>
+      </c>
+      <c r="L127">
         <v>3</v>
       </c>
-      <c r="I127" t="s">
-        <v>41</v>
-      </c>
-      <c r="J127">
-        <v>4</v>
-      </c>
-      <c r="K127">
-        <v>3.6</v>
-      </c>
-      <c r="L127">
-        <v>1.727</v>
-      </c>
       <c r="M127">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N127">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O127">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q127">
         <v>2.025</v>
       </c>
       <c r="R127">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T127">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11532,7 +11532,7 @@
         <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11704,7 +11704,7 @@
         <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11873,7 +11873,7 @@
         <v>45397.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
         <v>38</v>
@@ -11959,7 +11959,7 @@
         <v>45401.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F134" t="s">
         <v>28</v>
@@ -12131,10 +12131,10 @@
         <v>45405.45833333334</v>
       </c>
       <c r="E136" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136" t="s">
         <v>29</v>
-      </c>
-      <c r="F136" t="s">
-        <v>30</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12303,10 +12303,10 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E138" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" t="s">
         <v>30</v>
-      </c>
-      <c r="F138" t="s">
-        <v>29</v>
       </c>
       <c r="G138">
         <v>2</v>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -103,10 +103,10 @@
     <t>Kerala Blasters</t>
   </si>
   <si>
-    <t>Mohun Bagan SG</t>
+    <t>Odisha FC</t>
   </si>
   <si>
-    <t>Odisha FC</t>
+    <t>Mohun Bagan SG</t>
   </si>
   <si>
     <t>Northeast United</t>
@@ -684,67 +684,67 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7186566</v>
+        <v>7184225</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>45192.5</v>
+        <v>45192.375</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>40</v>
       </c>
       <c r="J3">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="K3">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="N3">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O3">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q3">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T3">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -753,16 +753,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -770,67 +770,67 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7184225</v>
+        <v>7186566</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>45192.375</v>
+        <v>45192.5</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>40</v>
       </c>
       <c r="J4">
+        <v>1.571</v>
+      </c>
+      <c r="K4">
+        <v>3.75</v>
+      </c>
+      <c r="L4">
+        <v>4.8</v>
+      </c>
+      <c r="M4">
+        <v>1.4</v>
+      </c>
+      <c r="N4">
+        <v>4.2</v>
+      </c>
+      <c r="O4">
+        <v>6.5</v>
+      </c>
+      <c r="P4">
+        <v>-1.25</v>
+      </c>
+      <c r="Q4">
         <v>2.05</v>
       </c>
-      <c r="K4">
-        <v>3.4</v>
-      </c>
-      <c r="L4">
-        <v>3.2</v>
-      </c>
-      <c r="M4">
-        <v>2.2</v>
-      </c>
-      <c r="N4">
-        <v>3.25</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>-0.25</v>
-      </c>
-      <c r="Q4">
-        <v>1.95</v>
-      </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -839,16 +839,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1037,7 +1037,7 @@
         <v>45196.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -1123,7 +1123,7 @@
         <v>45197.47916666666</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
@@ -1802,82 +1802,82 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7184231</v>
+        <v>7184259</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>45206.47916666666</v>
+        <v>45206.375</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16">
+        <v>1.909</v>
+      </c>
+      <c r="K16">
+        <v>3.6</v>
+      </c>
+      <c r="L16">
         <v>3.4</v>
       </c>
-      <c r="K16">
-        <v>3.4</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
       <c r="M16">
+        <v>1.909</v>
+      </c>
+      <c r="N16">
         <v>3.6</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>3.5</v>
       </c>
-      <c r="O16">
-        <v>1.909</v>
-      </c>
       <c r="P16">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q16">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
         <v>2.75</v>
       </c>
       <c r="T16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1888,82 +1888,82 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7184259</v>
+        <v>7184231</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>45206.375</v>
+        <v>45206.47916666666</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="H17">
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17">
+        <v>3.4</v>
+      </c>
+      <c r="K17">
+        <v>3.4</v>
+      </c>
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17">
+      <c r="M17">
+        <v>3.6</v>
+      </c>
+      <c r="N17">
+        <v>3.5</v>
+      </c>
+      <c r="O17">
         <v>1.909</v>
       </c>
-      <c r="K17">
-        <v>3.6</v>
-      </c>
-      <c r="L17">
-        <v>3.4</v>
-      </c>
-      <c r="M17">
-        <v>1.909</v>
-      </c>
-      <c r="N17">
-        <v>3.6</v>
-      </c>
-      <c r="O17">
-        <v>3.5</v>
-      </c>
       <c r="P17">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q17">
+        <v>1.9</v>
+      </c>
+      <c r="R17">
         <v>1.95</v>
-      </c>
-      <c r="R17">
-        <v>1.85</v>
       </c>
       <c r="S17">
         <v>2.75</v>
       </c>
       <c r="T17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
+        <v>-1</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
         <v>0.909</v>
       </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
       <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
         <v>0.95</v>
       </c>
-      <c r="Z17">
-        <v>-1</v>
-      </c>
       <c r="AA17">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2060,85 +2060,85 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7184234</v>
+        <v>7184233</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="2">
-        <v>45220.47916666666</v>
+        <v>45220.375</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="K19">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="L19">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="M19">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="P19">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
         <v>-1</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2146,85 +2146,85 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7184233</v>
+        <v>7184234</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>45220.375</v>
+        <v>45220.47916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J20">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="L20">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="M20">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="P20">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S20">
+        <v>2.75</v>
+      </c>
+      <c r="T20">
+        <v>1.825</v>
+      </c>
+      <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
+        <v>-1</v>
+      </c>
+      <c r="W20">
         <v>3</v>
       </c>
-      <c r="T20">
-        <v>1.875</v>
-      </c>
-      <c r="U20">
-        <v>1.975</v>
-      </c>
-      <c r="V20">
-        <v>-1</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
       <c r="X20">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2588,7 +2588,7 @@
         <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2843,7 +2843,7 @@
         <v>45230.47916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -2932,7 +2932,7 @@
         <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3101,7 +3101,7 @@
         <v>45233.47916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -3522,49 +3522,49 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7184241</v>
+        <v>7184240</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2">
-        <v>45255.47916666666</v>
+        <v>45255.375</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J36">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="K36">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="M36">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="P36">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>1.925</v>
@@ -3576,31 +3576,31 @@
         <v>2.5</v>
       </c>
       <c r="T36">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3608,49 +3608,49 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7184240</v>
+        <v>7184241</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>45255.375</v>
+        <v>45255.47916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J37">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="K37">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L37">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N37">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O37">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q37">
         <v>1.925</v>
@@ -3662,31 +3662,31 @@
         <v>2.5</v>
       </c>
       <c r="T37">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -4050,7 +4050,7 @@
         <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4391,10 +4391,10 @@
         <v>45266.47916666666</v>
       </c>
       <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
         <v>29</v>
-      </c>
-      <c r="F46" t="s">
-        <v>30</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -5082,7 +5082,7 @@
         <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5156,85 +5156,85 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7184247</v>
+        <v>7184275</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2">
-        <v>45276.47916666666</v>
+        <v>45276.375</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J55">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="K55">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="L55">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="M55">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="N55">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O55">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q55">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U55">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W55">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5242,85 +5242,85 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7184275</v>
+        <v>7184247</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2">
-        <v>45276.375</v>
+        <v>45276.47916666666</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J56">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="K56">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="M56">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="N56">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P56">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5337,7 +5337,7 @@
         <v>45277.47916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
@@ -5512,7 +5512,7 @@
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5684,7 +5684,7 @@
         <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5767,7 +5767,7 @@
         <v>45283.47916666666</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
         <v>33</v>
@@ -6028,7 +6028,7 @@
         <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>45287.47916666666</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
         <v>28</v>
@@ -6274,58 +6274,58 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7184281</v>
+        <v>7184280</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45289.47916666666</v>
+        <v>45289.375</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="K68">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L68">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="N68">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O68">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q68">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T68">
         <v>2</v>
@@ -6334,25 +6334,25 @@
         <v>1.85</v>
       </c>
       <c r="V68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W68">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6360,58 +6360,58 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7184280</v>
+        <v>7184281</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>45289.375</v>
+        <v>45289.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J69">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="K69">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="M69">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="P69">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q69">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T69">
         <v>2</v>
@@ -6420,25 +6420,25 @@
         <v>1.85</v>
       </c>
       <c r="V69">
+        <v>-1</v>
+      </c>
+      <c r="W69">
+        <v>2.6</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>0.925</v>
-      </c>
-      <c r="Z69">
-        <v>-1</v>
-      </c>
-      <c r="AA69">
-        <v>1</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6627,7 +6627,7 @@
         <v>45324.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
         <v>28</v>
@@ -6799,7 +6799,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
         <v>32</v>
@@ -6974,7 +6974,7 @@
         <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>45331.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
         <v>33</v>
@@ -7315,7 +7315,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
         <v>39</v>
@@ -7662,7 +7662,7 @@
         <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>45339.35416666666</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
         <v>31</v>
@@ -8433,10 +8433,10 @@
         <v>45346.35416666666</v>
       </c>
       <c r="E93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" t="s">
         <v>30</v>
-      </c>
-      <c r="F93" t="s">
-        <v>29</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8949,7 +8949,7 @@
         <v>45351.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
         <v>32</v>
@@ -9035,7 +9035,7 @@
         <v>45352.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
         <v>35</v>
@@ -9296,7 +9296,7 @@
         <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9812,7 +9812,7 @@
         <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10070,7 +10070,7 @@
         <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10230,85 +10230,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7749469</v>
+        <v>7749770</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2">
-        <v>45381.45833333334</v>
+        <v>45381.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
         <v>42</v>
       </c>
       <c r="J114">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="K114">
+        <v>3.3</v>
+      </c>
+      <c r="L114">
+        <v>2.55</v>
+      </c>
+      <c r="M114">
+        <v>2.625</v>
+      </c>
+      <c r="N114">
         <v>3.25</v>
       </c>
-      <c r="L114">
-        <v>3</v>
-      </c>
-      <c r="M114">
-        <v>2.15</v>
-      </c>
-      <c r="N114">
-        <v>3.3</v>
-      </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P114">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
         <v>2.5</v>
       </c>
       <c r="T114">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
         <v>-1</v>
       </c>
       <c r="W114">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z114">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10316,85 +10316,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7749770</v>
+        <v>7749469</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2">
-        <v>45381.35416666666</v>
+        <v>45381.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="s">
         <v>42</v>
       </c>
       <c r="J115">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="K115">
+        <v>3.25</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>2.15</v>
+      </c>
+      <c r="N115">
         <v>3.3</v>
       </c>
-      <c r="L115">
-        <v>2.55</v>
-      </c>
-      <c r="M115">
-        <v>2.625</v>
-      </c>
-      <c r="N115">
-        <v>3.25</v>
-      </c>
       <c r="O115">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q115">
+        <v>1.8</v>
+      </c>
+      <c r="R115">
         <v>2</v>
-      </c>
-      <c r="R115">
-        <v>1.85</v>
       </c>
       <c r="S115">
         <v>2.5</v>
       </c>
       <c r="T115">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
         <v>-1</v>
       </c>
       <c r="W115">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10411,7 +10411,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
         <v>37</v>
@@ -10583,7 +10583,7 @@
         <v>45384.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
         <v>36</v>
@@ -10930,7 +10930,7 @@
         <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11532,7 +11532,7 @@
         <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11704,7 +11704,7 @@
         <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11873,7 +11873,7 @@
         <v>45397.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
         <v>38</v>
@@ -11959,7 +11959,7 @@
         <v>45401.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
         <v>28</v>
@@ -12131,10 +12131,10 @@
         <v>45405.45833333334</v>
       </c>
       <c r="E136" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" t="s">
         <v>30</v>
-      </c>
-      <c r="F136" t="s">
-        <v>29</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12303,10 +12303,10 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E138" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" t="s">
         <v>29</v>
-      </c>
-      <c r="F138" t="s">
-        <v>30</v>
       </c>
       <c r="G138">
         <v>2</v>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8161825</t>
   </si>
   <si>
     <t>India Super League</t>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB139"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +604,16 @@
         <v>7184224</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45190.47916666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -619,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -687,16 +690,16 @@
         <v>7184225</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45192.375</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>2.05</v>
@@ -773,16 +776,16 @@
         <v>7186566</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45192.5</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -791,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>1.571</v>
@@ -859,16 +862,16 @@
         <v>7184256</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45193.47916666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -877,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>7</v>
@@ -945,16 +948,16 @@
         <v>7184226</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45194.47916666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -963,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>2.6</v>
@@ -1031,16 +1034,16 @@
         <v>7263673</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45196.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1049,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1117,16 +1120,16 @@
         <v>7185195</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45197.47916666666</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1135,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1203,16 +1206,16 @@
         <v>7184227</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45198.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>4.2</v>
@@ -1289,16 +1292,16 @@
         <v>7184228</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45199.47916666666</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1307,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1375,16 +1378,16 @@
         <v>7184229</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>1.85</v>
@@ -1461,16 +1464,16 @@
         <v>7186565</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45201.47916666666</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1479,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>1.833</v>
@@ -1547,16 +1550,16 @@
         <v>7184230</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45203.47916666666</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1565,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1.5</v>
@@ -1633,16 +1636,16 @@
         <v>7184258</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45204.47916666666</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>3.1</v>
@@ -1719,16 +1722,16 @@
         <v>7186564</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45205.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1737,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1805,16 +1808,16 @@
         <v>7184259</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45206.375</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1823,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>1.909</v>
@@ -1891,16 +1894,16 @@
         <v>7184231</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45206.47916666666</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1909,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>3.4</v>
@@ -1977,16 +1980,16 @@
         <v>7184232</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1995,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2063,16 +2066,16 @@
         <v>7184233</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45220.375</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2081,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>3.5</v>
@@ -2149,16 +2152,16 @@
         <v>7184234</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45220.47916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2167,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>1.5</v>
@@ -2235,16 +2238,16 @@
         <v>7186563</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45221.47916666666</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2321,16 +2324,16 @@
         <v>7184235</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45222.47916666666</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2339,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2407,17 +2410,17 @@
         <v>7184260</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
         <v>34</v>
       </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>2.5</v>
@@ -2493,16 +2496,16 @@
         <v>7184261</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45225.47916666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2511,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>2.875</v>
@@ -2579,16 +2582,16 @@
         <v>7184236</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2597,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2665,16 +2668,16 @@
         <v>7184262</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45227.47916666666</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2683,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.615</v>
@@ -2751,16 +2754,16 @@
         <v>7186562</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
         <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2769,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2837,16 +2840,16 @@
         <v>7184263</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45230.47916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2855,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>2.05</v>
@@ -2923,16 +2926,16 @@
         <v>7184264</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45231.47916666666</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2941,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -3009,16 +3012,16 @@
         <v>7186561</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45232.47916666666</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3027,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>1.333</v>
@@ -3095,16 +3098,16 @@
         <v>7184265</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45233.47916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3113,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>1.533</v>
@@ -3181,16 +3184,16 @@
         <v>7184266</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45234.375</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3199,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>2.3</v>
@@ -3267,16 +3270,16 @@
         <v>7184238</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45234.47916666666</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3285,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2.5</v>
@@ -3353,16 +3356,16 @@
         <v>7184239</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3371,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>3.2</v>
@@ -3439,16 +3442,16 @@
         <v>7186560</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45237.47916666666</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3457,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>3.2</v>
@@ -3525,16 +3528,16 @@
         <v>7184240</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45255.375</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3543,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>2.3</v>
@@ -3611,16 +3614,16 @@
         <v>7184241</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45255.47916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3629,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -3697,16 +3700,16 @@
         <v>7184267</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45256.47916666666</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3715,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -3783,16 +3786,16 @@
         <v>7184268</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45257.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3801,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>1.615</v>
@@ -3869,16 +3872,16 @@
         <v>7184242</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45259.47916666666</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3887,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>1.75</v>
@@ -3955,16 +3958,16 @@
         <v>7186559</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45260.47916666666</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3973,7 +3976,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4041,16 +4044,16 @@
         <v>7184269</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45261.47916666666</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4059,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>2.5</v>
@@ -4127,16 +4130,16 @@
         <v>7184270</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4145,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>4.333</v>
@@ -4213,16 +4216,16 @@
         <v>7184243</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45263.47916666666</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4231,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4299,16 +4302,16 @@
         <v>7184244</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45264.47916666666</v>
       </c>
       <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
         <v>32</v>
-      </c>
-      <c r="F45" t="s">
-        <v>31</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -4317,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4385,16 +4388,16 @@
         <v>7185196</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45266.47916666666</v>
       </c>
       <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
         <v>30</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4403,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>1.727</v>
@@ -4471,16 +4474,16 @@
         <v>7184245</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45267.47916666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4489,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4557,16 +4560,16 @@
         <v>7184271</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45268.47916666666</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4575,7 +4578,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>4.333</v>
@@ -4643,16 +4646,16 @@
         <v>7186558</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45269.47916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4661,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4729,16 +4732,16 @@
         <v>7184272</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4747,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>2.75</v>
@@ -4815,16 +4818,16 @@
         <v>7184273</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45272.47916666666</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4833,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>2.375</v>
@@ -4901,16 +4904,16 @@
         <v>7184246</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45273.47916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4919,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>2.45</v>
@@ -4987,16 +4990,16 @@
         <v>7186557</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45274.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5005,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5073,16 +5076,16 @@
         <v>7184274</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45275.47916666666</v>
       </c>
       <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
         <v>31</v>
-      </c>
-      <c r="F54" t="s">
-        <v>30</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5091,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>3.75</v>
@@ -5159,16 +5162,16 @@
         <v>7184275</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45276.375</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5177,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>1.95</v>
@@ -5245,16 +5248,16 @@
         <v>7184247</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45276.47916666666</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5263,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>1.4</v>
@@ -5331,16 +5334,16 @@
         <v>7184276</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45277.47916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5349,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>1.75</v>
@@ -5417,16 +5420,16 @@
         <v>7186556</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45278.47916666666</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5435,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>2.6</v>
@@ -5503,16 +5506,16 @@
         <v>7185197</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45280.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5521,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>1.95</v>
@@ -5589,16 +5592,16 @@
         <v>7184277</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45281.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5607,7 +5610,7 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>2.6</v>
@@ -5675,16 +5678,16 @@
         <v>7184248</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45282.47916666666</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5693,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>2.7</v>
@@ -5761,16 +5764,16 @@
         <v>7184278</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5779,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>1.85</v>
@@ -5847,16 +5850,16 @@
         <v>7184279</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45284.375</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5865,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5933,16 +5936,16 @@
         <v>7184251</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5951,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -6019,16 +6022,16 @@
         <v>7186555</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45286.47916666666</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6037,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>2.6</v>
@@ -6105,16 +6108,16 @@
         <v>7184252</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45287.47916666666</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6123,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>1.909</v>
@@ -6191,16 +6194,16 @@
         <v>7184253</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45288.47916666666</v>
       </c>
       <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s">
         <v>38</v>
-      </c>
-      <c r="F67" t="s">
-        <v>37</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6209,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>1.5</v>
@@ -6277,16 +6280,16 @@
         <v>7184280</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45289.375</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6295,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>1.75</v>
@@ -6363,16 +6366,16 @@
         <v>7184281</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45289.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6381,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -6449,16 +6452,16 @@
         <v>7751741</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45322.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6467,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6535,16 +6538,16 @@
         <v>7751742</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45323.45833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6553,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>5.25</v>
@@ -6621,16 +6624,16 @@
         <v>7749463</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45324.45833333334</v>
       </c>
       <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
         <v>29</v>
-      </c>
-      <c r="F72" t="s">
-        <v>28</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6639,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>2.15</v>
@@ -6707,16 +6710,16 @@
         <v>7751743</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -6725,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <v>2.5</v>
@@ -6793,16 +6796,16 @@
         <v>7749754</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6811,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>1.444</v>
@@ -6879,16 +6882,16 @@
         <v>7749867</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6897,7 +6900,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>1.571</v>
@@ -6965,16 +6968,16 @@
         <v>7749765</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45327.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6983,7 +6986,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <v>9</v>
@@ -7051,16 +7054,16 @@
         <v>7751744</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45329.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7069,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7137,16 +7140,16 @@
         <v>7749766</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45331.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7155,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>3.1</v>
@@ -7223,16 +7226,16 @@
         <v>7751745</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7241,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>2.6</v>
@@ -7309,16 +7312,16 @@
         <v>7749755</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7327,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>1.2</v>
@@ -7395,16 +7398,16 @@
         <v>7751746</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" t="s">
         <v>35</v>
-      </c>
-      <c r="F81" t="s">
-        <v>34</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7413,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7481,16 +7484,16 @@
         <v>7749464</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45334.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7499,7 +7502,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>1.615</v>
@@ -7567,16 +7570,16 @@
         <v>7749868</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45335.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7585,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>3.75</v>
@@ -7653,16 +7656,16 @@
         <v>7749756</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45336.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7671,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7739,16 +7742,16 @@
         <v>7751747</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45337.45833333334</v>
       </c>
       <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
         <v>36</v>
-      </c>
-      <c r="F85" t="s">
-        <v>35</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7757,7 +7760,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>2.55</v>
@@ -7825,16 +7828,16 @@
         <v>7749465</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45338.45833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7843,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <v>2.625</v>
@@ -7911,16 +7914,16 @@
         <v>7749757</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>4</v>
@@ -7929,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>1.666</v>
@@ -7997,16 +8000,16 @@
         <v>7751748</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8015,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>10</v>
@@ -8083,16 +8086,16 @@
         <v>7749869</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8101,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J89">
         <v>1.65</v>
@@ -8169,16 +8172,16 @@
         <v>7751749</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8187,7 +8190,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>1.4</v>
@@ -8255,16 +8258,16 @@
         <v>7751750</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8273,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -8341,16 +8344,16 @@
         <v>7749870</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45345.45833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8359,7 +8362,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8427,16 +8430,16 @@
         <v>7873049</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8445,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J93">
         <v>2.25</v>
@@ -8513,16 +8516,16 @@
         <v>7751751</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8531,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J94">
         <v>1.2</v>
@@ -8599,16 +8602,16 @@
         <v>7749466</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8617,7 +8620,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>3.3</v>
@@ -8685,16 +8688,16 @@
         <v>7751752</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8703,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8771,16 +8774,16 @@
         <v>7751753</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45349.45833333334</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8789,7 +8792,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>4.333</v>
@@ -8857,16 +8860,16 @@
         <v>7749871</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45350.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8875,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8943,16 +8946,16 @@
         <v>7749767</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45351.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8961,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9029,16 +9032,16 @@
         <v>7749759</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45352.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9047,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J100">
         <v>1.615</v>
@@ -9115,16 +9118,16 @@
         <v>7749872</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9133,7 +9136,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>4.5</v>
@@ -9201,16 +9204,16 @@
         <v>7749467</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9219,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9287,16 +9290,16 @@
         <v>7749768</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9305,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>2.6</v>
@@ -9373,16 +9376,16 @@
         <v>7751754</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45355.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9391,7 +9394,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>5.25</v>
@@ -9459,16 +9462,16 @@
         <v>7751755</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45357.45833333334</v>
       </c>
       <c r="E105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" t="s">
         <v>33</v>
-      </c>
-      <c r="F105" t="s">
-        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9477,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J105">
         <v>1.6</v>
@@ -9545,16 +9548,16 @@
         <v>7751756</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45358.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9563,7 +9566,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9631,16 +9634,16 @@
         <v>7749873</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45359.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9649,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>3.75</v>
@@ -9717,16 +9720,16 @@
         <v>7751757</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9735,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>1.333</v>
@@ -9803,16 +9806,16 @@
         <v>7749760</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45361.5</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9821,7 +9824,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>3.8</v>
@@ -9889,16 +9892,16 @@
         <v>7751758</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45362.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>3</v>
@@ -9907,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -9975,16 +9978,16 @@
         <v>7749874</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45363.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -9993,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J111">
         <v>1.5</v>
@@ -10061,16 +10064,16 @@
         <v>7749468</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45364.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10079,7 +10082,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>2.9</v>
@@ -10147,16 +10150,16 @@
         <v>7751759</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45365.45833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10165,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>1.666</v>
@@ -10233,16 +10236,16 @@
         <v>7749770</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10251,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>2.55</v>
@@ -10319,16 +10322,16 @@
         <v>7749469</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10337,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>2.2</v>
@@ -10405,16 +10408,16 @@
         <v>7749761</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10423,7 +10426,7 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>1.533</v>
@@ -10491,16 +10494,16 @@
         <v>7749875</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45383.45833333334</v>
       </c>
       <c r="E117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" t="s">
         <v>39</v>
-      </c>
-      <c r="F117" t="s">
-        <v>38</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10509,7 +10512,7 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>9.5</v>
@@ -10577,16 +10580,16 @@
         <v>7749773</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45384.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10595,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J118">
         <v>1.65</v>
@@ -10663,16 +10666,16 @@
         <v>7749470</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45385.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10681,7 +10684,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>1.85</v>
@@ -10749,16 +10752,16 @@
         <v>7751760</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45386.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10767,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>2.3</v>
@@ -10835,16 +10838,16 @@
         <v>7751761</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45387.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>4</v>
@@ -10853,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J121">
         <v>1.142</v>
@@ -10921,16 +10924,16 @@
         <v>7749762</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10939,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>4.333</v>
@@ -11007,16 +11010,16 @@
         <v>7749471</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11025,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J123">
         <v>2</v>
@@ -11093,16 +11096,16 @@
         <v>7751762</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45389.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11111,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11179,16 +11182,16 @@
         <v>7749774</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45390.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11197,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J125">
         <v>1.95</v>
@@ -11265,16 +11268,16 @@
         <v>7751763</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45391.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11283,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -11351,16 +11354,16 @@
         <v>7751764</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45391.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11369,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J127">
         <v>2.2</v>
@@ -11437,16 +11440,16 @@
         <v>7751765</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45392.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11455,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11523,16 +11526,16 @@
         <v>7749763</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45393.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11541,7 +11544,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>4.333</v>
@@ -11609,16 +11612,16 @@
         <v>7749472</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45394.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11627,7 +11630,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J130">
         <v>5.25</v>
@@ -11695,16 +11698,16 @@
         <v>7749775</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11713,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>2.8</v>
@@ -11781,16 +11784,16 @@
         <v>7751766</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11799,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J132">
         <v>1.363</v>
@@ -11867,16 +11870,16 @@
         <v>7749764</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45397.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11885,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>2.5</v>
@@ -11953,16 +11956,16 @@
         <v>8103573</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E134" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" t="s">
         <v>29</v>
-      </c>
-      <c r="F134" t="s">
-        <v>28</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11971,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>1.65</v>
@@ -12039,16 +12042,16 @@
         <v>8103574</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12057,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>1.4</v>
@@ -12125,16 +12128,16 @@
         <v>8120939</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12143,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>3.4</v>
@@ -12211,16 +12214,16 @@
         <v>8124823</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45406.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12229,7 +12232,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J137">
         <v>2.05</v>
@@ -12297,16 +12300,16 @@
         <v>8120940</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E138" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" t="s">
         <v>30</v>
-      </c>
-      <c r="F138" t="s">
-        <v>29</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12315,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J138">
         <v>1.75</v>
@@ -12383,16 +12386,16 @@
         <v>8124824</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45411.45833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12401,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J139">
         <v>2.375</v>
@@ -12459,6 +12462,71 @@
       </c>
       <c r="AB139">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E140" t="s">
+        <v>31</v>
+      </c>
+      <c r="F140" t="s">
+        <v>39</v>
+      </c>
+      <c r="J140">
+        <v>2.3</v>
+      </c>
+      <c r="K140">
+        <v>3.6</v>
+      </c>
+      <c r="L140">
+        <v>2.875</v>
+      </c>
+      <c r="M140">
+        <v>2.3</v>
+      </c>
+      <c r="N140">
+        <v>3.6</v>
+      </c>
+      <c r="O140">
+        <v>2.875</v>
+      </c>
+      <c r="P140">
+        <v>-0.25</v>
+      </c>
+      <c r="Q140">
+        <v>2.025</v>
+      </c>
+      <c r="R140">
+        <v>1.775</v>
+      </c>
+      <c r="S140">
+        <v>2.75</v>
+      </c>
+      <c r="T140">
+        <v>1.825</v>
+      </c>
+      <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -12493,22 +12493,22 @@
         <v>2.875</v>
       </c>
       <c r="M140">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N140">
         <v>3.6</v>
       </c>
       <c r="O140">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q140">
+        <v>1.775</v>
+      </c>
+      <c r="R140">
         <v>2.025</v>
-      </c>
-      <c r="R140">
-        <v>1.775</v>
       </c>
       <c r="S140">
         <v>2.75</v>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8161825</t>
   </si>
   <si>
     <t>India Super League</t>
@@ -604,16 +601,16 @@
         <v>7184224</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45190.47916666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -622,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -690,16 +687,16 @@
         <v>7184225</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45192.375</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -708,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>2.05</v>
@@ -776,16 +773,16 @@
         <v>7186566</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45192.5</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -794,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>1.571</v>
@@ -862,16 +859,16 @@
         <v>7184256</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45193.47916666666</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -880,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>7</v>
@@ -948,16 +945,16 @@
         <v>7184226</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45194.47916666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -966,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>2.6</v>
@@ -1034,16 +1031,16 @@
         <v>7263673</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45196.47916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1052,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1120,16 +1117,16 @@
         <v>7185195</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45197.47916666666</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1138,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1206,16 +1203,16 @@
         <v>7184227</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45198.47916666666</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1224,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>4.2</v>
@@ -1292,16 +1289,16 @@
         <v>7184228</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45199.47916666666</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1310,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1378,16 +1375,16 @@
         <v>7184229</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45200.47916666666</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>1.85</v>
@@ -1464,16 +1461,16 @@
         <v>7186565</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45201.47916666666</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1482,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>1.833</v>
@@ -1550,16 +1547,16 @@
         <v>7184230</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45203.47916666666</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1568,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>1.5</v>
@@ -1636,16 +1633,16 @@
         <v>7184258</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45204.47916666666</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1654,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>3.1</v>
@@ -1722,16 +1719,16 @@
         <v>7186564</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45205.47916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1740,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1808,16 +1805,16 @@
         <v>7184259</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45206.375</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1826,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>1.909</v>
@@ -1894,16 +1891,16 @@
         <v>7184231</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45206.47916666666</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1912,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>3.4</v>
@@ -1980,16 +1977,16 @@
         <v>7184232</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45207.47916666666</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1998,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>1.571</v>
@@ -2066,16 +2063,16 @@
         <v>7184233</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45220.375</v>
       </c>
       <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2084,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>3.5</v>
@@ -2152,16 +2149,16 @@
         <v>7184234</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45220.47916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2170,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1.5</v>
@@ -2238,17 +2235,17 @@
         <v>7186563</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45221.47916666666</v>
       </c>
       <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -2256,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1.727</v>
@@ -2324,16 +2321,16 @@
         <v>7184235</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45222.47916666666</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2342,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2410,16 +2407,16 @@
         <v>7184260</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2428,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>2.5</v>
@@ -2496,16 +2493,16 @@
         <v>7184261</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45225.47916666666</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2514,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>2.875</v>
@@ -2582,16 +2579,16 @@
         <v>7184236</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
         <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2600,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>2.1</v>
@@ -2668,16 +2665,16 @@
         <v>7184262</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45227.47916666666</v>
       </c>
       <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
         <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2686,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1.615</v>
@@ -2754,16 +2751,16 @@
         <v>7186562</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45228.47916666666</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2772,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2840,16 +2837,16 @@
         <v>7184263</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45230.47916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2858,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>2.05</v>
@@ -2926,16 +2923,16 @@
         <v>7184264</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45231.47916666666</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2944,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -3012,16 +3009,16 @@
         <v>7186561</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45232.47916666666</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3030,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J30">
         <v>1.333</v>
@@ -3098,16 +3095,16 @@
         <v>7184265</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45233.47916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3116,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>1.533</v>
@@ -3184,16 +3181,16 @@
         <v>7184266</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45234.375</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3202,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2.3</v>
@@ -3270,16 +3267,16 @@
         <v>7184238</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45234.47916666666</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3288,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>2.5</v>
@@ -3356,16 +3353,16 @@
         <v>7184239</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45235.47916666666</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3374,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>3.2</v>
@@ -3442,16 +3439,16 @@
         <v>7186560</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45237.47916666666</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3460,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>3.2</v>
@@ -3528,16 +3525,16 @@
         <v>7184240</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45255.375</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3546,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>2.3</v>
@@ -3614,16 +3611,16 @@
         <v>7184241</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45255.47916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3632,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -3700,16 +3697,16 @@
         <v>7184267</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45256.47916666666</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3718,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -3786,16 +3783,16 @@
         <v>7184268</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45257.47916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3804,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>1.615</v>
@@ -3872,16 +3869,16 @@
         <v>7184242</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45259.47916666666</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3890,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>1.75</v>
@@ -3958,16 +3955,16 @@
         <v>7186559</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45260.47916666666</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3976,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4044,16 +4041,16 @@
         <v>7184269</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45261.47916666666</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4062,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>2.5</v>
@@ -4130,16 +4127,16 @@
         <v>7184270</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45262.47916666666</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4148,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>4.333</v>
@@ -4216,16 +4213,16 @@
         <v>7184243</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45263.47916666666</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4234,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4302,16 +4299,16 @@
         <v>7184244</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45264.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -4320,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>1.909</v>
@@ -4388,16 +4385,16 @@
         <v>7185196</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45266.47916666666</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4406,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>1.727</v>
@@ -4474,16 +4471,16 @@
         <v>7184245</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45267.47916666666</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4492,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4560,16 +4557,16 @@
         <v>7184271</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45268.47916666666</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4578,7 +4575,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>4.333</v>
@@ -4646,16 +4643,16 @@
         <v>7186558</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45269.47916666666</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4664,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4732,16 +4729,16 @@
         <v>7184272</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45270.47916666666</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4750,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <v>2.75</v>
@@ -4818,16 +4815,16 @@
         <v>7184273</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45272.47916666666</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4836,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>2.375</v>
@@ -4904,16 +4901,16 @@
         <v>7184246</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45273.47916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4922,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>2.45</v>
@@ -4990,16 +4987,16 @@
         <v>7186557</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45274.47916666666</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5008,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5076,16 +5073,16 @@
         <v>7184274</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45275.47916666666</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5094,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>3.75</v>
@@ -5162,16 +5159,16 @@
         <v>7184275</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45276.375</v>
       </c>
       <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" t="s">
         <v>35</v>
-      </c>
-      <c r="F55" t="s">
-        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5180,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J55">
         <v>1.95</v>
@@ -5248,16 +5245,16 @@
         <v>7184247</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45276.47916666666</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5266,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>1.4</v>
@@ -5334,16 +5331,16 @@
         <v>7184276</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45277.47916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5352,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>1.75</v>
@@ -5420,16 +5417,16 @@
         <v>7186556</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45278.47916666666</v>
       </c>
       <c r="E58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" t="s">
         <v>37</v>
-      </c>
-      <c r="F58" t="s">
-        <v>38</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5438,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J58">
         <v>2.6</v>
@@ -5506,16 +5503,16 @@
         <v>7185197</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45280.47916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5524,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J59">
         <v>1.95</v>
@@ -5592,16 +5589,16 @@
         <v>7184277</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45281.47916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5610,7 +5607,7 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <v>2.6</v>
@@ -5678,16 +5675,16 @@
         <v>7184248</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45282.47916666666</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5696,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>2.7</v>
@@ -5764,16 +5761,16 @@
         <v>7184278</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45283.47916666666</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5782,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>1.85</v>
@@ -5850,16 +5847,16 @@
         <v>7184279</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45284.375</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5868,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5936,16 +5933,16 @@
         <v>7184251</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45284.47916666666</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5954,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -6022,16 +6019,16 @@
         <v>7186555</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45286.47916666666</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6040,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <v>2.6</v>
@@ -6108,16 +6105,16 @@
         <v>7184252</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45287.47916666666</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6126,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>1.909</v>
@@ -6194,16 +6191,16 @@
         <v>7184253</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45288.47916666666</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6212,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.5</v>
@@ -6280,16 +6277,16 @@
         <v>7184280</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45289.375</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6298,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J68">
         <v>1.75</v>
@@ -6366,16 +6363,16 @@
         <v>7184281</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45289.47916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6384,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -6452,16 +6449,16 @@
         <v>7751741</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45322.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6470,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6538,16 +6535,16 @@
         <v>7751742</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45323.45833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6556,7 +6553,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>5.25</v>
@@ -6624,16 +6621,16 @@
         <v>7749463</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45324.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6642,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>2.15</v>
@@ -6710,16 +6707,16 @@
         <v>7751743</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45325.35416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -6728,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J73">
         <v>2.5</v>
@@ -6796,16 +6793,16 @@
         <v>7749754</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45325.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6814,7 +6811,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <v>1.444</v>
@@ -6882,16 +6879,16 @@
         <v>7749867</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45326.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6900,7 +6897,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>1.571</v>
@@ -6968,16 +6965,16 @@
         <v>7749765</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45327.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6986,7 +6983,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <v>9</v>
@@ -7054,16 +7051,16 @@
         <v>7751744</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45329.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7072,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -7140,16 +7137,16 @@
         <v>7749766</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45331.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7158,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>3.1</v>
@@ -7226,16 +7223,16 @@
         <v>7751745</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" t="s">
         <v>32</v>
-      </c>
-      <c r="F79" t="s">
-        <v>33</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7244,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J79">
         <v>2.6</v>
@@ -7312,16 +7309,16 @@
         <v>7749755</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7330,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>1.2</v>
@@ -7398,16 +7395,16 @@
         <v>7751746</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7416,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7484,16 +7481,16 @@
         <v>7749464</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45334.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7502,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J82">
         <v>1.615</v>
@@ -7570,16 +7567,16 @@
         <v>7749868</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45335.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7588,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>3.75</v>
@@ -7656,16 +7653,16 @@
         <v>7749756</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45336.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7674,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>1.8</v>
@@ -7742,16 +7739,16 @@
         <v>7751747</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45337.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7760,7 +7757,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>2.55</v>
@@ -7828,16 +7825,16 @@
         <v>7749465</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45338.45833333334</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7846,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>2.625</v>
@@ -7914,16 +7911,16 @@
         <v>7749757</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
         <v>31</v>
-      </c>
-      <c r="F87" t="s">
-        <v>32</v>
       </c>
       <c r="G87">
         <v>4</v>
@@ -7932,7 +7929,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>1.666</v>
@@ -8000,16 +7997,16 @@
         <v>7751748</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8018,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>10</v>
@@ -8086,16 +8083,16 @@
         <v>7749869</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8104,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J89">
         <v>1.65</v>
@@ -8172,16 +8169,16 @@
         <v>7751749</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8190,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J90">
         <v>1.4</v>
@@ -8258,16 +8255,16 @@
         <v>7751750</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8276,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -8344,16 +8341,16 @@
         <v>7749870</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45345.45833333334</v>
       </c>
       <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
         <v>38</v>
-      </c>
-      <c r="F92" t="s">
-        <v>39</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8362,7 +8359,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8430,17 +8427,17 @@
         <v>7873049</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" t="s">
         <v>30</v>
       </c>
-      <c r="F93" t="s">
-        <v>31</v>
-      </c>
       <c r="G93">
         <v>0</v>
       </c>
@@ -8448,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>2.25</v>
@@ -8516,16 +8513,16 @@
         <v>7751751</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8534,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J94">
         <v>1.2</v>
@@ -8602,16 +8599,16 @@
         <v>7749466</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8620,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J95">
         <v>3.3</v>
@@ -8688,16 +8685,16 @@
         <v>7751752</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8706,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8774,16 +8771,16 @@
         <v>7751753</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45349.45833333334</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8792,7 +8789,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>4.333</v>
@@ -8860,16 +8857,16 @@
         <v>7749871</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45350.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8878,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8946,16 +8943,16 @@
         <v>7749767</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45351.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8964,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9032,16 +9029,16 @@
         <v>7749759</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45352.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9050,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J100">
         <v>1.615</v>
@@ -9118,16 +9115,16 @@
         <v>7749872</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9136,7 +9133,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J101">
         <v>4.5</v>
@@ -9204,16 +9201,16 @@
         <v>7749467</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9222,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9290,16 +9287,16 @@
         <v>7749768</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9308,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J103">
         <v>2.6</v>
@@ -9376,16 +9373,16 @@
         <v>7751754</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45355.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9394,7 +9391,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J104">
         <v>5.25</v>
@@ -9462,16 +9459,16 @@
         <v>7751755</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45357.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9480,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <v>1.6</v>
@@ -9548,16 +9545,16 @@
         <v>7751756</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45358.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9566,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>2.3</v>
@@ -9634,16 +9631,16 @@
         <v>7749873</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45359.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9652,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>3.75</v>
@@ -9720,16 +9717,16 @@
         <v>7751757</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9738,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J108">
         <v>1.333</v>
@@ -9806,16 +9803,16 @@
         <v>7749760</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45361.5</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9824,7 +9821,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J109">
         <v>3.8</v>
@@ -9892,16 +9889,16 @@
         <v>7751758</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45362.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110">
         <v>3</v>
@@ -9910,7 +9907,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -9978,16 +9975,16 @@
         <v>7749874</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45363.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -9996,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J111">
         <v>1.5</v>
@@ -10064,16 +10061,16 @@
         <v>7749468</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45364.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10082,7 +10079,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>2.9</v>
@@ -10150,16 +10147,16 @@
         <v>7751759</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45365.45833333334</v>
       </c>
       <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" t="s">
         <v>34</v>
-      </c>
-      <c r="F113" t="s">
-        <v>35</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10168,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>1.666</v>
@@ -10236,16 +10233,16 @@
         <v>7749770</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10254,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>2.55</v>
@@ -10322,16 +10319,16 @@
         <v>7749469</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10340,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>2.2</v>
@@ -10408,16 +10405,16 @@
         <v>7749761</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10426,7 +10423,7 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>1.533</v>
@@ -10494,16 +10491,16 @@
         <v>7749875</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45383.45833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10512,7 +10509,7 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J117">
         <v>9.5</v>
@@ -10580,16 +10577,16 @@
         <v>7749773</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45384.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10598,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J118">
         <v>1.65</v>
@@ -10666,16 +10663,16 @@
         <v>7749470</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45385.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10684,7 +10681,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>1.85</v>
@@ -10752,16 +10749,16 @@
         <v>7751760</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45386.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10770,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J120">
         <v>2.3</v>
@@ -10838,16 +10835,16 @@
         <v>7751761</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45387.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G121">
         <v>4</v>
@@ -10856,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J121">
         <v>1.142</v>
@@ -10924,16 +10921,16 @@
         <v>7749762</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10942,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J122">
         <v>4.333</v>
@@ -11010,16 +11007,16 @@
         <v>7749471</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11028,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J123">
         <v>2</v>
@@ -11096,16 +11093,16 @@
         <v>7751762</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45389.45833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11114,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11182,16 +11179,16 @@
         <v>7749774</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45390.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11200,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J125">
         <v>1.95</v>
@@ -11268,16 +11265,16 @@
         <v>7751763</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45391.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11286,7 +11283,7 @@
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -11354,16 +11351,16 @@
         <v>7751764</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45391.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11372,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J127">
         <v>2.2</v>
@@ -11440,16 +11437,16 @@
         <v>7751765</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45392.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11458,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11526,16 +11523,16 @@
         <v>7749763</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45393.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11544,7 +11541,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J129">
         <v>4.333</v>
@@ -11612,16 +11609,16 @@
         <v>7749472</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45394.45833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11630,7 +11627,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>5.25</v>
@@ -11698,16 +11695,16 @@
         <v>7749775</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11716,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>2.8</v>
@@ -11784,16 +11781,16 @@
         <v>7751766</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11802,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J132">
         <v>1.363</v>
@@ -11870,16 +11867,16 @@
         <v>7749764</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45397.45833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11888,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>2.5</v>
@@ -11956,16 +11953,16 @@
         <v>8103573</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45401.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11974,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J134">
         <v>1.65</v>
@@ -12042,16 +12039,16 @@
         <v>8103574</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12060,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J135">
         <v>1.4</v>
@@ -12128,16 +12125,16 @@
         <v>8120939</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E136" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" t="s">
         <v>30</v>
-      </c>
-      <c r="F136" t="s">
-        <v>31</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12146,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J136">
         <v>3.4</v>
@@ -12214,16 +12211,16 @@
         <v>8124823</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45406.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12232,7 +12229,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>2.05</v>
@@ -12300,16 +12297,16 @@
         <v>8120940</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12318,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J138">
         <v>1.75</v>
@@ -12386,16 +12383,16 @@
         <v>8124824</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45411.45833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12404,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J139">
         <v>2.375</v>
@@ -12468,20 +12465,29 @@
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
-        <v>27</v>
+      <c r="B140">
+        <v>8161825</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45416.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140" t="s">
+        <v>41</v>
       </c>
       <c r="J140">
         <v>2.3</v>
@@ -12493,40 +12499,52 @@
         <v>2.875</v>
       </c>
       <c r="M140">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N140">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O140">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P140">
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R140">
         <v>2.025</v>
       </c>
       <c r="S140">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T140">
         <v>1.825</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>0</v>
+        <v>1.7</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>1.025</v>
+      </c>
+      <c r="AA140">
+        <v>0.825</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/India Super League/India Super League.xlsx
+++ b/India Super League/India Super League.xlsx
@@ -37,10 +37,10 @@
     <t>FTAG</t>
   </si>
   <si>
-    <t>ht_goals_h</t>
+    <t>HTHG</t>
   </si>
   <si>
-    <t>ht_goals_a</t>
+    <t>HTAG</t>
   </si>
   <si>
     <t>FTR</t>
